--- a/20210821_MainDocumentforFlutter.xlsx
+++ b/20210821_MainDocumentforFlutter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Overview " sheetId="1" r:id="rId1"/>
@@ -12,7 +12,6 @@
     <sheet name="Get Started" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="71">
   <si>
     <t>Get started</t>
   </si>
@@ -654,7 +653,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -694,12 +693,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,7 +897,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -914,13 +907,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -953,8 +945,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -983,9 +978,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1013,6 +1005,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1022,7 +1017,10 @@
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2423,304 +2421,296 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="79.5" customHeight="1">
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="43"/>
-      <c r="H20" s="43"/>
-      <c r="I20" s="43"/>
-      <c r="J20" s="43"/>
-      <c r="K20" s="43"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+      <c r="K20" s="42"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
+      <c r="C21" s="42"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+      <c r="K21" s="42"/>
     </row>
     <row r="22" spans="1:12" ht="22.5">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
+      <c r="C22" s="43"/>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
+      <c r="I22" s="43"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:12" ht="23.25" customHeight="1"/>
     <row r="24" spans="1:12" ht="22.5">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+      <c r="I24" s="43"/>
+      <c r="J24" s="43"/>
+      <c r="K24" s="43"/>
     </row>
     <row r="25" spans="1:12" ht="22.5">
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="42"/>
-      <c r="D25" s="42"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+      <c r="F25" s="41"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="41"/>
+      <c r="K25" s="41"/>
     </row>
     <row r="26" spans="1:12" ht="22.5">
-      <c r="B26" s="40"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="40"/>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
     </row>
     <row r="27" spans="1:12" ht="22.5">
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
     </row>
     <row r="28" spans="1:12" ht="22.5">
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:12" ht="22.5">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:12" ht="22.5">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:12" ht="22.5">
-      <c r="B31" s="40"/>
-      <c r="C31" s="40"/>
-      <c r="D31" s="40"/>
-      <c r="E31" s="40"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="40"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="40"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" spans="1:12" ht="22.5">
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
     </row>
     <row r="33" spans="2:11" ht="22.5">
-      <c r="B33" s="40"/>
-      <c r="C33" s="40"/>
-      <c r="D33" s="40"/>
-      <c r="E33" s="40"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="40"/>
-      <c r="I33" s="40"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="40"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
     </row>
     <row r="34" spans="2:11" ht="22.5">
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="30"/>
+      <c r="J34" s="30"/>
+      <c r="K34" s="30"/>
     </row>
     <row r="35" spans="2:11" ht="22.5">
-      <c r="B35" s="40"/>
-      <c r="C35" s="40"/>
-      <c r="D35" s="40"/>
-      <c r="E35" s="40"/>
-      <c r="F35" s="40"/>
-      <c r="G35" s="40"/>
-      <c r="H35" s="40"/>
-      <c r="I35" s="40"/>
-      <c r="J35" s="40"/>
-      <c r="K35" s="40"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
     </row>
     <row r="36" spans="2:11" ht="22.5">
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40"/>
+      <c r="B36" s="30"/>
+      <c r="C36" s="30"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
     </row>
     <row r="37" spans="2:11" ht="22.5">
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="40"/>
-      <c r="H37" s="40"/>
-      <c r="I37" s="40"/>
-      <c r="J37" s="40"/>
-      <c r="K37" s="40"/>
+      <c r="B37" s="30"/>
+      <c r="C37" s="30"/>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
     </row>
     <row r="38" spans="2:11" ht="22.5">
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40"/>
+      <c r="B38" s="30"/>
+      <c r="C38" s="30"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+      <c r="K38" s="30"/>
     </row>
     <row r="39" spans="2:11" ht="22.5">
-      <c r="B39" s="40"/>
-      <c r="C39" s="40"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="40"/>
-      <c r="F39" s="40"/>
-      <c r="G39" s="40"/>
-      <c r="H39" s="40"/>
-      <c r="I39" s="40"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
+      <c r="B39" s="30"/>
+      <c r="C39" s="30"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
     </row>
     <row r="40" spans="2:11" ht="22.5">
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="30"/>
+      <c r="D40" s="30"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
     </row>
     <row r="41" spans="2:11" ht="22.5">
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="40"/>
-      <c r="G41" s="40"/>
-      <c r="H41" s="40"/>
-      <c r="I41" s="40"/>
-      <c r="J41" s="40"/>
-      <c r="K41" s="40"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="30"/>
+      <c r="D41" s="30"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="2:11" ht="22.5">
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40"/>
+      <c r="B42" s="30"/>
+      <c r="C42" s="30"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="30"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
+      <c r="K42" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
     <mergeCell ref="B2:K17"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
@@ -2737,6 +2727,14 @@
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1"/>
@@ -2754,8 +2752,8 @@
   </sheetPr>
   <dimension ref="A2:P22"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2765,25 +2763,25 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="47"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="45"/>
+      <c r="L2" s="45"/>
+      <c r="M2" s="46"/>
     </row>
     <row r="3" spans="1:16">
-      <c r="B3" s="49"/>
+      <c r="B3" s="48"/>
       <c r="C3" s="2">
         <v>21</v>
       </c>
@@ -2831,31 +2829,41 @@
       <c r="B4" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="7"/>
+      <c r="C4" s="53" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:16">
       <c r="B5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7"/>
+      <c r="C5" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" spans="1:16">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:16">
       <c r="B7" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7"/>
+      <c r="C7" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="8" spans="1:16">
       <c r="B8" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="7"/>
+      <c r="C8" s="54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="9" spans="1:16">
       <c r="B9" s="3"/>
@@ -2920,6 +2928,7 @@
     <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
 
@@ -2930,7 +2939,7 @@
   </sheetPr>
   <dimension ref="B4:AI175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="AB163" sqref="AB163"/>
     </sheetView>
   </sheetViews>
@@ -2941,22 +2950,22 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:22" ht="87.75">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
     </row>
     <row r="7" spans="2:22" ht="32.25">
       <c r="B7" s="50" t="s">
@@ -2977,1284 +2986,1284 @@
       <c r="O7" s="50"/>
     </row>
     <row r="9" spans="2:22" ht="17.25">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11" t="s">
+      <c r="E9" s="9"/>
+      <c r="F9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
     </row>
     <row r="10" spans="2:22" ht="31.5">
-      <c r="B10" s="10"/>
-      <c r="C10" s="18" t="s">
+      <c r="B10" s="9"/>
+      <c r="C10" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="15" t="s">
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
     </row>
     <row r="11" spans="2:22" ht="31.5">
-      <c r="B11" s="10"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
     </row>
     <row r="12" spans="2:22" ht="26.25">
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+      <c r="P12" s="12"/>
     </row>
     <row r="13" spans="2:22" ht="17.25">
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
     </row>
     <row r="14" spans="2:22" ht="17.25">
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
     </row>
     <row r="15" spans="2:22" ht="21" customHeight="1">
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
     </row>
     <row r="16" spans="2:22" ht="21">
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="17.25">
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
-      <c r="K17" s="10"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="10"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9"/>
+      <c r="I17" s="9"/>
+      <c r="J17" s="9"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="9"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
     </row>
     <row r="18" spans="2:16" ht="26.25">
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="12"/>
+      <c r="O18" s="12"/>
+      <c r="P18" s="12"/>
     </row>
     <row r="19" spans="2:16" ht="17.25">
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="L19" s="10"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="10"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
+      <c r="I19" s="9"/>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="9"/>
+      <c r="M19" s="9"/>
+      <c r="N19" s="9"/>
+      <c r="O19" s="9"/>
+      <c r="P19" s="9"/>
     </row>
     <row r="20" spans="2:16" ht="17.25">
-      <c r="C20" s="10"/>
-      <c r="D20" s="14" t="s">
+      <c r="C20" s="9"/>
+      <c r="D20" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="10"/>
-      <c r="K20" s="10"/>
-      <c r="L20" s="10"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="10"/>
-      <c r="O20" s="10"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="9"/>
+      <c r="M20" s="9"/>
+      <c r="N20" s="9"/>
+      <c r="O20" s="9"/>
     </row>
     <row r="21" spans="2:16" ht="17.25">
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="10"/>
-      <c r="K21" s="10"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="10"/>
-      <c r="O21" s="10"/>
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="9"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="9"/>
+      <c r="O21" s="9"/>
     </row>
     <row r="22" spans="2:16" ht="30">
-      <c r="B22" s="10"/>
-      <c r="C22" s="18" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="10"/>
-      <c r="K22" s="10"/>
-      <c r="L22" s="10"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="9"/>
+      <c r="J22" s="9"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="9"/>
+      <c r="M22" s="9"/>
+      <c r="N22" s="9"/>
+      <c r="O22" s="9"/>
     </row>
     <row r="23" spans="2:16" ht="17.25">
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="9" t="s">
+      <c r="E23" s="9"/>
+      <c r="F23" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="10"/>
-      <c r="K23" s="10"/>
-      <c r="L23" s="10"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="10"/>
-      <c r="O23" s="10"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
+      <c r="J23" s="9"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="9"/>
+      <c r="M23" s="9"/>
+      <c r="N23" s="9"/>
+      <c r="O23" s="9"/>
     </row>
     <row r="24" spans="2:16" ht="17.25">
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="10"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
-      <c r="K24" s="10"/>
-      <c r="L24" s="10"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="10"/>
-      <c r="O24" s="10"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="9"/>
+      <c r="J24" s="9"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="9"/>
+      <c r="M24" s="9"/>
+      <c r="N24" s="9"/>
+      <c r="O24" s="9"/>
     </row>
     <row r="25" spans="2:16" ht="17.25">
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
-      <c r="K25" s="10"/>
-      <c r="L25" s="10"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="10"/>
-      <c r="O25" s="10"/>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="9"/>
+      <c r="J25" s="9"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
     </row>
     <row r="26" spans="2:16" ht="17.25">
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="10"/>
-      <c r="O26" s="10"/>
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
+      <c r="I26" s="9"/>
+      <c r="J26" s="9"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="9"/>
+      <c r="M26" s="9"/>
+      <c r="N26" s="9"/>
+      <c r="O26" s="9"/>
     </row>
     <row r="27" spans="2:16" ht="17.25">
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="10"/>
-      <c r="O27" s="10"/>
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="9"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="9"/>
+      <c r="O27" s="9"/>
     </row>
     <row r="28" spans="2:16" ht="17.25">
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
-      <c r="K28" s="10"/>
-      <c r="L28" s="10"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="10"/>
-      <c r="O28" s="10"/>
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="9"/>
+      <c r="H28" s="9"/>
+      <c r="I28" s="9"/>
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+      <c r="O28" s="9"/>
     </row>
     <row r="29" spans="2:16" ht="17.25">
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="9"/>
+      <c r="H29" s="9"/>
+      <c r="I29" s="9"/>
+      <c r="J29" s="9"/>
+      <c r="K29" s="9"/>
+      <c r="L29" s="9"/>
+      <c r="M29" s="9"/>
+      <c r="N29" s="9"/>
+      <c r="O29" s="9"/>
     </row>
     <row r="30" spans="2:16" ht="17.25">
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="9"/>
+      <c r="H30" s="9"/>
+      <c r="I30" s="9"/>
+      <c r="J30" s="9"/>
+      <c r="K30" s="9"/>
+      <c r="L30" s="9"/>
+      <c r="M30" s="9"/>
+      <c r="N30" s="9"/>
+      <c r="O30" s="9"/>
     </row>
     <row r="31" spans="2:16" ht="17.25">
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="9"/>
+      <c r="H31" s="9"/>
+      <c r="I31" s="9"/>
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+      <c r="O31" s="9"/>
     </row>
     <row r="32" spans="2:16" ht="17.25">
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
-      <c r="K32" s="10"/>
-      <c r="L32" s="10"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="10"/>
-      <c r="O32" s="10"/>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9"/>
+      <c r="H32" s="9"/>
+      <c r="I32" s="9"/>
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
     </row>
     <row r="33" spans="2:16" ht="17.25">
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
-      <c r="K33" s="10"/>
-      <c r="L33" s="10"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="10"/>
-      <c r="O33" s="10"/>
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="9"/>
+      <c r="H33" s="9"/>
+      <c r="I33" s="9"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="9"/>
+      <c r="M33" s="9"/>
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
     </row>
     <row r="34" spans="2:16" ht="17.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="10"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="10"/>
-      <c r="O34" s="10"/>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="9"/>
+      <c r="H34" s="9"/>
+      <c r="I34" s="9"/>
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
     </row>
     <row r="35" spans="2:16" ht="17.25">
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
-      <c r="K35" s="10"/>
-      <c r="L35" s="10"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="10"/>
-      <c r="O35" s="10"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+      <c r="I35" s="9"/>
+      <c r="J35" s="9"/>
+      <c r="K35" s="9"/>
+      <c r="L35" s="9"/>
+      <c r="M35" s="9"/>
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
     </row>
     <row r="36" spans="2:16" ht="17.25">
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="G36" s="10"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
-      <c r="K36" s="10"/>
-      <c r="L36" s="10"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="10"/>
-      <c r="O36" s="10"/>
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="9"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+      <c r="J36" s="9"/>
+      <c r="K36" s="9"/>
+      <c r="L36" s="9"/>
+      <c r="M36" s="9"/>
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
     </row>
     <row r="37" spans="2:16" ht="17.25">
-      <c r="B37" s="10"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-      <c r="K37" s="10"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="21" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="9"/>
+      <c r="H37" s="9"/>
+      <c r="I37" s="9"/>
+      <c r="J37" s="9"/>
+      <c r="K37" s="9"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="N37" s="19"/>
-      <c r="O37" s="19"/>
-      <c r="P37" s="20"/>
+      <c r="N37" s="18"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
     </row>
     <row r="38" spans="2:16" ht="17.25">
-      <c r="B38" s="10"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-      <c r="L38" s="10"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="10"/>
-      <c r="O38" s="10"/>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="9"/>
+      <c r="H38" s="9"/>
+      <c r="I38" s="9"/>
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
     </row>
     <row r="39" spans="2:16" ht="17.25">
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-      <c r="L39" s="10"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="10"/>
-      <c r="O39" s="10"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="9"/>
+      <c r="H39" s="9"/>
+      <c r="I39" s="9"/>
+      <c r="J39" s="9"/>
+      <c r="K39" s="9"/>
+      <c r="L39" s="9"/>
+      <c r="M39" s="9"/>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
     </row>
     <row r="40" spans="2:16" ht="17.25">
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-      <c r="L40" s="10"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="10"/>
-      <c r="O40" s="10"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9"/>
+      <c r="F40" s="9"/>
+      <c r="G40" s="9"/>
+      <c r="H40" s="9"/>
+      <c r="I40" s="9"/>
+      <c r="J40" s="9"/>
+      <c r="K40" s="9"/>
+      <c r="L40" s="9"/>
+      <c r="M40" s="9"/>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
     </row>
     <row r="41" spans="2:16" ht="17.25">
-      <c r="B41" s="10"/>
-      <c r="C41" s="10"/>
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-      <c r="L41" s="10"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="10"/>
-      <c r="O41" s="10"/>
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9"/>
+      <c r="F41" s="9"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="9"/>
+      <c r="I41" s="9"/>
+      <c r="J41" s="9"/>
+      <c r="K41" s="9"/>
+      <c r="L41" s="9"/>
+      <c r="M41" s="9"/>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
     </row>
     <row r="42" spans="2:16" ht="17.25">
-      <c r="B42" s="10"/>
-      <c r="C42" s="10"/>
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-      <c r="L42" s="10"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="10"/>
-      <c r="O42" s="10"/>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
     </row>
     <row r="53" spans="3:22" ht="17.25">
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-      <c r="L53" s="10"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="10"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-      <c r="R53" s="10"/>
-      <c r="S53" s="10"/>
-      <c r="T53" s="10"/>
-      <c r="U53" s="10"/>
-      <c r="V53" s="10"/>
+      <c r="E53" s="9"/>
+      <c r="F53" s="9"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="9"/>
+      <c r="J53" s="9"/>
+      <c r="K53" s="9"/>
+      <c r="L53" s="9"/>
+      <c r="M53" s="9"/>
+      <c r="N53" s="9"/>
+      <c r="O53" s="9"/>
+      <c r="P53" s="9"/>
+      <c r="Q53" s="9"/>
+      <c r="R53" s="9"/>
+      <c r="S53" s="9"/>
+      <c r="T53" s="9"/>
+      <c r="U53" s="9"/>
+      <c r="V53" s="9"/>
     </row>
     <row r="54" spans="3:22" ht="17.25">
-      <c r="D54" s="22" t="s">
+      <c r="D54" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-      <c r="K54" s="10"/>
-      <c r="L54" s="10"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="10"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-      <c r="R54" s="10"/>
-      <c r="S54" s="10"/>
-      <c r="T54" s="10"/>
-      <c r="U54" s="10"/>
-      <c r="V54" s="10"/>
+      <c r="E54" s="9"/>
+      <c r="F54" s="9"/>
+      <c r="G54" s="9"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="9"/>
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+      <c r="O54" s="9"/>
+      <c r="P54" s="9"/>
+      <c r="Q54" s="9"/>
+      <c r="R54" s="9"/>
+      <c r="S54" s="9"/>
+      <c r="T54" s="9"/>
+      <c r="U54" s="9"/>
+      <c r="V54" s="9"/>
     </row>
     <row r="55" spans="3:22" ht="17.25">
-      <c r="D55" s="10"/>
-      <c r="E55" s="10"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-      <c r="L55" s="10"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="10"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-      <c r="R55" s="10"/>
-      <c r="S55" s="10"/>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
-      <c r="V55" s="10"/>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9"/>
+      <c r="F55" s="9"/>
+      <c r="G55" s="9"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="9"/>
+      <c r="J55" s="9"/>
+      <c r="K55" s="9"/>
+      <c r="L55" s="9"/>
+      <c r="M55" s="9"/>
+      <c r="N55" s="9"/>
+      <c r="O55" s="9"/>
+      <c r="P55" s="9"/>
+      <c r="Q55" s="9"/>
+      <c r="R55" s="9"/>
+      <c r="S55" s="9"/>
+      <c r="T55" s="9"/>
+      <c r="U55" s="9"/>
+      <c r="V55" s="9"/>
     </row>
     <row r="56" spans="3:22" ht="17.25">
-      <c r="D56" s="10"/>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="10"/>
-      <c r="K56" s="10"/>
-      <c r="L56" s="10"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="10"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-      <c r="R56" s="10"/>
-      <c r="S56" s="10"/>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
-      <c r="V56" s="10"/>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9"/>
+      <c r="F56" s="9"/>
+      <c r="G56" s="9"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="9"/>
+      <c r="J56" s="9"/>
+      <c r="K56" s="9"/>
+      <c r="L56" s="9"/>
+      <c r="M56" s="9"/>
+      <c r="N56" s="9"/>
+      <c r="O56" s="9"/>
+      <c r="P56" s="9"/>
+      <c r="Q56" s="9"/>
+      <c r="R56" s="9"/>
+      <c r="S56" s="9"/>
+      <c r="T56" s="9"/>
+      <c r="U56" s="9"/>
+      <c r="V56" s="9"/>
     </row>
     <row r="57" spans="3:22" ht="17.25">
-      <c r="D57" s="10"/>
-      <c r="E57" s="10"/>
-      <c r="F57" s="10"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="10"/>
-      <c r="K57" s="10"/>
-      <c r="L57" s="10"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="10"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-      <c r="R57" s="10"/>
-      <c r="S57" s="10"/>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
-      <c r="V57" s="10"/>
+      <c r="D57" s="9"/>
+      <c r="E57" s="9"/>
+      <c r="F57" s="9"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="9"/>
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+      <c r="O57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="Q57" s="9"/>
+      <c r="R57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
+      <c r="U57" s="9"/>
+      <c r="V57" s="9"/>
     </row>
     <row r="58" spans="3:22" ht="17.25">
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
-      <c r="K58" s="10"/>
-      <c r="L58" s="10"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="10"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-      <c r="R58" s="10"/>
-      <c r="S58" s="10"/>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
-      <c r="V58" s="10"/>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9"/>
+      <c r="F58" s="9"/>
+      <c r="G58" s="9"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="9"/>
+      <c r="J58" s="9"/>
+      <c r="K58" s="9"/>
+      <c r="L58" s="9"/>
+      <c r="M58" s="9"/>
+      <c r="N58" s="9"/>
+      <c r="O58" s="9"/>
+      <c r="P58" s="9"/>
+      <c r="Q58" s="9"/>
+      <c r="R58" s="9"/>
+      <c r="S58" s="9"/>
+      <c r="T58" s="9"/>
+      <c r="U58" s="9"/>
+      <c r="V58" s="9"/>
     </row>
     <row r="59" spans="3:22" ht="17.25">
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
-      <c r="K59" s="10"/>
-      <c r="L59" s="10"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="10"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-      <c r="R59" s="10"/>
-      <c r="S59" s="10"/>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
-      <c r="V59" s="10"/>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9"/>
+      <c r="F59" s="9"/>
+      <c r="G59" s="9"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="9"/>
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+      <c r="O59" s="9"/>
+      <c r="P59" s="9"/>
+      <c r="Q59" s="9"/>
+      <c r="R59" s="9"/>
+      <c r="S59" s="9"/>
+      <c r="T59" s="9"/>
+      <c r="U59" s="9"/>
+      <c r="V59" s="9"/>
     </row>
     <row r="60" spans="3:22" ht="17.25">
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="10"/>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
-      <c r="V60" s="10"/>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9"/>
+      <c r="F60" s="9"/>
+      <c r="G60" s="9"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="9"/>
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+      <c r="O60" s="9"/>
+      <c r="P60" s="9"/>
+      <c r="Q60" s="9"/>
+      <c r="R60" s="9"/>
+      <c r="S60" s="9"/>
+      <c r="T60" s="9"/>
+      <c r="U60" s="9"/>
+      <c r="V60" s="9"/>
     </row>
     <row r="61" spans="3:22" ht="17.25">
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
-      <c r="K61" s="10"/>
-      <c r="L61" s="10"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="10"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-      <c r="R61" s="10"/>
-      <c r="S61" s="10"/>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
-      <c r="V61" s="10"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="9"/>
+      <c r="J61" s="9"/>
+      <c r="K61" s="9"/>
+      <c r="L61" s="9"/>
+      <c r="M61" s="9"/>
+      <c r="N61" s="9"/>
+      <c r="O61" s="9"/>
+      <c r="P61" s="9"/>
+      <c r="Q61" s="9"/>
+      <c r="R61" s="9"/>
+      <c r="S61" s="9"/>
+      <c r="T61" s="9"/>
+      <c r="U61" s="9"/>
+      <c r="V61" s="9"/>
     </row>
     <row r="62" spans="3:22" ht="30">
-      <c r="C62" s="18" t="s">
+      <c r="C62" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
-      <c r="K62" s="10"/>
-      <c r="L62" s="10"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="10"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-      <c r="R62" s="10"/>
-      <c r="S62" s="10"/>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
-      <c r="V62" s="10"/>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9"/>
+      <c r="F62" s="9"/>
+      <c r="G62" s="9"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="9"/>
+      <c r="J62" s="9"/>
+      <c r="K62" s="9"/>
+      <c r="L62" s="9"/>
+      <c r="M62" s="9"/>
+      <c r="N62" s="9"/>
+      <c r="O62" s="9"/>
+      <c r="P62" s="9"/>
+      <c r="Q62" s="9"/>
+      <c r="R62" s="9"/>
+      <c r="S62" s="9"/>
+      <c r="T62" s="9"/>
+      <c r="U62" s="9"/>
+      <c r="V62" s="9"/>
     </row>
     <row r="63" spans="3:22" ht="17.25">
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
-      <c r="K63" s="10"/>
-      <c r="L63" s="10"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="10"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-      <c r="R63" s="10"/>
-      <c r="S63" s="10"/>
-      <c r="T63" s="10"/>
-      <c r="U63" s="10"/>
-      <c r="V63" s="10"/>
+      <c r="E63" s="9"/>
+      <c r="F63" s="9"/>
+      <c r="G63" s="9"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+      <c r="O63" s="9"/>
+      <c r="P63" s="9"/>
+      <c r="Q63" s="9"/>
+      <c r="R63" s="9"/>
+      <c r="S63" s="9"/>
+      <c r="T63" s="9"/>
+      <c r="U63" s="9"/>
+      <c r="V63" s="9"/>
     </row>
     <row r="64" spans="3:22" ht="17.25">
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="10" t="s">
+      <c r="E64" s="9"/>
+      <c r="F64" s="9"/>
+      <c r="G64" s="9"/>
+      <c r="H64" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
-      <c r="K64" s="10"/>
-      <c r="L64" s="10"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="10"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-      <c r="R64" s="10"/>
-      <c r="S64" s="10"/>
-      <c r="T64" s="10"/>
-      <c r="U64" s="10"/>
-      <c r="V64" s="10"/>
+      <c r="I64" s="9"/>
+      <c r="J64" s="9"/>
+      <c r="K64" s="9"/>
+      <c r="L64" s="9"/>
+      <c r="M64" s="9"/>
+      <c r="N64" s="9"/>
+      <c r="O64" s="9"/>
+      <c r="P64" s="9"/>
+      <c r="Q64" s="9"/>
+      <c r="R64" s="9"/>
+      <c r="S64" s="9"/>
+      <c r="T64" s="9"/>
+      <c r="U64" s="9"/>
+      <c r="V64" s="9"/>
     </row>
     <row r="65" spans="4:22" ht="17.25">
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="10"/>
-      <c r="L65" s="10"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="10"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-      <c r="R65" s="10"/>
-      <c r="S65" s="10"/>
-      <c r="T65" s="10"/>
-      <c r="U65" s="10"/>
-      <c r="V65" s="10"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9"/>
+      <c r="F65" s="9"/>
+      <c r="G65" s="9"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+      <c r="J65" s="9"/>
+      <c r="K65" s="9"/>
+      <c r="L65" s="9"/>
+      <c r="M65" s="9"/>
+      <c r="N65" s="9"/>
+      <c r="O65" s="9"/>
+      <c r="P65" s="9"/>
+      <c r="Q65" s="9"/>
+      <c r="R65" s="9"/>
+      <c r="S65" s="9"/>
+      <c r="T65" s="9"/>
+      <c r="U65" s="9"/>
+      <c r="V65" s="9"/>
     </row>
     <row r="66" spans="4:22" ht="17.25">
-      <c r="D66" s="10"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
-      <c r="K66" s="10"/>
-      <c r="L66" s="10"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="10"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-      <c r="R66" s="10"/>
-      <c r="S66" s="10"/>
-      <c r="T66" s="10"/>
-      <c r="U66" s="10"/>
-      <c r="V66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="9"/>
+      <c r="G66" s="9"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+      <c r="J66" s="9"/>
+      <c r="K66" s="9"/>
+      <c r="L66" s="9"/>
+      <c r="M66" s="9"/>
+      <c r="N66" s="9"/>
+      <c r="O66" s="9"/>
+      <c r="P66" s="9"/>
+      <c r="Q66" s="9"/>
+      <c r="R66" s="9"/>
+      <c r="S66" s="9"/>
+      <c r="T66" s="9"/>
+      <c r="U66" s="9"/>
+      <c r="V66" s="9"/>
     </row>
     <row r="67" spans="4:22" ht="17.25">
-      <c r="D67" s="10"/>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
-      <c r="K67" s="10"/>
-      <c r="L67" s="10"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="10"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-      <c r="R67" s="10"/>
-      <c r="S67" s="10"/>
-      <c r="T67" s="10"/>
-      <c r="U67" s="10"/>
-      <c r="V67" s="10"/>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9"/>
+      <c r="F67" s="9"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="9"/>
+      <c r="I67" s="9"/>
+      <c r="J67" s="9"/>
+      <c r="K67" s="9"/>
+      <c r="L67" s="9"/>
+      <c r="M67" s="9"/>
+      <c r="N67" s="9"/>
+      <c r="O67" s="9"/>
+      <c r="P67" s="9"/>
+      <c r="Q67" s="9"/>
+      <c r="R67" s="9"/>
+      <c r="S67" s="9"/>
+      <c r="T67" s="9"/>
+      <c r="U67" s="9"/>
+      <c r="V67" s="9"/>
     </row>
     <row r="68" spans="4:22" ht="17.25">
-      <c r="D68" s="10"/>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
-      <c r="K68" s="10"/>
-      <c r="L68" s="10"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="10"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-      <c r="R68" s="10"/>
-      <c r="S68" s="10"/>
-      <c r="T68" s="10"/>
-      <c r="U68" s="10"/>
-      <c r="V68" s="10"/>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9"/>
+      <c r="F68" s="9"/>
+      <c r="G68" s="9"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+      <c r="J68" s="9"/>
+      <c r="K68" s="9"/>
+      <c r="L68" s="9"/>
+      <c r="M68" s="9"/>
+      <c r="N68" s="9"/>
+      <c r="O68" s="9"/>
+      <c r="P68" s="9"/>
+      <c r="Q68" s="9"/>
+      <c r="R68" s="9"/>
+      <c r="S68" s="9"/>
+      <c r="T68" s="9"/>
+      <c r="U68" s="9"/>
+      <c r="V68" s="9"/>
     </row>
     <row r="69" spans="4:22" ht="17.25">
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
-      <c r="K69" s="10"/>
-      <c r="L69" s="10"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="10"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-      <c r="R69" s="10"/>
-      <c r="S69" s="10"/>
-      <c r="T69" s="10"/>
-      <c r="U69" s="10"/>
-      <c r="V69" s="10"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+      <c r="G69" s="9"/>
+      <c r="H69" s="9"/>
+      <c r="I69" s="9"/>
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+      <c r="O69" s="9"/>
+      <c r="P69" s="9"/>
+      <c r="Q69" s="9"/>
+      <c r="R69" s="9"/>
+      <c r="S69" s="9"/>
+      <c r="T69" s="9"/>
+      <c r="U69" s="9"/>
+      <c r="V69" s="9"/>
     </row>
     <row r="70" spans="4:22" ht="17.25">
-      <c r="D70" s="10"/>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
-      <c r="K70" s="10"/>
-      <c r="L70" s="10"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="10"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-      <c r="R70" s="10"/>
-      <c r="S70" s="10"/>
-      <c r="T70" s="10"/>
-      <c r="U70" s="10"/>
-      <c r="V70" s="10"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9"/>
+      <c r="F70" s="9"/>
+      <c r="G70" s="9"/>
+      <c r="H70" s="9"/>
+      <c r="I70" s="9"/>
+      <c r="J70" s="9"/>
+      <c r="K70" s="9"/>
+      <c r="L70" s="9"/>
+      <c r="M70" s="9"/>
+      <c r="N70" s="9"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="9"/>
+      <c r="R70" s="9"/>
+      <c r="S70" s="9"/>
+      <c r="T70" s="9"/>
+      <c r="U70" s="9"/>
+      <c r="V70" s="9"/>
     </row>
     <row r="71" spans="4:22" ht="17.25">
-      <c r="D71" s="10"/>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="10"/>
-      <c r="K71" s="10"/>
-      <c r="L71" s="10"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="10"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-      <c r="R71" s="10"/>
-      <c r="S71" s="10"/>
-      <c r="T71" s="10"/>
-      <c r="U71" s="10"/>
-      <c r="V71" s="10"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
+      <c r="F71" s="9"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="9"/>
+      <c r="I71" s="9"/>
+      <c r="J71" s="9"/>
+      <c r="K71" s="9"/>
+      <c r="L71" s="9"/>
+      <c r="M71" s="9"/>
+      <c r="N71" s="9"/>
+      <c r="O71" s="9"/>
+      <c r="P71" s="9"/>
+      <c r="Q71" s="9"/>
+      <c r="R71" s="9"/>
+      <c r="S71" s="9"/>
+      <c r="T71" s="9"/>
+      <c r="U71" s="9"/>
+      <c r="V71" s="9"/>
     </row>
     <row r="72" spans="4:22" ht="17.25">
-      <c r="D72" s="10"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="10"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="10"/>
-      <c r="K72" s="10"/>
-      <c r="L72" s="10"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="10"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-      <c r="R72" s="10"/>
-      <c r="S72" s="10"/>
-      <c r="T72" s="10"/>
-      <c r="U72" s="10"/>
-      <c r="V72" s="10"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9"/>
+      <c r="H72" s="9"/>
+      <c r="I72" s="9"/>
+      <c r="J72" s="9"/>
+      <c r="K72" s="9"/>
+      <c r="L72" s="9"/>
+      <c r="M72" s="9"/>
+      <c r="N72" s="9"/>
+      <c r="O72" s="9"/>
+      <c r="P72" s="9"/>
+      <c r="Q72" s="9"/>
+      <c r="R72" s="9"/>
+      <c r="S72" s="9"/>
+      <c r="T72" s="9"/>
+      <c r="U72" s="9"/>
+      <c r="V72" s="9"/>
     </row>
     <row r="73" spans="4:22" ht="17.25">
-      <c r="D73" s="10"/>
-      <c r="E73" s="10"/>
-      <c r="F73" s="10"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="10"/>
-      <c r="K73" s="10"/>
-      <c r="L73" s="10"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="10"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-      <c r="R73" s="10"/>
-      <c r="S73" s="10"/>
-      <c r="T73" s="10"/>
-      <c r="U73" s="10"/>
-      <c r="V73" s="10"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
+      <c r="F73" s="9"/>
+      <c r="G73" s="9"/>
+      <c r="H73" s="9"/>
+      <c r="I73" s="9"/>
+      <c r="J73" s="9"/>
+      <c r="K73" s="9"/>
+      <c r="L73" s="9"/>
+      <c r="M73" s="9"/>
+      <c r="N73" s="9"/>
+      <c r="O73" s="9"/>
+      <c r="P73" s="9"/>
+      <c r="Q73" s="9"/>
+      <c r="R73" s="9"/>
+      <c r="S73" s="9"/>
+      <c r="T73" s="9"/>
+      <c r="U73" s="9"/>
+      <c r="V73" s="9"/>
     </row>
     <row r="74" spans="4:22" ht="17.25">
-      <c r="D74" s="10"/>
-      <c r="E74" s="10"/>
-      <c r="F74" s="10"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="10"/>
-      <c r="K74" s="10"/>
-      <c r="L74" s="10"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="10"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-      <c r="R74" s="10"/>
-      <c r="S74" s="10"/>
-      <c r="T74" s="10"/>
-      <c r="U74" s="10"/>
-      <c r="V74" s="10"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
+      <c r="F74" s="9"/>
+      <c r="G74" s="9"/>
+      <c r="H74" s="9"/>
+      <c r="I74" s="9"/>
+      <c r="J74" s="9"/>
+      <c r="K74" s="9"/>
+      <c r="L74" s="9"/>
+      <c r="M74" s="9"/>
+      <c r="N74" s="9"/>
+      <c r="O74" s="9"/>
+      <c r="P74" s="9"/>
+      <c r="Q74" s="9"/>
+      <c r="R74" s="9"/>
+      <c r="S74" s="9"/>
+      <c r="T74" s="9"/>
+      <c r="U74" s="9"/>
+      <c r="V74" s="9"/>
     </row>
     <row r="75" spans="4:22" ht="17.25">
-      <c r="D75" s="10"/>
-      <c r="E75" s="10"/>
-      <c r="F75" s="10"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="10"/>
-      <c r="K75" s="10"/>
-      <c r="L75" s="10"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="10"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-      <c r="R75" s="10"/>
-      <c r="S75" s="10"/>
-      <c r="T75" s="10"/>
-      <c r="U75" s="10"/>
-      <c r="V75" s="10"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
     </row>
     <row r="76" spans="4:22" ht="17.25">
-      <c r="D76" s="10"/>
-      <c r="E76" s="10"/>
-      <c r="F76" s="10"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="10"/>
-      <c r="K76" s="10"/>
-      <c r="L76" s="10"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="10"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-      <c r="R76" s="10"/>
-      <c r="S76" s="10"/>
-      <c r="T76" s="10"/>
-      <c r="U76" s="10"/>
-      <c r="V76" s="10"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
+      <c r="F76" s="9"/>
+      <c r="G76" s="9"/>
+      <c r="H76" s="9"/>
+      <c r="I76" s="9"/>
+      <c r="J76" s="9"/>
+      <c r="K76" s="9"/>
+      <c r="L76" s="9"/>
+      <c r="M76" s="9"/>
+      <c r="N76" s="9"/>
+      <c r="O76" s="9"/>
+      <c r="P76" s="9"/>
+      <c r="Q76" s="9"/>
+      <c r="R76" s="9"/>
+      <c r="S76" s="9"/>
+      <c r="T76" s="9"/>
+      <c r="U76" s="9"/>
+      <c r="V76" s="9"/>
     </row>
     <row r="77" spans="4:22" ht="17.25">
-      <c r="D77" s="10"/>
-      <c r="E77" s="10"/>
-      <c r="F77" s="10"/>
-      <c r="G77" s="10"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="10"/>
-      <c r="K77" s="10"/>
-      <c r="L77" s="10"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="10"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-      <c r="R77" s="10"/>
-      <c r="S77" s="10"/>
-      <c r="T77" s="10"/>
-      <c r="U77" s="10"/>
-      <c r="V77" s="10"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
+      <c r="F77" s="9"/>
+      <c r="G77" s="9"/>
+      <c r="H77" s="9"/>
+      <c r="I77" s="9"/>
+      <c r="J77" s="9"/>
+      <c r="K77" s="9"/>
+      <c r="L77" s="9"/>
+      <c r="M77" s="9"/>
+      <c r="N77" s="9"/>
+      <c r="O77" s="9"/>
+      <c r="P77" s="9"/>
+      <c r="Q77" s="9"/>
+      <c r="R77" s="9"/>
+      <c r="S77" s="9"/>
+      <c r="T77" s="9"/>
+      <c r="U77" s="9"/>
+      <c r="V77" s="9"/>
     </row>
     <row r="78" spans="4:22" ht="17.25">
-      <c r="D78" s="10"/>
-      <c r="E78" s="10"/>
-      <c r="F78" s="10"/>
-      <c r="G78" s="10"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="10"/>
-      <c r="K78" s="10"/>
-      <c r="L78" s="10"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="10"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-      <c r="R78" s="10"/>
-      <c r="S78" s="10"/>
-      <c r="T78" s="10"/>
-      <c r="U78" s="10"/>
-      <c r="V78" s="10"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+      <c r="O78" s="9"/>
+      <c r="P78" s="9"/>
+      <c r="Q78" s="9"/>
+      <c r="R78" s="9"/>
+      <c r="S78" s="9"/>
+      <c r="T78" s="9"/>
+      <c r="U78" s="9"/>
+      <c r="V78" s="9"/>
     </row>
     <row r="79" spans="4:22" ht="17.25">
-      <c r="D79" s="10"/>
-      <c r="E79" s="10"/>
-      <c r="F79" s="10"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="10"/>
-      <c r="K79" s="10"/>
-      <c r="L79" s="10"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="10"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-      <c r="R79" s="10"/>
-      <c r="S79" s="10"/>
-      <c r="T79" s="10"/>
-      <c r="U79" s="10"/>
-      <c r="V79" s="10"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+      <c r="L79" s="9"/>
+      <c r="M79" s="9"/>
+      <c r="N79" s="9"/>
+      <c r="O79" s="9"/>
+      <c r="P79" s="9"/>
+      <c r="Q79" s="9"/>
+      <c r="R79" s="9"/>
+      <c r="S79" s="9"/>
+      <c r="T79" s="9"/>
+      <c r="U79" s="9"/>
+      <c r="V79" s="9"/>
     </row>
     <row r="80" spans="4:22" ht="17.25">
-      <c r="D80" s="10"/>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="10"/>
-      <c r="K80" s="10"/>
-      <c r="L80" s="10"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="10"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-      <c r="R80" s="10"/>
-      <c r="S80" s="10"/>
-      <c r="T80" s="10"/>
-      <c r="U80" s="10"/>
-      <c r="V80" s="10"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
+      <c r="L80" s="9"/>
+      <c r="M80" s="9"/>
+      <c r="N80" s="9"/>
+      <c r="O80" s="9"/>
+      <c r="P80" s="9"/>
+      <c r="Q80" s="9"/>
+      <c r="R80" s="9"/>
+      <c r="S80" s="9"/>
+      <c r="T80" s="9"/>
+      <c r="U80" s="9"/>
+      <c r="V80" s="9"/>
     </row>
     <row r="81" spans="2:35" ht="17.25">
-      <c r="D81" s="10"/>
-      <c r="E81" s="10"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="10"/>
-      <c r="K81" s="10"/>
-      <c r="L81" s="10"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="10"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-      <c r="R81" s="10"/>
-      <c r="S81" s="10"/>
-      <c r="T81" s="10"/>
-      <c r="U81" s="10"/>
-      <c r="V81" s="10"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+      <c r="O81" s="9"/>
+      <c r="P81" s="9"/>
+      <c r="Q81" s="9"/>
+      <c r="R81" s="9"/>
+      <c r="S81" s="9"/>
+      <c r="T81" s="9"/>
+      <c r="U81" s="9"/>
+      <c r="V81" s="9"/>
     </row>
     <row r="82" spans="2:35" ht="17.25">
-      <c r="D82" s="10"/>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10"/>
-      <c r="G82" s="10"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="10"/>
-      <c r="K82" s="10"/>
-      <c r="L82" s="10"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="10"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-      <c r="R82" s="10"/>
-      <c r="S82" s="10"/>
-      <c r="T82" s="10"/>
-      <c r="U82" s="10"/>
-      <c r="V82" s="10"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
+      <c r="L82" s="9"/>
+      <c r="M82" s="9"/>
+      <c r="N82" s="9"/>
+      <c r="O82" s="9"/>
+      <c r="P82" s="9"/>
+      <c r="Q82" s="9"/>
+      <c r="R82" s="9"/>
+      <c r="S82" s="9"/>
+      <c r="T82" s="9"/>
+      <c r="U82" s="9"/>
+      <c r="V82" s="9"/>
     </row>
     <row r="83" spans="2:35" ht="17.25">
-      <c r="D83" s="10"/>
-      <c r="E83" s="10"/>
-      <c r="F83" s="10"/>
-      <c r="G83" s="10"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="10"/>
-      <c r="K83" s="10"/>
-      <c r="L83" s="10"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="10"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-      <c r="R83" s="10"/>
-      <c r="S83" s="10"/>
-      <c r="T83" s="10"/>
-      <c r="U83" s="10"/>
-      <c r="V83" s="10"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
+      <c r="L83" s="9"/>
+      <c r="M83" s="9"/>
+      <c r="N83" s="9"/>
+      <c r="O83" s="9"/>
+      <c r="P83" s="9"/>
+      <c r="Q83" s="9"/>
+      <c r="R83" s="9"/>
+      <c r="S83" s="9"/>
+      <c r="T83" s="9"/>
+      <c r="U83" s="9"/>
+      <c r="V83" s="9"/>
     </row>
     <row r="84" spans="2:35" ht="17.25">
-      <c r="D84" s="10"/>
-      <c r="E84" s="10"/>
-      <c r="F84" s="10"/>
-      <c r="G84" s="10"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="10"/>
-      <c r="K84" s="10"/>
-      <c r="L84" s="10"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="10"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-      <c r="R84" s="10"/>
-      <c r="S84" s="10"/>
-      <c r="T84" s="10"/>
-      <c r="U84" s="10"/>
-      <c r="V84" s="10"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
+      <c r="L84" s="9"/>
+      <c r="M84" s="9"/>
+      <c r="N84" s="9"/>
+      <c r="O84" s="9"/>
+      <c r="P84" s="9"/>
+      <c r="Q84" s="9"/>
+      <c r="R84" s="9"/>
+      <c r="S84" s="9"/>
+      <c r="T84" s="9"/>
+      <c r="U84" s="9"/>
+      <c r="V84" s="9"/>
     </row>
     <row r="85" spans="2:35" ht="17.25">
-      <c r="D85" s="10"/>
-      <c r="E85" s="10"/>
-      <c r="F85" s="10"/>
-      <c r="G85" s="10"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="10"/>
-      <c r="K85" s="10"/>
-      <c r="L85" s="10"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="10"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-      <c r="R85" s="10"/>
-      <c r="S85" s="10"/>
-      <c r="T85" s="10"/>
-      <c r="U85" s="10"/>
-      <c r="V85" s="10"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
+      <c r="L85" s="9"/>
+      <c r="M85" s="9"/>
+      <c r="N85" s="9"/>
+      <c r="O85" s="9"/>
+      <c r="P85" s="9"/>
+      <c r="Q85" s="9"/>
+      <c r="R85" s="9"/>
+      <c r="S85" s="9"/>
+      <c r="T85" s="9"/>
+      <c r="U85" s="9"/>
+      <c r="V85" s="9"/>
     </row>
     <row r="86" spans="2:35" ht="32.25">
       <c r="B86" s="50" t="s">
@@ -4275,12 +4284,12 @@
       <c r="O86" s="50"/>
     </row>
     <row r="88" spans="2:35" ht="21">
-      <c r="C88" s="23" t="s">
+      <c r="C88" s="22" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="89" spans="2:35" ht="24.75" customHeight="1">
-      <c r="C89" s="24">
+      <c r="C89" s="23">
         <v>1</v>
       </c>
       <c r="D89" s="51" t="s">
@@ -4289,10 +4298,10 @@
       <c r="E89" s="51"/>
       <c r="F89" s="51"/>
       <c r="G89" s="51"/>
-      <c r="H89" s="25"/>
+      <c r="H89" s="24"/>
     </row>
     <row r="90" spans="2:35" ht="22.5" customHeight="1">
-      <c r="C90" s="26">
+      <c r="C90" s="25">
         <v>2</v>
       </c>
       <c r="D90" s="51" t="s">
@@ -4301,12 +4310,12 @@
       <c r="E90" s="51"/>
       <c r="F90" s="51"/>
       <c r="G90" s="51"/>
-      <c r="H90" s="25" t="s">
+      <c r="H90" s="24" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="91" spans="2:35" ht="24.75" customHeight="1">
-      <c r="C91" s="24">
+      <c r="C91" s="23">
         <v>3</v>
       </c>
       <c r="D91" s="51" t="s">
@@ -4317,11 +4326,11 @@
       <c r="G91" s="51"/>
     </row>
     <row r="92" spans="2:35" ht="24.75" customHeight="1">
-      <c r="C92" s="30"/>
-      <c r="D92" s="29"/>
-      <c r="E92" s="29"/>
-      <c r="F92" s="29"/>
-      <c r="G92" s="29"/>
+      <c r="C92" s="29"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="28"/>
+      <c r="F92" s="28"/>
+      <c r="G92" s="28"/>
     </row>
     <row r="93" spans="2:35" ht="24.75" customHeight="1">
       <c r="C93" s="52" t="s">
@@ -4361,81 +4370,81 @@
       <c r="AI93" s="52"/>
     </row>
     <row r="95" spans="2:35" ht="30">
-      <c r="C95" s="18" t="s">
+      <c r="C95" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D95" s="10"/>
-      <c r="M95" s="18" t="s">
+      <c r="D95" s="9"/>
+      <c r="M95" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="AC95" s="18" t="s">
+      <c r="AC95" s="17" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="96" spans="2:35" ht="17.25">
-      <c r="C96" s="9" t="s">
+      <c r="C96" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="M96" s="10" t="s">
+      <c r="M96" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="AC96" s="10" t="s">
+      <c r="AC96" s="9" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="97" spans="3:29" ht="18.75">
-      <c r="C97" s="27"/>
-      <c r="D97" s="8" t="s">
+      <c r="C97" s="26"/>
+      <c r="D97" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="M97" s="10" t="s">
+      <c r="M97" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="AC97" s="10"/>
+      <c r="AC97" s="9"/>
     </row>
     <row r="98" spans="3:29" ht="18.75">
-      <c r="C98" s="27"/>
-      <c r="D98" s="8" t="s">
+      <c r="C98" s="26"/>
+      <c r="D98" s="7" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="105" spans="3:29" ht="17.25">
-      <c r="M105" s="10" t="s">
+      <c r="M105" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="N105" s="10"/>
-      <c r="O105" s="9" t="s">
+      <c r="N105" s="9"/>
+      <c r="O105" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-      <c r="R105" s="10"/>
-      <c r="S105" s="28"/>
-      <c r="T105" s="10" t="s">
+      <c r="P105" s="9"/>
+      <c r="Q105" s="9"/>
+      <c r="R105" s="9"/>
+      <c r="S105" s="27"/>
+      <c r="T105" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="U105" s="10"/>
+      <c r="U105" s="9"/>
     </row>
     <row r="106" spans="3:29" ht="17.25">
-      <c r="M106" s="10" t="s">
+      <c r="M106" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="N106" s="10"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-      <c r="R106" s="10"/>
-      <c r="S106" s="10"/>
-      <c r="T106" s="10"/>
-      <c r="U106" s="10"/>
+      <c r="N106" s="9"/>
+      <c r="O106" s="9"/>
+      <c r="P106" s="9"/>
+      <c r="Q106" s="9"/>
+      <c r="R106" s="9"/>
+      <c r="S106" s="9"/>
+      <c r="T106" s="9"/>
+      <c r="U106" s="9"/>
     </row>
     <row r="113" spans="13:13" ht="17.25">
-      <c r="M113" s="10" t="s">
+      <c r="M113" s="9" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="130" spans="2:15" ht="17.25">
-      <c r="M130" s="10" t="s">
+      <c r="M130" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -4458,763 +4467,763 @@
       <c r="O143" s="50"/>
     </row>
     <row r="145" spans="3:35" ht="30">
-      <c r="C145" s="18" t="s">
+      <c r="C145" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N145" s="18" t="s">
+      <c r="N145" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="AA145" s="18" t="s">
+      <c r="AA145" s="17" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="146" spans="3:35" ht="17.25">
-      <c r="C146" s="10" t="s">
+      <c r="C146" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="N146" s="10" t="s">
+      <c r="N146" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-      <c r="R146" s="10"/>
-      <c r="S146" s="10"/>
-      <c r="T146" s="10"/>
-      <c r="U146" s="10"/>
-      <c r="V146" s="10"/>
-      <c r="W146" s="10"/>
-      <c r="X146" s="10"/>
-      <c r="Y146" s="10"/>
-      <c r="Z146" s="10"/>
-      <c r="AA146" s="10" t="s">
+      <c r="O146" s="9"/>
+      <c r="P146" s="9"/>
+      <c r="Q146" s="9"/>
+      <c r="R146" s="9"/>
+      <c r="S146" s="9"/>
+      <c r="T146" s="9"/>
+      <c r="U146" s="9"/>
+      <c r="V146" s="9"/>
+      <c r="W146" s="9"/>
+      <c r="X146" s="9"/>
+      <c r="Y146" s="9"/>
+      <c r="Z146" s="9"/>
+      <c r="AA146" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="AB146" s="10"/>
-      <c r="AC146" s="10"/>
-      <c r="AD146" s="10"/>
-      <c r="AE146" s="10"/>
-      <c r="AF146" s="10"/>
-      <c r="AG146" s="10"/>
-      <c r="AH146" s="10"/>
-      <c r="AI146" s="10"/>
+      <c r="AB146" s="9"/>
+      <c r="AC146" s="9"/>
+      <c r="AD146" s="9"/>
+      <c r="AE146" s="9"/>
+      <c r="AF146" s="9"/>
+      <c r="AG146" s="9"/>
+      <c r="AH146" s="9"/>
+      <c r="AI146" s="9"/>
     </row>
     <row r="147" spans="3:35" ht="17.25">
-      <c r="C147" s="14" t="s">
+      <c r="C147" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N147" s="10"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-      <c r="R147" s="10"/>
-      <c r="S147" s="10"/>
-      <c r="T147" s="10"/>
-      <c r="U147" s="10"/>
-      <c r="V147" s="10"/>
-      <c r="W147" s="10"/>
-      <c r="X147" s="10"/>
-      <c r="Y147" s="10"/>
-      <c r="Z147" s="10"/>
-      <c r="AA147" s="10"/>
-      <c r="AB147" s="10"/>
-      <c r="AC147" s="10"/>
-      <c r="AD147" s="10"/>
-      <c r="AE147" s="10"/>
-      <c r="AF147" s="10"/>
-      <c r="AG147" s="10"/>
-      <c r="AH147" s="10"/>
-      <c r="AI147" s="10"/>
+      <c r="N147" s="9"/>
+      <c r="O147" s="9"/>
+      <c r="P147" s="9"/>
+      <c r="Q147" s="9"/>
+      <c r="R147" s="9"/>
+      <c r="S147" s="9"/>
+      <c r="T147" s="9"/>
+      <c r="U147" s="9"/>
+      <c r="V147" s="9"/>
+      <c r="W147" s="9"/>
+      <c r="X147" s="9"/>
+      <c r="Y147" s="9"/>
+      <c r="Z147" s="9"/>
+      <c r="AA147" s="9"/>
+      <c r="AB147" s="9"/>
+      <c r="AC147" s="9"/>
+      <c r="AD147" s="9"/>
+      <c r="AE147" s="9"/>
+      <c r="AF147" s="9"/>
+      <c r="AG147" s="9"/>
+      <c r="AH147" s="9"/>
+      <c r="AI147" s="9"/>
     </row>
     <row r="148" spans="3:35" ht="17.25">
-      <c r="N148" s="10"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="10"/>
-      <c r="R148" s="10"/>
-      <c r="S148" s="10"/>
-      <c r="T148" s="10"/>
-      <c r="U148" s="10"/>
-      <c r="V148" s="10"/>
-      <c r="W148" s="10"/>
-      <c r="X148" s="10"/>
-      <c r="Y148" s="10"/>
-      <c r="Z148" s="10"/>
-      <c r="AA148" s="10"/>
-      <c r="AB148" s="10"/>
-      <c r="AC148" s="10"/>
-      <c r="AD148" s="10"/>
-      <c r="AE148" s="10"/>
-      <c r="AF148" s="10"/>
-      <c r="AG148" s="10"/>
-      <c r="AH148" s="10"/>
-      <c r="AI148" s="10"/>
+      <c r="N148" s="9"/>
+      <c r="O148" s="9"/>
+      <c r="P148" s="9"/>
+      <c r="Q148" s="9"/>
+      <c r="R148" s="9"/>
+      <c r="S148" s="9"/>
+      <c r="T148" s="9"/>
+      <c r="U148" s="9"/>
+      <c r="V148" s="9"/>
+      <c r="W148" s="9"/>
+      <c r="X148" s="9"/>
+      <c r="Y148" s="9"/>
+      <c r="Z148" s="9"/>
+      <c r="AA148" s="9"/>
+      <c r="AB148" s="9"/>
+      <c r="AC148" s="9"/>
+      <c r="AD148" s="9"/>
+      <c r="AE148" s="9"/>
+      <c r="AF148" s="9"/>
+      <c r="AG148" s="9"/>
+      <c r="AH148" s="9"/>
+      <c r="AI148" s="9"/>
     </row>
     <row r="149" spans="3:35" ht="17.25">
-      <c r="N149" s="10"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-      <c r="R149" s="10"/>
-      <c r="S149" s="10"/>
-      <c r="T149" s="10"/>
-      <c r="U149" s="10"/>
-      <c r="V149" s="10"/>
-      <c r="W149" s="10"/>
-      <c r="X149" s="10"/>
-      <c r="Y149" s="10"/>
-      <c r="Z149" s="10"/>
-      <c r="AA149" s="10"/>
-      <c r="AB149" s="10"/>
-      <c r="AC149" s="10"/>
-      <c r="AD149" s="10"/>
-      <c r="AE149" s="10"/>
-      <c r="AF149" s="10"/>
-      <c r="AG149" s="10"/>
-      <c r="AH149" s="10"/>
-      <c r="AI149" s="10"/>
+      <c r="N149" s="9"/>
+      <c r="O149" s="9"/>
+      <c r="P149" s="9"/>
+      <c r="Q149" s="9"/>
+      <c r="R149" s="9"/>
+      <c r="S149" s="9"/>
+      <c r="T149" s="9"/>
+      <c r="U149" s="9"/>
+      <c r="V149" s="9"/>
+      <c r="W149" s="9"/>
+      <c r="X149" s="9"/>
+      <c r="Y149" s="9"/>
+      <c r="Z149" s="9"/>
+      <c r="AA149" s="9"/>
+      <c r="AB149" s="9"/>
+      <c r="AC149" s="9"/>
+      <c r="AD149" s="9"/>
+      <c r="AE149" s="9"/>
+      <c r="AF149" s="9"/>
+      <c r="AG149" s="9"/>
+      <c r="AH149" s="9"/>
+      <c r="AI149" s="9"/>
     </row>
     <row r="150" spans="3:35" ht="17.25">
-      <c r="N150" s="10"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-      <c r="R150" s="10"/>
-      <c r="S150" s="10"/>
-      <c r="T150" s="10"/>
-      <c r="U150" s="10"/>
-      <c r="V150" s="10"/>
-      <c r="W150" s="10"/>
-      <c r="X150" s="10"/>
-      <c r="Y150" s="10"/>
-      <c r="Z150" s="10"/>
-      <c r="AA150" s="10"/>
-      <c r="AB150" s="10"/>
-      <c r="AC150" s="10"/>
-      <c r="AD150" s="10"/>
-      <c r="AE150" s="10"/>
-      <c r="AF150" s="10"/>
-      <c r="AG150" s="10"/>
-      <c r="AH150" s="10"/>
-      <c r="AI150" s="10"/>
+      <c r="N150" s="9"/>
+      <c r="O150" s="9"/>
+      <c r="P150" s="9"/>
+      <c r="Q150" s="9"/>
+      <c r="R150" s="9"/>
+      <c r="S150" s="9"/>
+      <c r="T150" s="9"/>
+      <c r="U150" s="9"/>
+      <c r="V150" s="9"/>
+      <c r="W150" s="9"/>
+      <c r="X150" s="9"/>
+      <c r="Y150" s="9"/>
+      <c r="Z150" s="9"/>
+      <c r="AA150" s="9"/>
+      <c r="AB150" s="9"/>
+      <c r="AC150" s="9"/>
+      <c r="AD150" s="9"/>
+      <c r="AE150" s="9"/>
+      <c r="AF150" s="9"/>
+      <c r="AG150" s="9"/>
+      <c r="AH150" s="9"/>
+      <c r="AI150" s="9"/>
     </row>
     <row r="151" spans="3:35" ht="17.25">
-      <c r="N151" s="10"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10"/>
-      <c r="R151" s="10"/>
-      <c r="S151" s="10"/>
-      <c r="T151" s="10"/>
-      <c r="U151" s="10"/>
-      <c r="V151" s="10"/>
-      <c r="W151" s="10"/>
-      <c r="X151" s="10"/>
-      <c r="Y151" s="10"/>
-      <c r="Z151" s="10"/>
-      <c r="AA151" s="10"/>
-      <c r="AB151" s="10"/>
-      <c r="AC151" s="10"/>
-      <c r="AD151" s="10"/>
-      <c r="AE151" s="10"/>
-      <c r="AF151" s="10"/>
-      <c r="AG151" s="10"/>
-      <c r="AH151" s="10"/>
-      <c r="AI151" s="10"/>
+      <c r="N151" s="9"/>
+      <c r="O151" s="9"/>
+      <c r="P151" s="9"/>
+      <c r="Q151" s="9"/>
+      <c r="R151" s="9"/>
+      <c r="S151" s="9"/>
+      <c r="T151" s="9"/>
+      <c r="U151" s="9"/>
+      <c r="V151" s="9"/>
+      <c r="W151" s="9"/>
+      <c r="X151" s="9"/>
+      <c r="Y151" s="9"/>
+      <c r="Z151" s="9"/>
+      <c r="AA151" s="9"/>
+      <c r="AB151" s="9"/>
+      <c r="AC151" s="9"/>
+      <c r="AD151" s="9"/>
+      <c r="AE151" s="9"/>
+      <c r="AF151" s="9"/>
+      <c r="AG151" s="9"/>
+      <c r="AH151" s="9"/>
+      <c r="AI151" s="9"/>
     </row>
     <row r="152" spans="3:35" ht="17.25">
-      <c r="N152" s="10"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
-      <c r="Q152" s="10"/>
-      <c r="R152" s="10"/>
-      <c r="S152" s="10"/>
-      <c r="T152" s="10"/>
-      <c r="U152" s="10"/>
-      <c r="V152" s="10"/>
-      <c r="W152" s="10"/>
-      <c r="X152" s="10"/>
-      <c r="Y152" s="10"/>
-      <c r="Z152" s="10"/>
-      <c r="AA152" s="10"/>
-      <c r="AB152" s="10"/>
-      <c r="AC152" s="10"/>
-      <c r="AD152" s="10"/>
-      <c r="AE152" s="10"/>
-      <c r="AF152" s="10"/>
-      <c r="AG152" s="10"/>
-      <c r="AH152" s="10"/>
-      <c r="AI152" s="10"/>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+      <c r="U152" s="9"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9"/>
+      <c r="X152" s="9"/>
+      <c r="Y152" s="9"/>
+      <c r="Z152" s="9"/>
+      <c r="AA152" s="9"/>
+      <c r="AB152" s="9"/>
+      <c r="AC152" s="9"/>
+      <c r="AD152" s="9"/>
+      <c r="AE152" s="9"/>
+      <c r="AF152" s="9"/>
+      <c r="AG152" s="9"/>
+      <c r="AH152" s="9"/>
+      <c r="AI152" s="9"/>
     </row>
     <row r="153" spans="3:35" ht="17.25">
-      <c r="N153" s="10"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
-      <c r="Q153" s="10"/>
-      <c r="R153" s="10"/>
-      <c r="S153" s="10"/>
-      <c r="T153" s="10"/>
-      <c r="U153" s="10"/>
-      <c r="V153" s="10"/>
-      <c r="W153" s="10"/>
-      <c r="X153" s="10"/>
-      <c r="Y153" s="10"/>
-      <c r="Z153" s="10"/>
-      <c r="AA153" s="10"/>
-      <c r="AB153" s="10"/>
-      <c r="AC153" s="10"/>
-      <c r="AD153" s="10"/>
-      <c r="AE153" s="10"/>
-      <c r="AF153" s="10"/>
-      <c r="AG153" s="10"/>
-      <c r="AH153" s="10"/>
-      <c r="AI153" s="10"/>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="9"/>
+      <c r="V153" s="9"/>
+      <c r="W153" s="9"/>
+      <c r="X153" s="9"/>
+      <c r="Y153" s="9"/>
+      <c r="Z153" s="9"/>
+      <c r="AA153" s="9"/>
+      <c r="AB153" s="9"/>
+      <c r="AC153" s="9"/>
+      <c r="AD153" s="9"/>
+      <c r="AE153" s="9"/>
+      <c r="AF153" s="9"/>
+      <c r="AG153" s="9"/>
+      <c r="AH153" s="9"/>
+      <c r="AI153" s="9"/>
     </row>
     <row r="154" spans="3:35" ht="17.25">
-      <c r="N154" s="10"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="10"/>
-      <c r="R154" s="10"/>
-      <c r="S154" s="10"/>
-      <c r="T154" s="10"/>
-      <c r="U154" s="10"/>
-      <c r="V154" s="10"/>
-      <c r="W154" s="10"/>
-      <c r="X154" s="10"/>
-      <c r="Y154" s="10"/>
-      <c r="Z154" s="10"/>
-      <c r="AA154" s="10"/>
-      <c r="AB154" s="10"/>
-      <c r="AC154" s="10"/>
-      <c r="AD154" s="10"/>
-      <c r="AE154" s="10"/>
-      <c r="AF154" s="10"/>
-      <c r="AG154" s="10"/>
-      <c r="AH154" s="10"/>
-      <c r="AI154" s="10"/>
+      <c r="N154" s="9"/>
+      <c r="O154" s="9"/>
+      <c r="P154" s="9"/>
+      <c r="Q154" s="9"/>
+      <c r="R154" s="9"/>
+      <c r="S154" s="9"/>
+      <c r="T154" s="9"/>
+      <c r="U154" s="9"/>
+      <c r="V154" s="9"/>
+      <c r="W154" s="9"/>
+      <c r="X154" s="9"/>
+      <c r="Y154" s="9"/>
+      <c r="Z154" s="9"/>
+      <c r="AA154" s="9"/>
+      <c r="AB154" s="9"/>
+      <c r="AC154" s="9"/>
+      <c r="AD154" s="9"/>
+      <c r="AE154" s="9"/>
+      <c r="AF154" s="9"/>
+      <c r="AG154" s="9"/>
+      <c r="AH154" s="9"/>
+      <c r="AI154" s="9"/>
     </row>
     <row r="155" spans="3:35" ht="17.25">
-      <c r="N155" s="10" t="s">
+      <c r="N155" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
-      <c r="Q155" s="10"/>
-      <c r="R155" s="10"/>
-      <c r="S155" s="10"/>
-      <c r="T155" s="10"/>
-      <c r="U155" s="10"/>
-      <c r="V155" s="10"/>
-      <c r="W155" s="10"/>
-      <c r="X155" s="10"/>
-      <c r="Y155" s="10"/>
-      <c r="Z155" s="10"/>
-      <c r="AA155" s="10"/>
-      <c r="AB155" s="10"/>
-      <c r="AC155" s="10"/>
-      <c r="AD155" s="10"/>
-      <c r="AE155" s="10"/>
-      <c r="AF155" s="10"/>
-      <c r="AG155" s="10"/>
-      <c r="AH155" s="10"/>
-      <c r="AI155" s="10"/>
+      <c r="O155" s="9"/>
+      <c r="P155" s="9"/>
+      <c r="Q155" s="9"/>
+      <c r="R155" s="9"/>
+      <c r="S155" s="9"/>
+      <c r="T155" s="9"/>
+      <c r="U155" s="9"/>
+      <c r="V155" s="9"/>
+      <c r="W155" s="9"/>
+      <c r="X155" s="9"/>
+      <c r="Y155" s="9"/>
+      <c r="Z155" s="9"/>
+      <c r="AA155" s="9"/>
+      <c r="AB155" s="9"/>
+      <c r="AC155" s="9"/>
+      <c r="AD155" s="9"/>
+      <c r="AE155" s="9"/>
+      <c r="AF155" s="9"/>
+      <c r="AG155" s="9"/>
+      <c r="AH155" s="9"/>
+      <c r="AI155" s="9"/>
     </row>
     <row r="156" spans="3:35" ht="17.25">
-      <c r="N156" s="10"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10"/>
-      <c r="R156" s="10"/>
-      <c r="S156" s="10"/>
-      <c r="T156" s="10"/>
-      <c r="U156" s="10"/>
-      <c r="V156" s="10"/>
-      <c r="W156" s="10"/>
-      <c r="X156" s="10"/>
-      <c r="Y156" s="10"/>
-      <c r="Z156" s="10"/>
-      <c r="AA156" s="10"/>
-      <c r="AB156" s="10"/>
-      <c r="AC156" s="10"/>
-      <c r="AD156" s="10"/>
-      <c r="AE156" s="10"/>
-      <c r="AF156" s="10"/>
-      <c r="AG156" s="10"/>
-      <c r="AH156" s="10"/>
-      <c r="AI156" s="10"/>
+      <c r="N156" s="9"/>
+      <c r="O156" s="9"/>
+      <c r="P156" s="9"/>
+      <c r="Q156" s="9"/>
+      <c r="R156" s="9"/>
+      <c r="S156" s="9"/>
+      <c r="T156" s="9"/>
+      <c r="U156" s="9"/>
+      <c r="V156" s="9"/>
+      <c r="W156" s="9"/>
+      <c r="X156" s="9"/>
+      <c r="Y156" s="9"/>
+      <c r="Z156" s="9"/>
+      <c r="AA156" s="9"/>
+      <c r="AB156" s="9"/>
+      <c r="AC156" s="9"/>
+      <c r="AD156" s="9"/>
+      <c r="AE156" s="9"/>
+      <c r="AF156" s="9"/>
+      <c r="AG156" s="9"/>
+      <c r="AH156" s="9"/>
+      <c r="AI156" s="9"/>
     </row>
     <row r="157" spans="3:35" ht="17.25">
-      <c r="N157" s="10"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
-      <c r="Q157" s="10"/>
-      <c r="R157" s="10"/>
-      <c r="S157" s="10"/>
-      <c r="T157" s="10"/>
-      <c r="U157" s="10"/>
-      <c r="V157" s="10"/>
-      <c r="W157" s="10"/>
-      <c r="X157" s="10"/>
-      <c r="Y157" s="10"/>
-      <c r="Z157" s="10"/>
-      <c r="AA157" s="10"/>
-      <c r="AB157" s="10"/>
-      <c r="AC157" s="10"/>
-      <c r="AD157" s="10"/>
-      <c r="AE157" s="10"/>
-      <c r="AF157" s="10"/>
-      <c r="AG157" s="10"/>
-      <c r="AH157" s="10"/>
-      <c r="AI157" s="10"/>
+      <c r="N157" s="9"/>
+      <c r="O157" s="9"/>
+      <c r="P157" s="9"/>
+      <c r="Q157" s="9"/>
+      <c r="R157" s="9"/>
+      <c r="S157" s="9"/>
+      <c r="T157" s="9"/>
+      <c r="U157" s="9"/>
+      <c r="V157" s="9"/>
+      <c r="W157" s="9"/>
+      <c r="X157" s="9"/>
+      <c r="Y157" s="9"/>
+      <c r="Z157" s="9"/>
+      <c r="AA157" s="9"/>
+      <c r="AB157" s="9"/>
+      <c r="AC157" s="9"/>
+      <c r="AD157" s="9"/>
+      <c r="AE157" s="9"/>
+      <c r="AF157" s="9"/>
+      <c r="AG157" s="9"/>
+      <c r="AH157" s="9"/>
+      <c r="AI157" s="9"/>
     </row>
     <row r="158" spans="3:35" ht="17.25">
-      <c r="N158" s="10"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
-      <c r="Q158" s="10"/>
-      <c r="R158" s="10"/>
-      <c r="S158" s="10"/>
-      <c r="T158" s="10"/>
-      <c r="U158" s="10"/>
-      <c r="V158" s="10"/>
-      <c r="W158" s="10"/>
-      <c r="X158" s="10"/>
-      <c r="Y158" s="10"/>
-      <c r="Z158" s="10"/>
-      <c r="AA158" s="10"/>
-      <c r="AB158" s="10"/>
-      <c r="AC158" s="10"/>
-      <c r="AD158" s="10"/>
-      <c r="AE158" s="10"/>
-      <c r="AF158" s="10"/>
-      <c r="AG158" s="10"/>
-      <c r="AH158" s="10"/>
-      <c r="AI158" s="10"/>
+      <c r="N158" s="9"/>
+      <c r="O158" s="9"/>
+      <c r="P158" s="9"/>
+      <c r="Q158" s="9"/>
+      <c r="R158" s="9"/>
+      <c r="S158" s="9"/>
+      <c r="T158" s="9"/>
+      <c r="U158" s="9"/>
+      <c r="V158" s="9"/>
+      <c r="W158" s="9"/>
+      <c r="X158" s="9"/>
+      <c r="Y158" s="9"/>
+      <c r="Z158" s="9"/>
+      <c r="AA158" s="9"/>
+      <c r="AB158" s="9"/>
+      <c r="AC158" s="9"/>
+      <c r="AD158" s="9"/>
+      <c r="AE158" s="9"/>
+      <c r="AF158" s="9"/>
+      <c r="AG158" s="9"/>
+      <c r="AH158" s="9"/>
+      <c r="AI158" s="9"/>
     </row>
     <row r="159" spans="3:35" ht="17.25">
-      <c r="C159" s="10" t="s">
+      <c r="C159" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="N159" s="10"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10"/>
-      <c r="R159" s="10"/>
-      <c r="S159" s="10"/>
-      <c r="T159" s="10"/>
-      <c r="U159" s="10"/>
-      <c r="V159" s="10"/>
-      <c r="W159" s="10"/>
-      <c r="X159" s="10"/>
-      <c r="Y159" s="10"/>
-      <c r="Z159" s="10"/>
-      <c r="AA159" s="10"/>
-      <c r="AB159" s="10"/>
-      <c r="AC159" s="10"/>
-      <c r="AD159" s="10"/>
-      <c r="AE159" s="10"/>
-      <c r="AF159" s="10"/>
-      <c r="AG159" s="10"/>
-      <c r="AH159" s="10"/>
-      <c r="AI159" s="10"/>
+      <c r="N159" s="9"/>
+      <c r="O159" s="9"/>
+      <c r="P159" s="9"/>
+      <c r="Q159" s="9"/>
+      <c r="R159" s="9"/>
+      <c r="S159" s="9"/>
+      <c r="T159" s="9"/>
+      <c r="U159" s="9"/>
+      <c r="V159" s="9"/>
+      <c r="W159" s="9"/>
+      <c r="X159" s="9"/>
+      <c r="Y159" s="9"/>
+      <c r="Z159" s="9"/>
+      <c r="AA159" s="9"/>
+      <c r="AB159" s="9"/>
+      <c r="AC159" s="9"/>
+      <c r="AD159" s="9"/>
+      <c r="AE159" s="9"/>
+      <c r="AF159" s="9"/>
+      <c r="AG159" s="9"/>
+      <c r="AH159" s="9"/>
+      <c r="AI159" s="9"/>
     </row>
     <row r="160" spans="3:35" ht="17.25">
-      <c r="C160" s="14"/>
-      <c r="N160" s="10"/>
-      <c r="O160" s="10"/>
-      <c r="P160" s="10"/>
-      <c r="Q160" s="10"/>
-      <c r="R160" s="10"/>
-      <c r="S160" s="10"/>
-      <c r="T160" s="10"/>
-      <c r="U160" s="10"/>
-      <c r="V160" s="10"/>
-      <c r="W160" s="10"/>
-      <c r="X160" s="10"/>
-      <c r="Y160" s="10"/>
-      <c r="Z160" s="10"/>
-      <c r="AA160" s="10"/>
-      <c r="AB160" s="10"/>
-      <c r="AC160" s="10"/>
-      <c r="AD160" s="10"/>
-      <c r="AE160" s="10"/>
-      <c r="AF160" s="10"/>
-      <c r="AG160" s="10"/>
-      <c r="AH160" s="10"/>
-      <c r="AI160" s="10"/>
+      <c r="C160" s="13"/>
+      <c r="N160" s="9"/>
+      <c r="O160" s="9"/>
+      <c r="P160" s="9"/>
+      <c r="Q160" s="9"/>
+      <c r="R160" s="9"/>
+      <c r="S160" s="9"/>
+      <c r="T160" s="9"/>
+      <c r="U160" s="9"/>
+      <c r="V160" s="9"/>
+      <c r="W160" s="9"/>
+      <c r="X160" s="9"/>
+      <c r="Y160" s="9"/>
+      <c r="Z160" s="9"/>
+      <c r="AA160" s="9"/>
+      <c r="AB160" s="9"/>
+      <c r="AC160" s="9"/>
+      <c r="AD160" s="9"/>
+      <c r="AE160" s="9"/>
+      <c r="AF160" s="9"/>
+      <c r="AG160" s="9"/>
+      <c r="AH160" s="9"/>
+      <c r="AI160" s="9"/>
     </row>
     <row r="161" spans="14:35" ht="17.25">
-      <c r="N161" s="10"/>
-      <c r="O161" s="10"/>
-      <c r="P161" s="10"/>
-      <c r="Q161" s="10"/>
-      <c r="R161" s="10"/>
-      <c r="S161" s="10"/>
-      <c r="T161" s="10"/>
-      <c r="U161" s="10"/>
-      <c r="V161" s="10"/>
-      <c r="W161" s="10"/>
-      <c r="X161" s="10"/>
-      <c r="Y161" s="10"/>
-      <c r="Z161" s="10"/>
-      <c r="AA161" s="10"/>
-      <c r="AB161" s="10"/>
-      <c r="AC161" s="10"/>
-      <c r="AD161" s="10"/>
-      <c r="AE161" s="10"/>
-      <c r="AF161" s="10"/>
-      <c r="AG161" s="10"/>
-      <c r="AH161" s="10"/>
-      <c r="AI161" s="10"/>
+      <c r="N161" s="9"/>
+      <c r="O161" s="9"/>
+      <c r="P161" s="9"/>
+      <c r="Q161" s="9"/>
+      <c r="R161" s="9"/>
+      <c r="S161" s="9"/>
+      <c r="T161" s="9"/>
+      <c r="U161" s="9"/>
+      <c r="V161" s="9"/>
+      <c r="W161" s="9"/>
+      <c r="X161" s="9"/>
+      <c r="Y161" s="9"/>
+      <c r="Z161" s="9"/>
+      <c r="AA161" s="9"/>
+      <c r="AB161" s="9"/>
+      <c r="AC161" s="9"/>
+      <c r="AD161" s="9"/>
+      <c r="AE161" s="9"/>
+      <c r="AF161" s="9"/>
+      <c r="AG161" s="9"/>
+      <c r="AH161" s="9"/>
+      <c r="AI161" s="9"/>
     </row>
     <row r="162" spans="14:35" ht="17.25">
-      <c r="N162" s="10"/>
-      <c r="O162" s="10"/>
-      <c r="P162" s="10"/>
-      <c r="Q162" s="10"/>
-      <c r="R162" s="10"/>
-      <c r="S162" s="10"/>
-      <c r="T162" s="10"/>
-      <c r="U162" s="10"/>
-      <c r="V162" s="10"/>
-      <c r="W162" s="10"/>
-      <c r="X162" s="10"/>
-      <c r="Y162" s="10"/>
-      <c r="Z162" s="10"/>
-      <c r="AA162" s="10"/>
-      <c r="AB162" s="10"/>
-      <c r="AC162" s="10"/>
-      <c r="AD162" s="10"/>
-      <c r="AE162" s="10"/>
-      <c r="AF162" s="10"/>
-      <c r="AG162" s="10"/>
-      <c r="AH162" s="10"/>
-      <c r="AI162" s="10"/>
+      <c r="N162" s="9"/>
+      <c r="O162" s="9"/>
+      <c r="P162" s="9"/>
+      <c r="Q162" s="9"/>
+      <c r="R162" s="9"/>
+      <c r="S162" s="9"/>
+      <c r="T162" s="9"/>
+      <c r="U162" s="9"/>
+      <c r="V162" s="9"/>
+      <c r="W162" s="9"/>
+      <c r="X162" s="9"/>
+      <c r="Y162" s="9"/>
+      <c r="Z162" s="9"/>
+      <c r="AA162" s="9"/>
+      <c r="AB162" s="9"/>
+      <c r="AC162" s="9"/>
+      <c r="AD162" s="9"/>
+      <c r="AE162" s="9"/>
+      <c r="AF162" s="9"/>
+      <c r="AG162" s="9"/>
+      <c r="AH162" s="9"/>
+      <c r="AI162" s="9"/>
     </row>
     <row r="163" spans="14:35" ht="17.25">
-      <c r="N163" s="10" t="s">
+      <c r="N163" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-      <c r="Q163" s="10"/>
-      <c r="R163" s="10"/>
-      <c r="S163" s="10"/>
-      <c r="T163" s="10"/>
-      <c r="U163" s="10"/>
-      <c r="V163" s="10"/>
-      <c r="W163" s="10"/>
-      <c r="X163" s="10"/>
-      <c r="Y163" s="10"/>
-      <c r="Z163" s="10"/>
-      <c r="AA163" s="10"/>
-      <c r="AB163" s="10"/>
-      <c r="AC163" s="10"/>
-      <c r="AD163" s="10"/>
-      <c r="AE163" s="10"/>
-      <c r="AF163" s="10"/>
-      <c r="AG163" s="10"/>
-      <c r="AH163" s="10"/>
-      <c r="AI163" s="10"/>
+      <c r="O163" s="9"/>
+      <c r="P163" s="9"/>
+      <c r="Q163" s="9"/>
+      <c r="R163" s="9"/>
+      <c r="S163" s="9"/>
+      <c r="T163" s="9"/>
+      <c r="U163" s="9"/>
+      <c r="V163" s="9"/>
+      <c r="W163" s="9"/>
+      <c r="X163" s="9"/>
+      <c r="Y163" s="9"/>
+      <c r="Z163" s="9"/>
+      <c r="AA163" s="9"/>
+      <c r="AB163" s="9"/>
+      <c r="AC163" s="9"/>
+      <c r="AD163" s="9"/>
+      <c r="AE163" s="9"/>
+      <c r="AF163" s="9"/>
+      <c r="AG163" s="9"/>
+      <c r="AH163" s="9"/>
+      <c r="AI163" s="9"/>
     </row>
     <row r="164" spans="14:35" ht="17.25">
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-      <c r="R164" s="10"/>
-      <c r="S164" s="10"/>
-      <c r="T164" s="10"/>
-      <c r="U164" s="10"/>
-      <c r="V164" s="10"/>
-      <c r="W164" s="10"/>
-      <c r="X164" s="10"/>
-      <c r="Y164" s="10"/>
-      <c r="Z164" s="10"/>
-      <c r="AA164" s="10"/>
-      <c r="AB164" s="10"/>
-      <c r="AC164" s="10"/>
-      <c r="AD164" s="10"/>
-      <c r="AE164" s="10"/>
-      <c r="AF164" s="10"/>
-      <c r="AG164" s="10"/>
-      <c r="AH164" s="10"/>
-      <c r="AI164" s="10"/>
+      <c r="O164" s="9"/>
+      <c r="P164" s="9"/>
+      <c r="Q164" s="9"/>
+      <c r="R164" s="9"/>
+      <c r="S164" s="9"/>
+      <c r="T164" s="9"/>
+      <c r="U164" s="9"/>
+      <c r="V164" s="9"/>
+      <c r="W164" s="9"/>
+      <c r="X164" s="9"/>
+      <c r="Y164" s="9"/>
+      <c r="Z164" s="9"/>
+      <c r="AA164" s="9"/>
+      <c r="AB164" s="9"/>
+      <c r="AC164" s="9"/>
+      <c r="AD164" s="9"/>
+      <c r="AE164" s="9"/>
+      <c r="AF164" s="9"/>
+      <c r="AG164" s="9"/>
+      <c r="AH164" s="9"/>
+      <c r="AI164" s="9"/>
     </row>
     <row r="165" spans="14:35" ht="17.25">
-      <c r="N165" s="10"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-      <c r="R165" s="10"/>
-      <c r="S165" s="10"/>
-      <c r="T165" s="10"/>
-      <c r="U165" s="10"/>
-      <c r="V165" s="10"/>
-      <c r="W165" s="10"/>
-      <c r="X165" s="10"/>
-      <c r="Y165" s="10"/>
-      <c r="Z165" s="10"/>
-      <c r="AA165" s="10"/>
-      <c r="AB165" s="10"/>
-      <c r="AC165" s="10"/>
-      <c r="AD165" s="10"/>
-      <c r="AE165" s="10"/>
-      <c r="AF165" s="10"/>
-      <c r="AG165" s="10"/>
-      <c r="AH165" s="10"/>
-      <c r="AI165" s="10"/>
+      <c r="N165" s="9"/>
+      <c r="O165" s="9"/>
+      <c r="P165" s="9"/>
+      <c r="Q165" s="9"/>
+      <c r="R165" s="9"/>
+      <c r="S165" s="9"/>
+      <c r="T165" s="9"/>
+      <c r="U165" s="9"/>
+      <c r="V165" s="9"/>
+      <c r="W165" s="9"/>
+      <c r="X165" s="9"/>
+      <c r="Y165" s="9"/>
+      <c r="Z165" s="9"/>
+      <c r="AA165" s="9"/>
+      <c r="AB165" s="9"/>
+      <c r="AC165" s="9"/>
+      <c r="AD165" s="9"/>
+      <c r="AE165" s="9"/>
+      <c r="AF165" s="9"/>
+      <c r="AG165" s="9"/>
+      <c r="AH165" s="9"/>
+      <c r="AI165" s="9"/>
     </row>
     <row r="166" spans="14:35" ht="17.25">
-      <c r="N166" s="10"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-      <c r="R166" s="10"/>
-      <c r="S166" s="10"/>
-      <c r="T166" s="10"/>
-      <c r="U166" s="10"/>
-      <c r="V166" s="10"/>
-      <c r="W166" s="10"/>
-      <c r="X166" s="10"/>
-      <c r="Y166" s="10"/>
-      <c r="Z166" s="10"/>
-      <c r="AA166" s="10"/>
-      <c r="AB166" s="10"/>
-      <c r="AC166" s="10"/>
-      <c r="AD166" s="10"/>
-      <c r="AE166" s="10"/>
-      <c r="AF166" s="10"/>
-      <c r="AG166" s="10"/>
-      <c r="AH166" s="10"/>
-      <c r="AI166" s="10"/>
+      <c r="N166" s="9"/>
+      <c r="O166" s="9"/>
+      <c r="P166" s="9"/>
+      <c r="Q166" s="9"/>
+      <c r="R166" s="9"/>
+      <c r="S166" s="9"/>
+      <c r="T166" s="9"/>
+      <c r="U166" s="9"/>
+      <c r="V166" s="9"/>
+      <c r="W166" s="9"/>
+      <c r="X166" s="9"/>
+      <c r="Y166" s="9"/>
+      <c r="Z166" s="9"/>
+      <c r="AA166" s="9"/>
+      <c r="AB166" s="9"/>
+      <c r="AC166" s="9"/>
+      <c r="AD166" s="9"/>
+      <c r="AE166" s="9"/>
+      <c r="AF166" s="9"/>
+      <c r="AG166" s="9"/>
+      <c r="AH166" s="9"/>
+      <c r="AI166" s="9"/>
     </row>
     <row r="167" spans="14:35" ht="17.25">
-      <c r="N167" s="10"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-      <c r="R167" s="10"/>
-      <c r="S167" s="10"/>
-      <c r="T167" s="10"/>
-      <c r="U167" s="10"/>
-      <c r="V167" s="10"/>
-      <c r="W167" s="10"/>
-      <c r="X167" s="10"/>
-      <c r="Y167" s="10"/>
-      <c r="Z167" s="10"/>
-      <c r="AA167" s="10"/>
-      <c r="AB167" s="10"/>
-      <c r="AC167" s="10"/>
-      <c r="AD167" s="10"/>
-      <c r="AE167" s="10"/>
-      <c r="AF167" s="10"/>
-      <c r="AG167" s="10"/>
-      <c r="AH167" s="10"/>
-      <c r="AI167" s="10"/>
+      <c r="N167" s="9"/>
+      <c r="O167" s="9"/>
+      <c r="P167" s="9"/>
+      <c r="Q167" s="9"/>
+      <c r="R167" s="9"/>
+      <c r="S167" s="9"/>
+      <c r="T167" s="9"/>
+      <c r="U167" s="9"/>
+      <c r="V167" s="9"/>
+      <c r="W167" s="9"/>
+      <c r="X167" s="9"/>
+      <c r="Y167" s="9"/>
+      <c r="Z167" s="9"/>
+      <c r="AA167" s="9"/>
+      <c r="AB167" s="9"/>
+      <c r="AC167" s="9"/>
+      <c r="AD167" s="9"/>
+      <c r="AE167" s="9"/>
+      <c r="AF167" s="9"/>
+      <c r="AG167" s="9"/>
+      <c r="AH167" s="9"/>
+      <c r="AI167" s="9"/>
     </row>
     <row r="168" spans="14:35" ht="17.25">
-      <c r="N168" s="10"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-      <c r="R168" s="10"/>
-      <c r="S168" s="10"/>
-      <c r="T168" s="10"/>
-      <c r="U168" s="10"/>
-      <c r="V168" s="10"/>
-      <c r="W168" s="10"/>
-      <c r="X168" s="10"/>
-      <c r="Y168" s="10"/>
-      <c r="Z168" s="10"/>
-      <c r="AA168" s="10"/>
-      <c r="AB168" s="10"/>
-      <c r="AC168" s="10"/>
-      <c r="AD168" s="10"/>
-      <c r="AE168" s="10"/>
-      <c r="AF168" s="10"/>
-      <c r="AG168" s="10"/>
-      <c r="AH168" s="10"/>
-      <c r="AI168" s="10"/>
+      <c r="N168" s="9"/>
+      <c r="O168" s="9"/>
+      <c r="P168" s="9"/>
+      <c r="Q168" s="9"/>
+      <c r="R168" s="9"/>
+      <c r="S168" s="9"/>
+      <c r="T168" s="9"/>
+      <c r="U168" s="9"/>
+      <c r="V168" s="9"/>
+      <c r="W168" s="9"/>
+      <c r="X168" s="9"/>
+      <c r="Y168" s="9"/>
+      <c r="Z168" s="9"/>
+      <c r="AA168" s="9"/>
+      <c r="AB168" s="9"/>
+      <c r="AC168" s="9"/>
+      <c r="AD168" s="9"/>
+      <c r="AE168" s="9"/>
+      <c r="AF168" s="9"/>
+      <c r="AG168" s="9"/>
+      <c r="AH168" s="9"/>
+      <c r="AI168" s="9"/>
     </row>
     <row r="169" spans="14:35" ht="17.25">
-      <c r="N169" s="10"/>
-      <c r="O169" s="10"/>
-      <c r="P169" s="10"/>
-      <c r="Q169" s="10"/>
-      <c r="R169" s="10"/>
-      <c r="S169" s="10"/>
-      <c r="T169" s="10"/>
-      <c r="U169" s="10"/>
-      <c r="V169" s="10"/>
-      <c r="W169" s="10"/>
-      <c r="X169" s="10"/>
-      <c r="Y169" s="10"/>
-      <c r="Z169" s="10"/>
-      <c r="AA169" s="10"/>
-      <c r="AB169" s="10"/>
-      <c r="AC169" s="10"/>
-      <c r="AD169" s="10"/>
-      <c r="AE169" s="10"/>
-      <c r="AF169" s="10"/>
-      <c r="AG169" s="10"/>
-      <c r="AH169" s="10"/>
-      <c r="AI169" s="10"/>
+      <c r="N169" s="9"/>
+      <c r="O169" s="9"/>
+      <c r="P169" s="9"/>
+      <c r="Q169" s="9"/>
+      <c r="R169" s="9"/>
+      <c r="S169" s="9"/>
+      <c r="T169" s="9"/>
+      <c r="U169" s="9"/>
+      <c r="V169" s="9"/>
+      <c r="W169" s="9"/>
+      <c r="X169" s="9"/>
+      <c r="Y169" s="9"/>
+      <c r="Z169" s="9"/>
+      <c r="AA169" s="9"/>
+      <c r="AB169" s="9"/>
+      <c r="AC169" s="9"/>
+      <c r="AD169" s="9"/>
+      <c r="AE169" s="9"/>
+      <c r="AF169" s="9"/>
+      <c r="AG169" s="9"/>
+      <c r="AH169" s="9"/>
+      <c r="AI169" s="9"/>
     </row>
     <row r="170" spans="14:35" ht="17.25">
-      <c r="N170" s="10"/>
-      <c r="O170" s="10"/>
-      <c r="P170" s="10"/>
-      <c r="Q170" s="10"/>
-      <c r="R170" s="10"/>
-      <c r="S170" s="10"/>
-      <c r="T170" s="10"/>
-      <c r="U170" s="10"/>
-      <c r="V170" s="10"/>
-      <c r="W170" s="10"/>
-      <c r="X170" s="10"/>
-      <c r="Y170" s="10"/>
-      <c r="Z170" s="10"/>
-      <c r="AA170" s="10"/>
-      <c r="AB170" s="10"/>
-      <c r="AC170" s="10"/>
-      <c r="AD170" s="10"/>
-      <c r="AE170" s="10"/>
-      <c r="AF170" s="10"/>
-      <c r="AG170" s="10"/>
-      <c r="AH170" s="10"/>
-      <c r="AI170" s="10"/>
+      <c r="N170" s="9"/>
+      <c r="O170" s="9"/>
+      <c r="P170" s="9"/>
+      <c r="Q170" s="9"/>
+      <c r="R170" s="9"/>
+      <c r="S170" s="9"/>
+      <c r="T170" s="9"/>
+      <c r="U170" s="9"/>
+      <c r="V170" s="9"/>
+      <c r="W170" s="9"/>
+      <c r="X170" s="9"/>
+      <c r="Y170" s="9"/>
+      <c r="Z170" s="9"/>
+      <c r="AA170" s="9"/>
+      <c r="AB170" s="9"/>
+      <c r="AC170" s="9"/>
+      <c r="AD170" s="9"/>
+      <c r="AE170" s="9"/>
+      <c r="AF170" s="9"/>
+      <c r="AG170" s="9"/>
+      <c r="AH170" s="9"/>
+      <c r="AI170" s="9"/>
     </row>
     <row r="171" spans="14:35" ht="17.25">
-      <c r="N171" s="10"/>
-      <c r="O171" s="10"/>
-      <c r="P171" s="10"/>
-      <c r="Q171" s="10"/>
-      <c r="R171" s="10"/>
-      <c r="S171" s="10"/>
-      <c r="T171" s="10"/>
-      <c r="U171" s="10"/>
-      <c r="V171" s="10"/>
-      <c r="W171" s="10"/>
-      <c r="X171" s="10"/>
-      <c r="Y171" s="10"/>
-      <c r="Z171" s="10"/>
-      <c r="AA171" s="10"/>
-      <c r="AB171" s="10"/>
-      <c r="AC171" s="10"/>
-      <c r="AD171" s="10"/>
-      <c r="AE171" s="10"/>
-      <c r="AF171" s="10"/>
-      <c r="AG171" s="10"/>
-      <c r="AH171" s="10"/>
-      <c r="AI171" s="10"/>
+      <c r="N171" s="9"/>
+      <c r="O171" s="9"/>
+      <c r="P171" s="9"/>
+      <c r="Q171" s="9"/>
+      <c r="R171" s="9"/>
+      <c r="S171" s="9"/>
+      <c r="T171" s="9"/>
+      <c r="U171" s="9"/>
+      <c r="V171" s="9"/>
+      <c r="W171" s="9"/>
+      <c r="X171" s="9"/>
+      <c r="Y171" s="9"/>
+      <c r="Z171" s="9"/>
+      <c r="AA171" s="9"/>
+      <c r="AB171" s="9"/>
+      <c r="AC171" s="9"/>
+      <c r="AD171" s="9"/>
+      <c r="AE171" s="9"/>
+      <c r="AF171" s="9"/>
+      <c r="AG171" s="9"/>
+      <c r="AH171" s="9"/>
+      <c r="AI171" s="9"/>
     </row>
     <row r="172" spans="14:35" ht="17.25">
-      <c r="N172" s="10"/>
-      <c r="O172" s="10"/>
-      <c r="P172" s="10"/>
-      <c r="Q172" s="10"/>
-      <c r="R172" s="10"/>
-      <c r="S172" s="10"/>
-      <c r="T172" s="10"/>
-      <c r="U172" s="10"/>
-      <c r="V172" s="10"/>
-      <c r="W172" s="10"/>
-      <c r="X172" s="10"/>
-      <c r="Y172" s="10"/>
-      <c r="Z172" s="10"/>
-      <c r="AA172" s="10"/>
-      <c r="AB172" s="10"/>
-      <c r="AC172" s="10"/>
-      <c r="AD172" s="10"/>
-      <c r="AE172" s="10"/>
-      <c r="AF172" s="10"/>
-      <c r="AG172" s="10"/>
-      <c r="AH172" s="10"/>
-      <c r="AI172" s="10"/>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="9"/>
+      <c r="T172" s="9"/>
+      <c r="U172" s="9"/>
+      <c r="V172" s="9"/>
+      <c r="W172" s="9"/>
+      <c r="X172" s="9"/>
+      <c r="Y172" s="9"/>
+      <c r="Z172" s="9"/>
+      <c r="AA172" s="9"/>
+      <c r="AB172" s="9"/>
+      <c r="AC172" s="9"/>
+      <c r="AD172" s="9"/>
+      <c r="AE172" s="9"/>
+      <c r="AF172" s="9"/>
+      <c r="AG172" s="9"/>
+      <c r="AH172" s="9"/>
+      <c r="AI172" s="9"/>
     </row>
     <row r="173" spans="14:35" ht="17.25">
-      <c r="N173" s="10"/>
-      <c r="O173" s="10"/>
-      <c r="P173" s="10"/>
-      <c r="Q173" s="10"/>
-      <c r="R173" s="10"/>
-      <c r="S173" s="10"/>
-      <c r="T173" s="10"/>
-      <c r="U173" s="10"/>
-      <c r="V173" s="10"/>
-      <c r="W173" s="10"/>
-      <c r="X173" s="10"/>
-      <c r="Y173" s="10"/>
-      <c r="Z173" s="10"/>
-      <c r="AA173" s="10"/>
-      <c r="AB173" s="10"/>
-      <c r="AC173" s="10"/>
-      <c r="AD173" s="10"/>
-      <c r="AE173" s="10"/>
-      <c r="AF173" s="10"/>
-      <c r="AG173" s="10"/>
-      <c r="AH173" s="10"/>
-      <c r="AI173" s="10"/>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="9"/>
+      <c r="T173" s="9"/>
+      <c r="U173" s="9"/>
+      <c r="V173" s="9"/>
+      <c r="W173" s="9"/>
+      <c r="X173" s="9"/>
+      <c r="Y173" s="9"/>
+      <c r="Z173" s="9"/>
+      <c r="AA173" s="9"/>
+      <c r="AB173" s="9"/>
+      <c r="AC173" s="9"/>
+      <c r="AD173" s="9"/>
+      <c r="AE173" s="9"/>
+      <c r="AF173" s="9"/>
+      <c r="AG173" s="9"/>
+      <c r="AH173" s="9"/>
+      <c r="AI173" s="9"/>
     </row>
     <row r="174" spans="14:35" ht="17.25">
-      <c r="N174" s="10"/>
-      <c r="O174" s="10"/>
-      <c r="P174" s="10"/>
-      <c r="Q174" s="10"/>
-      <c r="R174" s="10"/>
-      <c r="S174" s="10"/>
-      <c r="T174" s="10"/>
-      <c r="U174" s="10"/>
-      <c r="V174" s="10"/>
-      <c r="W174" s="10"/>
-      <c r="X174" s="10"/>
-      <c r="Y174" s="10"/>
-      <c r="Z174" s="10"/>
-      <c r="AA174" s="10"/>
-      <c r="AB174" s="10"/>
-      <c r="AC174" s="10"/>
-      <c r="AD174" s="10"/>
-      <c r="AE174" s="10"/>
-      <c r="AF174" s="10"/>
-      <c r="AG174" s="10"/>
-      <c r="AH174" s="10"/>
-      <c r="AI174" s="10"/>
+      <c r="N174" s="9"/>
+      <c r="O174" s="9"/>
+      <c r="P174" s="9"/>
+      <c r="Q174" s="9"/>
+      <c r="R174" s="9"/>
+      <c r="S174" s="9"/>
+      <c r="T174" s="9"/>
+      <c r="U174" s="9"/>
+      <c r="V174" s="9"/>
+      <c r="W174" s="9"/>
+      <c r="X174" s="9"/>
+      <c r="Y174" s="9"/>
+      <c r="Z174" s="9"/>
+      <c r="AA174" s="9"/>
+      <c r="AB174" s="9"/>
+      <c r="AC174" s="9"/>
+      <c r="AD174" s="9"/>
+      <c r="AE174" s="9"/>
+      <c r="AF174" s="9"/>
+      <c r="AG174" s="9"/>
+      <c r="AH174" s="9"/>
+      <c r="AI174" s="9"/>
     </row>
     <row r="175" spans="14:35" ht="17.25">
-      <c r="N175" s="10"/>
-      <c r="O175" s="10"/>
-      <c r="P175" s="10"/>
-      <c r="Q175" s="10"/>
-      <c r="R175" s="10"/>
-      <c r="S175" s="10"/>
-      <c r="T175" s="10"/>
-      <c r="U175" s="10"/>
-      <c r="V175" s="10"/>
-      <c r="W175" s="10"/>
-      <c r="X175" s="10"/>
-      <c r="Y175" s="10"/>
-      <c r="Z175" s="10"/>
-      <c r="AA175" s="10"/>
-      <c r="AB175" s="10"/>
-      <c r="AC175" s="10"/>
-      <c r="AD175" s="10"/>
-      <c r="AE175" s="10"/>
-      <c r="AF175" s="10"/>
-      <c r="AG175" s="10"/>
-      <c r="AH175" s="10"/>
-      <c r="AI175" s="10"/>
+      <c r="N175" s="9"/>
+      <c r="O175" s="9"/>
+      <c r="P175" s="9"/>
+      <c r="Q175" s="9"/>
+      <c r="R175" s="9"/>
+      <c r="S175" s="9"/>
+      <c r="T175" s="9"/>
+      <c r="U175" s="9"/>
+      <c r="V175" s="9"/>
+      <c r="W175" s="9"/>
+      <c r="X175" s="9"/>
+      <c r="Y175" s="9"/>
+      <c r="Z175" s="9"/>
+      <c r="AA175" s="9"/>
+      <c r="AB175" s="9"/>
+      <c r="AC175" s="9"/>
+      <c r="AD175" s="9"/>
+      <c r="AE175" s="9"/>
+      <c r="AF175" s="9"/>
+      <c r="AG175" s="9"/>
+      <c r="AH175" s="9"/>
+      <c r="AI175" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D91:G91"/>
+    <mergeCell ref="B143:O143"/>
+    <mergeCell ref="C93:AI93"/>
     <mergeCell ref="B4:O4"/>
     <mergeCell ref="B7:O7"/>
     <mergeCell ref="B86:O86"/>
     <mergeCell ref="D89:G89"/>
     <mergeCell ref="D90:G90"/>
-    <mergeCell ref="D91:G91"/>
-    <mergeCell ref="B143:O143"/>
-    <mergeCell ref="C93:AI93"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="F9" r:id="rId1" display="https://flutter.dev/docs/get-started/install"/>

--- a/20210821_MainDocumentforFlutter.xlsx
+++ b/20210821_MainDocumentforFlutter.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="189">
   <si>
     <t>Get started</t>
   </si>
@@ -1149,12 +1149,194 @@
 }</t>
     </r>
   </si>
+  <si>
+    <t>Thực hiện on&lt;EVENT&gt; với hàm setState( ) để thực thi việc thay đổi state</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Widget _buildRow(WordPair pair) {
+  final alreadySaved = _saved.contains(pair);
+  return ListTile(
+    title: Text(
+      pair.asPascalCase,
+      style: _biggerFont,
+    ),
+    trailing: Icon(
+      alreadySaved ? Icons.favorite : Icons.favorite_border,
+      color: alreadySaved ? Colors.red : null,
+    ),
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>onTap: () {      // NEW lines from here...
+      setState(() {
+        if (alreadySaved) {
+          _saved.remove(pair);
+        } else { 
+          _saved.add(pair); 
+        } 
+      });
+    },               // ... to here.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  );
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Sử dụng Appbar có thể thêm Icon và hướng đến 1 route khác bằng callback</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">class _RandomWordsState extends State&lt;RandomWords&gt; {
+  ...
+  @override
+  Widget build(BuildContext context) {
+    return Scaffold(
+      appBar: AppBar(
+        title: Text('Startup Name Generator'),
+        actions: [
+          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>IconButton(icon: Icon(Icons.list), onPressed: _pushSaved),</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+        ],
+      ),
+      body: _buildSuggestions(),
+    );
+  }
+  ...
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>Thêm hàm vào class_RandomWordsState</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">void _pushSaved() {
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Navigator.of(context).push(
+      MaterialPageRoute&lt;void&gt;(
+        // NEW lines from here...
+        builder: (BuildContext context) {
+          final tiles = _saved.map(
+            (WordPair pair) {
+              return ListTile(
+                title: Text(
+                  pair.asPascalCase,
+                  style: _biggerFont,
+                ),
+              );
+            },
+          );
+          final divided = tiles.isNotEmpty
+              ? ListTile.divideTiles(context: context, tiles: tiles).toList()
+              : &lt;Widget&gt;[];
+          return Scaffold(
+            appBar: AppBar(
+              title: Text('Saved Suggestions'),
+            ),
+            body: ListView(children: divided),
+          );
+        }, // ...to here.
+      ),
+    );</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+  }</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Thay đổi màu sắc, style với theme ở Material App </t>
+  </si>
+  <si>
+    <t>class MyApp extends StatelessWidget {
+  @override
+  Widget build(BuildContext context) {
+    return MaterialApp(
+      title: 'Startup Name Generator',
+      theme: ThemeData(          // Add the 3 lines from here... 
+        primaryColor: Colors.white,
+      ),                         // ... to here.
+      home: RandomWords(),
+    );
+  }
+}</t>
+  </si>
+  <si>
+    <t>You wrote an interactive Flutter app that runs on iOS and Android by doing the following:</t>
+  </si>
+  <si>
+    <t>Writing Dart code</t>
+  </si>
+  <si>
+    <t>Using hot reload for a faster development cycle</t>
+  </si>
+  <si>
+    <t>Implementing a stateful widget, adding interactivity to your app</t>
+  </si>
+  <si>
+    <t>Creating a route and adding logic for moving between the home route and the new route</t>
+  </si>
+  <si>
+    <t>Learning about changing the look of your app's UI using themes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="46">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1470,8 +1652,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF5C5C5C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF5C5C5C"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1535,6 +1730,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1796,7 +1997,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="163">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1902,8 +2103,8 @@
     <xf numFmtId="0" fontId="43" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="44" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="45" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1932,6 +2133,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1959,44 +2163,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+      <alignment horizontal="left" vertical="top" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="4"/>
@@ -2052,6 +2283,33 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2088,59 +2346,36 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="2"/>
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="3"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3347,7 +3582,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>493059</xdr:colOff>
+      <xdr:colOff>493058</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>214459</xdr:rowOff>
     </xdr:to>
@@ -3423,7 +3658,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476484</xdr:colOff>
+      <xdr:colOff>566131</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>18582</xdr:rowOff>
     </xdr:to>
@@ -3537,7 +3772,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>459860</xdr:colOff>
+      <xdr:colOff>459861</xdr:colOff>
       <xdr:row>149</xdr:row>
       <xdr:rowOff>212911</xdr:rowOff>
     </xdr:to>
@@ -3946,6 +4181,217 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>208436</xdr:colOff>
+      <xdr:row>320</xdr:row>
+      <xdr:rowOff>504264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8505265" y="74575147"/>
+          <a:ext cx="7469847" cy="5031441"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>335</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>271999</xdr:colOff>
+      <xdr:row>352</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110382" y="83416588"/>
+          <a:ext cx="7533411" cy="3810000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>353</xdr:row>
+      <xdr:rowOff>224117</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>383</xdr:row>
+      <xdr:rowOff>4359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110382" y="87450705"/>
+          <a:ext cx="7552765" cy="6503771"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>605116</xdr:colOff>
+      <xdr:row>397</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>409</xdr:row>
+      <xdr:rowOff>31992</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9110381" y="97917000"/>
+          <a:ext cx="6353737" cy="2721404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>568177</xdr:colOff>
+      <xdr:row>422</xdr:row>
+      <xdr:rowOff>97082</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3121880" cy="937629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1173295" y="103998023"/>
+          <a:ext cx="3121880" cy="937629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="91440" tIns="45720" rIns="91440" bIns="45720">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="5400" b="1" cap="none" spc="0">
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:prstDash val="solid"/>
+              </a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:outerShdw blurRad="12700" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                    <a:lumOff val="40000"/>
+                  </a:schemeClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </a:rPr>
+            <a:t>Well done</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4449,296 +4895,304 @@
       <c r="L17" s="1"/>
     </row>
     <row r="18" spans="1:12" ht="79.5" customHeight="1">
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="71"/>
-      <c r="D18" s="71"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="71"/>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
-      <c r="J18" s="71"/>
-      <c r="K18" s="71"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="81"/>
+      <c r="H18" s="81"/>
+      <c r="I18" s="81"/>
+      <c r="J18" s="81"/>
+      <c r="K18" s="81"/>
     </row>
     <row r="20" spans="1:12" ht="18" customHeight="1">
-      <c r="B20" s="83" t="s">
+      <c r="B20" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="83"/>
-      <c r="D20" s="83"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
-      <c r="J20" s="83"/>
-      <c r="K20" s="83"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
     </row>
     <row r="21" spans="1:12" ht="18" customHeight="1">
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="83"/>
-      <c r="D21" s="83"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="83"/>
-      <c r="I21" s="83"/>
-      <c r="J21" s="83"/>
-      <c r="K21" s="83"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="84"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
     </row>
     <row r="22" spans="1:12" ht="22.5">
-      <c r="B22" s="84" t="s">
+      <c r="B22" s="85" t="s">
         <v>4</v>
       </c>
-      <c r="C22" s="84"/>
-      <c r="D22" s="84"/>
-      <c r="E22" s="84"/>
-      <c r="F22" s="84"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="84"/>
-      <c r="K22" s="84"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="85"/>
+      <c r="J22" s="85"/>
+      <c r="K22" s="85"/>
     </row>
     <row r="23" spans="1:12" ht="23.25" customHeight="1"/>
     <row r="24" spans="1:12" ht="22.5">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="84"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
-      <c r="J24" s="84"/>
-      <c r="K24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="85"/>
     </row>
     <row r="25" spans="1:12" ht="22.5">
-      <c r="B25" s="81" t="s">
+      <c r="B25" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C25" s="82"/>
-      <c r="D25" s="82"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="82"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="82"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="83"/>
+      <c r="G25" s="83"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="83"/>
+      <c r="J25" s="83"/>
+      <c r="K25" s="83"/>
     </row>
     <row r="26" spans="1:12" ht="22.5">
-      <c r="B26" s="71"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="71"/>
-      <c r="E26" s="71"/>
-      <c r="F26" s="71"/>
-      <c r="G26" s="71"/>
-      <c r="H26" s="71"/>
-      <c r="I26" s="71"/>
-      <c r="J26" s="71"/>
-      <c r="K26" s="71"/>
+      <c r="B26" s="81"/>
+      <c r="C26" s="81"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="81"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
     </row>
     <row r="27" spans="1:12" ht="22.5">
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
-      <c r="F27" s="71"/>
-      <c r="G27" s="71"/>
-      <c r="H27" s="71"/>
-      <c r="I27" s="71"/>
-      <c r="J27" s="71"/>
-      <c r="K27" s="71"/>
+      <c r="B27" s="81"/>
+      <c r="C27" s="81"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
     </row>
     <row r="28" spans="1:12" ht="22.5">
-      <c r="B28" s="71"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="71"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="J28" s="71"/>
-      <c r="K28" s="71"/>
+      <c r="B28" s="81"/>
+      <c r="C28" s="81"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
     </row>
     <row r="29" spans="1:12" ht="22.5">
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="F29" s="71"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="71"/>
-      <c r="I29" s="71"/>
-      <c r="J29" s="71"/>
-      <c r="K29" s="71"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
+      <c r="D29" s="81"/>
+      <c r="E29" s="81"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="81"/>
+      <c r="H29" s="81"/>
+      <c r="I29" s="81"/>
+      <c r="J29" s="81"/>
+      <c r="K29" s="81"/>
     </row>
     <row r="30" spans="1:12" ht="22.5">
-      <c r="B30" s="71"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="71"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
+      <c r="D30" s="81"/>
+      <c r="E30" s="81"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="81"/>
+      <c r="H30" s="81"/>
+      <c r="I30" s="81"/>
+      <c r="J30" s="81"/>
+      <c r="K30" s="81"/>
     </row>
     <row r="31" spans="1:12" ht="22.5">
-      <c r="B31" s="71"/>
-      <c r="C31" s="71"/>
-      <c r="D31" s="71"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="81"/>
+      <c r="H31" s="81"/>
+      <c r="I31" s="81"/>
+      <c r="J31" s="81"/>
+      <c r="K31" s="81"/>
     </row>
     <row r="32" spans="1:12" ht="22.5">
-      <c r="B32" s="71"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="71"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="71"/>
-      <c r="I32" s="71"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="71"/>
+      <c r="B32" s="81"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="81"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="81"/>
+      <c r="H32" s="81"/>
+      <c r="I32" s="81"/>
+      <c r="J32" s="81"/>
+      <c r="K32" s="81"/>
     </row>
     <row r="33" spans="2:11" ht="22.5">
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="F33" s="71"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="71"/>
-      <c r="I33" s="71"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="81"/>
+      <c r="D33" s="81"/>
+      <c r="E33" s="81"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="81"/>
+      <c r="H33" s="81"/>
+      <c r="I33" s="81"/>
+      <c r="J33" s="81"/>
+      <c r="K33" s="81"/>
     </row>
     <row r="34" spans="2:11" ht="22.5">
-      <c r="B34" s="71"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="71"/>
-      <c r="E34" s="71"/>
-      <c r="F34" s="71"/>
-      <c r="G34" s="71"/>
-      <c r="H34" s="71"/>
-      <c r="I34" s="71"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+      <c r="D34" s="81"/>
+      <c r="E34" s="81"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="81"/>
+      <c r="H34" s="81"/>
+      <c r="I34" s="81"/>
+      <c r="J34" s="81"/>
+      <c r="K34" s="81"/>
     </row>
     <row r="35" spans="2:11" ht="22.5">
-      <c r="B35" s="71"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="71"/>
-      <c r="E35" s="71"/>
-      <c r="F35" s="71"/>
-      <c r="G35" s="71"/>
-      <c r="H35" s="71"/>
-      <c r="I35" s="71"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="81"/>
+      <c r="D35" s="81"/>
+      <c r="E35" s="81"/>
+      <c r="F35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="81"/>
+      <c r="I35" s="81"/>
+      <c r="J35" s="81"/>
+      <c r="K35" s="81"/>
     </row>
     <row r="36" spans="2:11" ht="22.5">
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="81"/>
+      <c r="E36" s="81"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="81"/>
+      <c r="K36" s="81"/>
     </row>
     <row r="37" spans="2:11" ht="22.5">
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
+      <c r="B37" s="81"/>
+      <c r="C37" s="81"/>
+      <c r="D37" s="81"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="81"/>
+      <c r="H37" s="81"/>
+      <c r="I37" s="81"/>
+      <c r="J37" s="81"/>
+      <c r="K37" s="81"/>
     </row>
     <row r="38" spans="2:11" ht="22.5">
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="81"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
+      <c r="K38" s="81"/>
     </row>
     <row r="39" spans="2:11" ht="22.5">
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
+      <c r="B39" s="81"/>
+      <c r="C39" s="81"/>
+      <c r="D39" s="81"/>
+      <c r="E39" s="81"/>
+      <c r="F39" s="81"/>
+      <c r="G39" s="81"/>
+      <c r="H39" s="81"/>
+      <c r="I39" s="81"/>
+      <c r="J39" s="81"/>
+      <c r="K39" s="81"/>
     </row>
     <row r="40" spans="2:11" ht="22.5">
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
+      <c r="B40" s="81"/>
+      <c r="C40" s="81"/>
+      <c r="D40" s="81"/>
+      <c r="E40" s="81"/>
+      <c r="F40" s="81"/>
+      <c r="G40" s="81"/>
+      <c r="H40" s="81"/>
+      <c r="I40" s="81"/>
+      <c r="J40" s="81"/>
+      <c r="K40" s="81"/>
     </row>
     <row r="41" spans="2:11" ht="22.5">
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
+      <c r="B41" s="81"/>
+      <c r="C41" s="81"/>
+      <c r="D41" s="81"/>
+      <c r="E41" s="81"/>
+      <c r="F41" s="81"/>
+      <c r="G41" s="81"/>
+      <c r="H41" s="81"/>
+      <c r="I41" s="81"/>
+      <c r="J41" s="81"/>
+      <c r="K41" s="81"/>
     </row>
     <row r="42" spans="2:11" ht="22.5">
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
+      <c r="B42" s="81"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="81"/>
+      <c r="E42" s="81"/>
+      <c r="F42" s="81"/>
+      <c r="G42" s="81"/>
+      <c r="H42" s="81"/>
+      <c r="I42" s="81"/>
+      <c r="J42" s="81"/>
+      <c r="K42" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K33"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="B36:K36"/>
     <mergeCell ref="B2:K17"/>
     <mergeCell ref="B37:K37"/>
     <mergeCell ref="B38:K38"/>
@@ -4755,14 +5209,6 @@
     <mergeCell ref="B21:K21"/>
     <mergeCell ref="B22:K22"/>
     <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K33"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="B36:K36"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B25" r:id="rId1"/>
@@ -4799,28 +5245,28 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="88" t="s">
+      <c r="B2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="85" t="s">
+      <c r="C2" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
-      <c r="J2" s="86"/>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="87"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="87"/>
+      <c r="J2" s="87"/>
+      <c r="K2" s="87"/>
+      <c r="L2" s="87"/>
+      <c r="M2" s="88"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="89"/>
+      <c r="B3" s="90"/>
       <c r="C3" s="52">
         <v>21</v>
       </c>
@@ -5086,59 +5532,59 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:36" ht="87.75">
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="93"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="93"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="93"/>
-      <c r="N4" s="93"/>
-      <c r="O4" s="93"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="91"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="91"/>
+      <c r="K4" s="91"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="91"/>
+      <c r="N4" s="91"/>
+      <c r="O4" s="91"/>
     </row>
     <row r="7" spans="2:36" ht="32.25">
-      <c r="B7" s="90" t="s">
+      <c r="B7" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="90"/>
-      <c r="D7" s="90"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="90"/>
-      <c r="G7" s="90"/>
-      <c r="H7" s="90"/>
-      <c r="I7" s="90"/>
-      <c r="J7" s="90"/>
-      <c r="K7" s="90"/>
-      <c r="L7" s="90"/>
-      <c r="M7" s="90"/>
-      <c r="N7" s="90"/>
-      <c r="O7" s="90"/>
-      <c r="P7" s="90"/>
-      <c r="Q7" s="90"/>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90"/>
-      <c r="T7" s="90"/>
-      <c r="U7" s="90"/>
-      <c r="V7" s="90"/>
-      <c r="W7" s="90"/>
-      <c r="X7" s="90"/>
-      <c r="Y7" s="90"/>
-      <c r="Z7" s="90"/>
-      <c r="AA7" s="90"/>
-      <c r="AB7" s="90"/>
-      <c r="AC7" s="90"/>
-      <c r="AD7" s="90"/>
-      <c r="AE7" s="90"/>
-      <c r="AF7" s="90"/>
-      <c r="AG7" s="90"/>
-      <c r="AH7" s="90"/>
-      <c r="AI7" s="90"/>
-      <c r="AJ7" s="90"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="93"/>
+      <c r="I7" s="93"/>
+      <c r="J7" s="93"/>
+      <c r="K7" s="93"/>
+      <c r="L7" s="93"/>
+      <c r="M7" s="93"/>
+      <c r="N7" s="93"/>
+      <c r="O7" s="93"/>
+      <c r="P7" s="93"/>
+      <c r="Q7" s="93"/>
+      <c r="R7" s="93"/>
+      <c r="S7" s="93"/>
+      <c r="T7" s="93"/>
+      <c r="U7" s="93"/>
+      <c r="V7" s="93"/>
+      <c r="W7" s="93"/>
+      <c r="X7" s="93"/>
+      <c r="Y7" s="93"/>
+      <c r="Z7" s="93"/>
+      <c r="AA7" s="93"/>
+      <c r="AB7" s="93"/>
+      <c r="AC7" s="93"/>
+      <c r="AD7" s="93"/>
+      <c r="AE7" s="93"/>
+      <c r="AF7" s="93"/>
+      <c r="AG7" s="93"/>
+      <c r="AH7" s="93"/>
+      <c r="AI7" s="93"/>
+      <c r="AJ7" s="93"/>
     </row>
     <row r="9" spans="2:36" ht="17.25">
       <c r="C9" s="8" t="s">
@@ -6421,44 +6867,44 @@
       <c r="V85" s="8"/>
     </row>
     <row r="86" spans="2:37" ht="32.25">
-      <c r="B86" s="90" t="s">
+      <c r="B86" s="93" t="s">
         <v>10</v>
       </c>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="90"/>
-      <c r="J86" s="90"/>
-      <c r="K86" s="90"/>
-      <c r="L86" s="90"/>
-      <c r="M86" s="90"/>
-      <c r="N86" s="90"/>
-      <c r="O86" s="90"/>
-      <c r="P86" s="90"/>
-      <c r="Q86" s="90"/>
-      <c r="R86" s="90"/>
-      <c r="S86" s="90"/>
-      <c r="T86" s="90"/>
-      <c r="U86" s="90"/>
-      <c r="V86" s="90"/>
-      <c r="W86" s="90"/>
-      <c r="X86" s="90"/>
-      <c r="Y86" s="90"/>
-      <c r="Z86" s="90"/>
-      <c r="AA86" s="90"/>
-      <c r="AB86" s="90"/>
-      <c r="AC86" s="90"/>
-      <c r="AD86" s="90"/>
-      <c r="AE86" s="90"/>
-      <c r="AF86" s="90"/>
-      <c r="AG86" s="90"/>
-      <c r="AH86" s="90"/>
-      <c r="AI86" s="90"/>
-      <c r="AJ86" s="90"/>
-      <c r="AK86" s="90"/>
+      <c r="C86" s="93"/>
+      <c r="D86" s="93"/>
+      <c r="E86" s="93"/>
+      <c r="F86" s="93"/>
+      <c r="G86" s="93"/>
+      <c r="H86" s="93"/>
+      <c r="I86" s="93"/>
+      <c r="J86" s="93"/>
+      <c r="K86" s="93"/>
+      <c r="L86" s="93"/>
+      <c r="M86" s="93"/>
+      <c r="N86" s="93"/>
+      <c r="O86" s="93"/>
+      <c r="P86" s="93"/>
+      <c r="Q86" s="93"/>
+      <c r="R86" s="93"/>
+      <c r="S86" s="93"/>
+      <c r="T86" s="93"/>
+      <c r="U86" s="93"/>
+      <c r="V86" s="93"/>
+      <c r="W86" s="93"/>
+      <c r="X86" s="93"/>
+      <c r="Y86" s="93"/>
+      <c r="Z86" s="93"/>
+      <c r="AA86" s="93"/>
+      <c r="AB86" s="93"/>
+      <c r="AC86" s="93"/>
+      <c r="AD86" s="93"/>
+      <c r="AE86" s="93"/>
+      <c r="AF86" s="93"/>
+      <c r="AG86" s="93"/>
+      <c r="AH86" s="93"/>
+      <c r="AI86" s="93"/>
+      <c r="AJ86" s="93"/>
+      <c r="AK86" s="93"/>
     </row>
     <row r="88" spans="2:37" ht="21">
       <c r="C88" s="21" t="s">
@@ -6469,24 +6915,24 @@
       <c r="C89" s="22">
         <v>1</v>
       </c>
-      <c r="D89" s="91" t="s">
+      <c r="D89" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="E89" s="91"/>
-      <c r="F89" s="91"/>
-      <c r="G89" s="91"/>
+      <c r="E89" s="92"/>
+      <c r="F89" s="92"/>
+      <c r="G89" s="92"/>
       <c r="H89" s="23"/>
     </row>
     <row r="90" spans="2:37" ht="22.5" customHeight="1">
       <c r="C90" s="24">
         <v>2</v>
       </c>
-      <c r="D90" s="91" t="s">
+      <c r="D90" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="E90" s="91"/>
-      <c r="F90" s="91"/>
-      <c r="G90" s="91"/>
+      <c r="E90" s="92"/>
+      <c r="F90" s="92"/>
+      <c r="G90" s="92"/>
       <c r="H90" s="23" t="s">
         <v>44</v>
       </c>
@@ -6495,12 +6941,12 @@
       <c r="C91" s="22">
         <v>3</v>
       </c>
-      <c r="D91" s="91" t="s">
+      <c r="D91" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="E91" s="91"/>
-      <c r="F91" s="91"/>
-      <c r="G91" s="91"/>
+      <c r="E91" s="92"/>
+      <c r="F91" s="92"/>
+      <c r="G91" s="92"/>
     </row>
     <row r="92" spans="2:37" ht="24.75" customHeight="1">
       <c r="C92" s="28"/>
@@ -6510,41 +6956,41 @@
       <c r="G92" s="27"/>
     </row>
     <row r="93" spans="2:37" ht="24.75" customHeight="1">
-      <c r="C93" s="92" t="s">
+      <c r="C93" s="94" t="s">
         <v>58</v>
       </c>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
-      <c r="I93" s="92"/>
-      <c r="J93" s="92"/>
-      <c r="K93" s="92"/>
-      <c r="L93" s="92"/>
-      <c r="M93" s="92"/>
-      <c r="N93" s="92"/>
-      <c r="O93" s="92"/>
-      <c r="P93" s="92"/>
-      <c r="Q93" s="92"/>
-      <c r="R93" s="92"/>
-      <c r="S93" s="92"/>
-      <c r="T93" s="92"/>
-      <c r="U93" s="92"/>
-      <c r="V93" s="92"/>
-      <c r="W93" s="92"/>
-      <c r="X93" s="92"/>
-      <c r="Y93" s="92"/>
-      <c r="Z93" s="92"/>
-      <c r="AA93" s="92"/>
-      <c r="AB93" s="92"/>
-      <c r="AC93" s="92"/>
-      <c r="AD93" s="92"/>
-      <c r="AE93" s="92"/>
-      <c r="AF93" s="92"/>
-      <c r="AG93" s="92"/>
-      <c r="AH93" s="92"/>
-      <c r="AI93" s="92"/>
+      <c r="D93" s="94"/>
+      <c r="E93" s="94"/>
+      <c r="F93" s="94"/>
+      <c r="G93" s="94"/>
+      <c r="H93" s="94"/>
+      <c r="I93" s="94"/>
+      <c r="J93" s="94"/>
+      <c r="K93" s="94"/>
+      <c r="L93" s="94"/>
+      <c r="M93" s="94"/>
+      <c r="N93" s="94"/>
+      <c r="O93" s="94"/>
+      <c r="P93" s="94"/>
+      <c r="Q93" s="94"/>
+      <c r="R93" s="94"/>
+      <c r="S93" s="94"/>
+      <c r="T93" s="94"/>
+      <c r="U93" s="94"/>
+      <c r="V93" s="94"/>
+      <c r="W93" s="94"/>
+      <c r="X93" s="94"/>
+      <c r="Y93" s="94"/>
+      <c r="Z93" s="94"/>
+      <c r="AA93" s="94"/>
+      <c r="AB93" s="94"/>
+      <c r="AC93" s="94"/>
+      <c r="AD93" s="94"/>
+      <c r="AE93" s="94"/>
+      <c r="AF93" s="94"/>
+      <c r="AG93" s="94"/>
+      <c r="AH93" s="94"/>
+      <c r="AI93" s="94"/>
     </row>
     <row r="95" spans="2:37" ht="30">
       <c r="C95" s="16" t="s">
@@ -6626,42 +7072,42 @@
       </c>
     </row>
     <row r="143" spans="2:35" ht="35.25" customHeight="1">
-      <c r="B143" s="90" t="s">
+      <c r="B143" s="93" t="s">
         <v>11</v>
       </c>
-      <c r="C143" s="90"/>
-      <c r="D143" s="90"/>
-      <c r="E143" s="90"/>
-      <c r="F143" s="90"/>
-      <c r="G143" s="90"/>
-      <c r="H143" s="90"/>
-      <c r="I143" s="90"/>
-      <c r="J143" s="90"/>
-      <c r="K143" s="90"/>
-      <c r="L143" s="90"/>
-      <c r="M143" s="90"/>
-      <c r="N143" s="90"/>
-      <c r="O143" s="90"/>
-      <c r="P143" s="90"/>
-      <c r="Q143" s="90"/>
-      <c r="R143" s="90"/>
-      <c r="S143" s="90"/>
-      <c r="T143" s="90"/>
-      <c r="U143" s="90"/>
-      <c r="V143" s="90"/>
-      <c r="W143" s="90"/>
-      <c r="X143" s="90"/>
-      <c r="Y143" s="90"/>
-      <c r="Z143" s="90"/>
-      <c r="AA143" s="90"/>
-      <c r="AB143" s="90"/>
-      <c r="AC143" s="90"/>
-      <c r="AD143" s="90"/>
-      <c r="AE143" s="90"/>
-      <c r="AF143" s="90"/>
-      <c r="AG143" s="90"/>
-      <c r="AH143" s="90"/>
-      <c r="AI143" s="90"/>
+      <c r="C143" s="93"/>
+      <c r="D143" s="93"/>
+      <c r="E143" s="93"/>
+      <c r="F143" s="93"/>
+      <c r="G143" s="93"/>
+      <c r="H143" s="93"/>
+      <c r="I143" s="93"/>
+      <c r="J143" s="93"/>
+      <c r="K143" s="93"/>
+      <c r="L143" s="93"/>
+      <c r="M143" s="93"/>
+      <c r="N143" s="93"/>
+      <c r="O143" s="93"/>
+      <c r="P143" s="93"/>
+      <c r="Q143" s="93"/>
+      <c r="R143" s="93"/>
+      <c r="S143" s="93"/>
+      <c r="T143" s="93"/>
+      <c r="U143" s="93"/>
+      <c r="V143" s="93"/>
+      <c r="W143" s="93"/>
+      <c r="X143" s="93"/>
+      <c r="Y143" s="93"/>
+      <c r="Z143" s="93"/>
+      <c r="AA143" s="93"/>
+      <c r="AB143" s="93"/>
+      <c r="AC143" s="93"/>
+      <c r="AD143" s="93"/>
+      <c r="AE143" s="93"/>
+      <c r="AF143" s="93"/>
+      <c r="AG143" s="93"/>
+      <c r="AH143" s="93"/>
+      <c r="AI143" s="93"/>
     </row>
     <row r="145" spans="3:35" ht="30">
       <c r="C145" s="16" t="s">
@@ -7443,387 +7889,387 @@
   <sheetPr>
     <tabColor theme="4" tint="0.39997558519241921"/>
   </sheetPr>
-  <dimension ref="A2:AI306"/>
+  <dimension ref="A2:AI433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C192" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AD258" sqref="AD258"/>
+    <sheetView tabSelected="1" topLeftCell="A242" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N429" sqref="N429"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="20" customWidth="1"/>
+    <col min="11" max="11" width="18.5703125" customWidth="1"/>
     <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:35">
       <c r="A2" s="30"/>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
-      <c r="P2" s="121"/>
-      <c r="Q2" s="121"/>
-      <c r="R2" s="121"/>
-      <c r="S2" s="121"/>
-      <c r="T2" s="121"/>
-      <c r="U2" s="121"/>
-      <c r="V2" s="121"/>
-      <c r="W2" s="121"/>
-      <c r="X2" s="121"/>
-      <c r="Y2" s="121"/>
-      <c r="Z2" s="121"/>
-      <c r="AA2" s="121"/>
-      <c r="AB2" s="121"/>
-      <c r="AC2" s="121"/>
-      <c r="AD2" s="121"/>
-      <c r="AE2" s="121"/>
-      <c r="AF2" s="121"/>
-      <c r="AG2" s="121"/>
-      <c r="AH2" s="121"/>
-      <c r="AI2" s="121"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="140"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="140"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="140"/>
+      <c r="I2" s="140"/>
+      <c r="J2" s="140"/>
+      <c r="K2" s="140"/>
+      <c r="L2" s="140"/>
+      <c r="M2" s="140"/>
+      <c r="N2" s="140"/>
+      <c r="O2" s="140"/>
+      <c r="P2" s="140"/>
+      <c r="Q2" s="140"/>
+      <c r="R2" s="140"/>
+      <c r="S2" s="140"/>
+      <c r="T2" s="140"/>
+      <c r="U2" s="140"/>
+      <c r="V2" s="140"/>
+      <c r="W2" s="140"/>
+      <c r="X2" s="140"/>
+      <c r="Y2" s="140"/>
+      <c r="Z2" s="140"/>
+      <c r="AA2" s="140"/>
+      <c r="AB2" s="140"/>
+      <c r="AC2" s="140"/>
+      <c r="AD2" s="140"/>
+      <c r="AE2" s="140"/>
+      <c r="AF2" s="140"/>
+      <c r="AG2" s="140"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="140"/>
     </row>
     <row r="3" spans="1:35">
       <c r="A3" s="30"/>
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="121"/>
-      <c r="E3" s="121"/>
-      <c r="F3" s="121"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="121"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="121"/>
-      <c r="L3" s="121"/>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="121"/>
-      <c r="P3" s="121"/>
-      <c r="Q3" s="121"/>
-      <c r="R3" s="121"/>
-      <c r="S3" s="121"/>
-      <c r="T3" s="121"/>
-      <c r="U3" s="121"/>
-      <c r="V3" s="121"/>
-      <c r="W3" s="121"/>
-      <c r="X3" s="121"/>
-      <c r="Y3" s="121"/>
-      <c r="Z3" s="121"/>
-      <c r="AA3" s="121"/>
-      <c r="AB3" s="121"/>
-      <c r="AC3" s="121"/>
-      <c r="AD3" s="121"/>
-      <c r="AE3" s="121"/>
-      <c r="AF3" s="121"/>
-      <c r="AG3" s="121"/>
-      <c r="AH3" s="121"/>
-      <c r="AI3" s="121"/>
+      <c r="B3" s="140"/>
+      <c r="C3" s="140"/>
+      <c r="D3" s="140"/>
+      <c r="E3" s="140"/>
+      <c r="F3" s="140"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="140"/>
+      <c r="J3" s="140"/>
+      <c r="K3" s="140"/>
+      <c r="L3" s="140"/>
+      <c r="M3" s="140"/>
+      <c r="N3" s="140"/>
+      <c r="O3" s="140"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="140"/>
+      <c r="T3" s="140"/>
+      <c r="U3" s="140"/>
+      <c r="V3" s="140"/>
+      <c r="W3" s="140"/>
+      <c r="X3" s="140"/>
+      <c r="Y3" s="140"/>
+      <c r="Z3" s="140"/>
+      <c r="AA3" s="140"/>
+      <c r="AB3" s="140"/>
+      <c r="AC3" s="140"/>
+      <c r="AD3" s="140"/>
+      <c r="AE3" s="140"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
     </row>
     <row r="4" spans="1:35">
       <c r="A4" s="30"/>
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
-      <c r="D4" s="121"/>
-      <c r="E4" s="121"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="121"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="121"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="121"/>
-      <c r="L4" s="121"/>
-      <c r="M4" s="121"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="121"/>
-      <c r="P4" s="121"/>
-      <c r="Q4" s="121"/>
-      <c r="R4" s="121"/>
-      <c r="S4" s="121"/>
-      <c r="T4" s="121"/>
-      <c r="U4" s="121"/>
-      <c r="V4" s="121"/>
-      <c r="W4" s="121"/>
-      <c r="X4" s="121"/>
-      <c r="Y4" s="121"/>
-      <c r="Z4" s="121"/>
-      <c r="AA4" s="121"/>
-      <c r="AB4" s="121"/>
-      <c r="AC4" s="121"/>
-      <c r="AD4" s="121"/>
-      <c r="AE4" s="121"/>
-      <c r="AF4" s="121"/>
-      <c r="AG4" s="121"/>
-      <c r="AH4" s="121"/>
-      <c r="AI4" s="121"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="140"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="140"/>
+      <c r="F4" s="140"/>
+      <c r="G4" s="140"/>
+      <c r="H4" s="140"/>
+      <c r="I4" s="140"/>
+      <c r="J4" s="140"/>
+      <c r="K4" s="140"/>
+      <c r="L4" s="140"/>
+      <c r="M4" s="140"/>
+      <c r="N4" s="140"/>
+      <c r="O4" s="140"/>
+      <c r="P4" s="140"/>
+      <c r="Q4" s="140"/>
+      <c r="R4" s="140"/>
+      <c r="S4" s="140"/>
+      <c r="T4" s="140"/>
+      <c r="U4" s="140"/>
+      <c r="V4" s="140"/>
+      <c r="W4" s="140"/>
+      <c r="X4" s="140"/>
+      <c r="Y4" s="140"/>
+      <c r="Z4" s="140"/>
+      <c r="AA4" s="140"/>
+      <c r="AB4" s="140"/>
+      <c r="AC4" s="140"/>
+      <c r="AD4" s="140"/>
+      <c r="AE4" s="140"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
     </row>
     <row r="5" spans="1:35">
       <c r="A5" s="30"/>
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="121"/>
-      <c r="E5" s="121"/>
-      <c r="F5" s="121"/>
-      <c r="G5" s="121"/>
-      <c r="H5" s="121"/>
-      <c r="I5" s="121"/>
-      <c r="J5" s="121"/>
-      <c r="K5" s="121"/>
-      <c r="L5" s="121"/>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="121"/>
-      <c r="P5" s="121"/>
-      <c r="Q5" s="121"/>
-      <c r="R5" s="121"/>
-      <c r="S5" s="121"/>
-      <c r="T5" s="121"/>
-      <c r="U5" s="121"/>
-      <c r="V5" s="121"/>
-      <c r="W5" s="121"/>
-      <c r="X5" s="121"/>
-      <c r="Y5" s="121"/>
-      <c r="Z5" s="121"/>
-      <c r="AA5" s="121"/>
-      <c r="AB5" s="121"/>
-      <c r="AC5" s="121"/>
-      <c r="AD5" s="121"/>
-      <c r="AE5" s="121"/>
-      <c r="AF5" s="121"/>
-      <c r="AG5" s="121"/>
-      <c r="AH5" s="121"/>
-      <c r="AI5" s="121"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="140"/>
+      <c r="E5" s="140"/>
+      <c r="F5" s="140"/>
+      <c r="G5" s="140"/>
+      <c r="H5" s="140"/>
+      <c r="I5" s="140"/>
+      <c r="J5" s="140"/>
+      <c r="K5" s="140"/>
+      <c r="L5" s="140"/>
+      <c r="M5" s="140"/>
+      <c r="N5" s="140"/>
+      <c r="O5" s="140"/>
+      <c r="P5" s="140"/>
+      <c r="Q5" s="140"/>
+      <c r="R5" s="140"/>
+      <c r="S5" s="140"/>
+      <c r="T5" s="140"/>
+      <c r="U5" s="140"/>
+      <c r="V5" s="140"/>
+      <c r="W5" s="140"/>
+      <c r="X5" s="140"/>
+      <c r="Y5" s="140"/>
+      <c r="Z5" s="140"/>
+      <c r="AA5" s="140"/>
+      <c r="AB5" s="140"/>
+      <c r="AC5" s="140"/>
+      <c r="AD5" s="140"/>
+      <c r="AE5" s="140"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
     </row>
     <row r="6" spans="1:35">
       <c r="A6" s="30"/>
-      <c r="B6" s="121"/>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-      <c r="I6" s="121"/>
-      <c r="J6" s="121"/>
-      <c r="K6" s="121"/>
-      <c r="L6" s="121"/>
-      <c r="M6" s="121"/>
-      <c r="N6" s="121"/>
-      <c r="O6" s="121"/>
-      <c r="P6" s="121"/>
-      <c r="Q6" s="121"/>
-      <c r="R6" s="121"/>
-      <c r="S6" s="121"/>
-      <c r="T6" s="121"/>
-      <c r="U6" s="121"/>
-      <c r="V6" s="121"/>
-      <c r="W6" s="121"/>
-      <c r="X6" s="121"/>
-      <c r="Y6" s="121"/>
-      <c r="Z6" s="121"/>
-      <c r="AA6" s="121"/>
-      <c r="AB6" s="121"/>
-      <c r="AC6" s="121"/>
-      <c r="AD6" s="121"/>
-      <c r="AE6" s="121"/>
-      <c r="AF6" s="121"/>
-      <c r="AG6" s="121"/>
-      <c r="AH6" s="121"/>
-      <c r="AI6" s="121"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+      <c r="K6" s="140"/>
+      <c r="L6" s="140"/>
+      <c r="M6" s="140"/>
+      <c r="N6" s="140"/>
+      <c r="O6" s="140"/>
+      <c r="P6" s="140"/>
+      <c r="Q6" s="140"/>
+      <c r="R6" s="140"/>
+      <c r="S6" s="140"/>
+      <c r="T6" s="140"/>
+      <c r="U6" s="140"/>
+      <c r="V6" s="140"/>
+      <c r="W6" s="140"/>
+      <c r="X6" s="140"/>
+      <c r="Y6" s="140"/>
+      <c r="Z6" s="140"/>
+      <c r="AA6" s="140"/>
+      <c r="AB6" s="140"/>
+      <c r="AC6" s="140"/>
+      <c r="AD6" s="140"/>
+      <c r="AE6" s="140"/>
+      <c r="AF6" s="140"/>
+      <c r="AG6" s="140"/>
+      <c r="AH6" s="140"/>
+      <c r="AI6" s="140"/>
     </row>
     <row r="7" spans="1:35">
       <c r="A7" s="30"/>
-      <c r="B7" s="121"/>
-      <c r="C7" s="121"/>
-      <c r="D7" s="121"/>
-      <c r="E7" s="121"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="121"/>
-      <c r="H7" s="121"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="121"/>
-      <c r="L7" s="121"/>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="121"/>
-      <c r="R7" s="121"/>
-      <c r="S7" s="121"/>
-      <c r="T7" s="121"/>
-      <c r="U7" s="121"/>
-      <c r="V7" s="121"/>
-      <c r="W7" s="121"/>
-      <c r="X7" s="121"/>
-      <c r="Y7" s="121"/>
-      <c r="Z7" s="121"/>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="121"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="121"/>
-      <c r="AG7" s="121"/>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="140"/>
+      <c r="D7" s="140"/>
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+      <c r="K7" s="140"/>
+      <c r="L7" s="140"/>
+      <c r="M7" s="140"/>
+      <c r="N7" s="140"/>
+      <c r="O7" s="140"/>
+      <c r="P7" s="140"/>
+      <c r="Q7" s="140"/>
+      <c r="R7" s="140"/>
+      <c r="S7" s="140"/>
+      <c r="T7" s="140"/>
+      <c r="U7" s="140"/>
+      <c r="V7" s="140"/>
+      <c r="W7" s="140"/>
+      <c r="X7" s="140"/>
+      <c r="Y7" s="140"/>
+      <c r="Z7" s="140"/>
+      <c r="AA7" s="140"/>
+      <c r="AB7" s="140"/>
+      <c r="AC7" s="140"/>
+      <c r="AD7" s="140"/>
+      <c r="AE7" s="140"/>
+      <c r="AF7" s="140"/>
+      <c r="AG7" s="140"/>
+      <c r="AH7" s="140"/>
+      <c r="AI7" s="140"/>
     </row>
     <row r="8" spans="1:35">
       <c r="A8" s="30"/>
-      <c r="B8" s="121"/>
-      <c r="C8" s="121"/>
-      <c r="D8" s="121"/>
-      <c r="E8" s="121"/>
-      <c r="F8" s="121"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="121"/>
-      <c r="I8" s="121"/>
-      <c r="J8" s="121"/>
-      <c r="K8" s="121"/>
-      <c r="L8" s="121"/>
-      <c r="M8" s="121"/>
-      <c r="N8" s="121"/>
-      <c r="O8" s="121"/>
-      <c r="P8" s="121"/>
-      <c r="Q8" s="121"/>
-      <c r="R8" s="121"/>
-      <c r="S8" s="121"/>
-      <c r="T8" s="121"/>
-      <c r="U8" s="121"/>
-      <c r="V8" s="121"/>
-      <c r="W8" s="121"/>
-      <c r="X8" s="121"/>
-      <c r="Y8" s="121"/>
-      <c r="Z8" s="121"/>
-      <c r="AA8" s="121"/>
-      <c r="AB8" s="121"/>
-      <c r="AC8" s="121"/>
-      <c r="AD8" s="121"/>
-      <c r="AE8" s="121"/>
-      <c r="AF8" s="121"/>
-      <c r="AG8" s="121"/>
-      <c r="AH8" s="121"/>
-      <c r="AI8" s="121"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="140"/>
+      <c r="D8" s="140"/>
+      <c r="E8" s="140"/>
+      <c r="F8" s="140"/>
+      <c r="G8" s="140"/>
+      <c r="H8" s="140"/>
+      <c r="I8" s="140"/>
+      <c r="J8" s="140"/>
+      <c r="K8" s="140"/>
+      <c r="L8" s="140"/>
+      <c r="M8" s="140"/>
+      <c r="N8" s="140"/>
+      <c r="O8" s="140"/>
+      <c r="P8" s="140"/>
+      <c r="Q8" s="140"/>
+      <c r="R8" s="140"/>
+      <c r="S8" s="140"/>
+      <c r="T8" s="140"/>
+      <c r="U8" s="140"/>
+      <c r="V8" s="140"/>
+      <c r="W8" s="140"/>
+      <c r="X8" s="140"/>
+      <c r="Y8" s="140"/>
+      <c r="Z8" s="140"/>
+      <c r="AA8" s="140"/>
+      <c r="AB8" s="140"/>
+      <c r="AC8" s="140"/>
+      <c r="AD8" s="140"/>
+      <c r="AE8" s="140"/>
+      <c r="AF8" s="140"/>
+      <c r="AG8" s="140"/>
+      <c r="AH8" s="140"/>
+      <c r="AI8" s="140"/>
     </row>
     <row r="9" spans="1:35">
       <c r="A9" s="30"/>
-      <c r="B9" s="121"/>
-      <c r="C9" s="121"/>
-      <c r="D9" s="121"/>
-      <c r="E9" s="121"/>
-      <c r="F9" s="121"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="121"/>
-      <c r="I9" s="121"/>
-      <c r="J9" s="121"/>
-      <c r="K9" s="121"/>
-      <c r="L9" s="121"/>
-      <c r="M9" s="121"/>
-      <c r="N9" s="121"/>
-      <c r="O9" s="121"/>
-      <c r="P9" s="121"/>
-      <c r="Q9" s="121"/>
-      <c r="R9" s="121"/>
-      <c r="S9" s="121"/>
-      <c r="T9" s="121"/>
-      <c r="U9" s="121"/>
-      <c r="V9" s="121"/>
-      <c r="W9" s="121"/>
-      <c r="X9" s="121"/>
-      <c r="Y9" s="121"/>
-      <c r="Z9" s="121"/>
-      <c r="AA9" s="121"/>
-      <c r="AB9" s="121"/>
-      <c r="AC9" s="121"/>
-      <c r="AD9" s="121"/>
-      <c r="AE9" s="121"/>
-      <c r="AF9" s="121"/>
-      <c r="AG9" s="121"/>
-      <c r="AH9" s="121"/>
-      <c r="AI9" s="121"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="140"/>
+      <c r="D9" s="140"/>
+      <c r="E9" s="140"/>
+      <c r="F9" s="140"/>
+      <c r="G9" s="140"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="140"/>
+      <c r="J9" s="140"/>
+      <c r="K9" s="140"/>
+      <c r="L9" s="140"/>
+      <c r="M9" s="140"/>
+      <c r="N9" s="140"/>
+      <c r="O9" s="140"/>
+      <c r="P9" s="140"/>
+      <c r="Q9" s="140"/>
+      <c r="R9" s="140"/>
+      <c r="S9" s="140"/>
+      <c r="T9" s="140"/>
+      <c r="U9" s="140"/>
+      <c r="V9" s="140"/>
+      <c r="W9" s="140"/>
+      <c r="X9" s="140"/>
+      <c r="Y9" s="140"/>
+      <c r="Z9" s="140"/>
+      <c r="AA9" s="140"/>
+      <c r="AB9" s="140"/>
+      <c r="AC9" s="140"/>
+      <c r="AD9" s="140"/>
+      <c r="AE9" s="140"/>
+      <c r="AF9" s="140"/>
+      <c r="AG9" s="140"/>
+      <c r="AH9" s="140"/>
+      <c r="AI9" s="140"/>
     </row>
     <row r="10" spans="1:35">
       <c r="A10" s="30"/>
-      <c r="B10" s="121"/>
-      <c r="C10" s="121"/>
-      <c r="D10" s="121"/>
-      <c r="E10" s="121"/>
-      <c r="F10" s="121"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="121"/>
-      <c r="I10" s="121"/>
-      <c r="J10" s="121"/>
-      <c r="K10" s="121"/>
-      <c r="L10" s="121"/>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="121"/>
-      <c r="P10" s="121"/>
-      <c r="Q10" s="121"/>
-      <c r="R10" s="121"/>
-      <c r="S10" s="121"/>
-      <c r="T10" s="121"/>
-      <c r="U10" s="121"/>
-      <c r="V10" s="121"/>
-      <c r="W10" s="121"/>
-      <c r="X10" s="121"/>
-      <c r="Y10" s="121"/>
-      <c r="Z10" s="121"/>
-      <c r="AA10" s="121"/>
-      <c r="AB10" s="121"/>
-      <c r="AC10" s="121"/>
-      <c r="AD10" s="121"/>
-      <c r="AE10" s="121"/>
-      <c r="AF10" s="121"/>
-      <c r="AG10" s="121"/>
-      <c r="AH10" s="121"/>
-      <c r="AI10" s="121"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="140"/>
+      <c r="G10" s="140"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="140"/>
+      <c r="J10" s="140"/>
+      <c r="K10" s="140"/>
+      <c r="L10" s="140"/>
+      <c r="M10" s="140"/>
+      <c r="N10" s="140"/>
+      <c r="O10" s="140"/>
+      <c r="P10" s="140"/>
+      <c r="Q10" s="140"/>
+      <c r="R10" s="140"/>
+      <c r="S10" s="140"/>
+      <c r="T10" s="140"/>
+      <c r="U10" s="140"/>
+      <c r="V10" s="140"/>
+      <c r="W10" s="140"/>
+      <c r="X10" s="140"/>
+      <c r="Y10" s="140"/>
+      <c r="Z10" s="140"/>
+      <c r="AA10" s="140"/>
+      <c r="AB10" s="140"/>
+      <c r="AC10" s="140"/>
+      <c r="AD10" s="140"/>
+      <c r="AE10" s="140"/>
+      <c r="AF10" s="140"/>
+      <c r="AG10" s="140"/>
+      <c r="AH10" s="140"/>
+      <c r="AI10" s="140"/>
     </row>
     <row r="11" spans="1:35">
       <c r="A11" s="30"/>
-      <c r="B11" s="121"/>
-      <c r="C11" s="121"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="121"/>
-      <c r="F11" s="121"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="121"/>
-      <c r="I11" s="121"/>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
-      <c r="Q11" s="121"/>
-      <c r="R11" s="121"/>
-      <c r="S11" s="121"/>
-      <c r="T11" s="121"/>
-      <c r="U11" s="121"/>
-      <c r="V11" s="121"/>
-      <c r="W11" s="121"/>
-      <c r="X11" s="121"/>
-      <c r="Y11" s="121"/>
-      <c r="Z11" s="121"/>
-      <c r="AA11" s="121"/>
-      <c r="AB11" s="121"/>
-      <c r="AC11" s="121"/>
-      <c r="AD11" s="121"/>
-      <c r="AE11" s="121"/>
-      <c r="AF11" s="121"/>
-      <c r="AG11" s="121"/>
-      <c r="AH11" s="121"/>
-      <c r="AI11" s="121"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="140"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="140"/>
+      <c r="G11" s="140"/>
+      <c r="H11" s="140"/>
+      <c r="I11" s="140"/>
+      <c r="J11" s="140"/>
+      <c r="K11" s="140"/>
+      <c r="L11" s="140"/>
+      <c r="M11" s="140"/>
+      <c r="N11" s="140"/>
+      <c r="O11" s="140"/>
+      <c r="P11" s="140"/>
+      <c r="Q11" s="140"/>
+      <c r="R11" s="140"/>
+      <c r="S11" s="140"/>
+      <c r="T11" s="140"/>
+      <c r="U11" s="140"/>
+      <c r="V11" s="140"/>
+      <c r="W11" s="140"/>
+      <c r="X11" s="140"/>
+      <c r="Y11" s="140"/>
+      <c r="Z11" s="140"/>
+      <c r="AA11" s="140"/>
+      <c r="AB11" s="140"/>
+      <c r="AC11" s="140"/>
+      <c r="AD11" s="140"/>
+      <c r="AE11" s="140"/>
+      <c r="AF11" s="140"/>
+      <c r="AG11" s="140"/>
+      <c r="AH11" s="140"/>
+      <c r="AI11" s="140"/>
     </row>
     <row r="13" spans="1:35" ht="32.25">
       <c r="B13" s="31" t="s">
@@ -7865,30 +8311,30 @@
     </row>
     <row r="14" spans="1:35" ht="21.75" customHeight="1"/>
     <row r="15" spans="1:35" ht="27.75">
-      <c r="C15" s="123" t="s">
+      <c r="C15" s="142" t="s">
         <v>69</v>
       </c>
-      <c r="D15" s="123"/>
-      <c r="E15" s="123"/>
-      <c r="F15" s="123"/>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="123"/>
-      <c r="K15" s="123"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
+      <c r="K15" s="142"/>
     </row>
     <row r="16" spans="1:35" ht="16.5" customHeight="1">
       <c r="C16" s="32"/>
-      <c r="D16" s="122" t="s">
+      <c r="D16" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="122"/>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="122"/>
-      <c r="I16" s="122"/>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
+      <c r="E16" s="141"/>
+      <c r="F16" s="141"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="141"/>
+      <c r="I16" s="141"/>
+      <c r="J16" s="141"/>
+      <c r="K16" s="141"/>
       <c r="L16" s="62"/>
       <c r="M16" s="63" t="s">
         <v>77</v>
@@ -7906,16 +8352,16 @@
     </row>
     <row r="17" spans="3:23" ht="21">
       <c r="C17" s="32"/>
-      <c r="D17" s="122" t="s">
+      <c r="D17" s="141" t="s">
         <v>71</v>
       </c>
-      <c r="E17" s="122"/>
-      <c r="F17" s="122"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="122"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
+      <c r="E17" s="141"/>
+      <c r="F17" s="141"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="141"/>
+      <c r="I17" s="141"/>
+      <c r="J17" s="141"/>
+      <c r="K17" s="141"/>
       <c r="L17" s="62"/>
       <c r="M17" s="63" t="s">
         <v>78</v>
@@ -7933,16 +8379,16 @@
     </row>
     <row r="18" spans="3:23" ht="21">
       <c r="C18" s="32"/>
-      <c r="D18" s="122" t="s">
+      <c r="D18" s="141" t="s">
         <v>72</v>
       </c>
-      <c r="E18" s="122"/>
-      <c r="F18" s="122"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="122"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
+      <c r="E18" s="141"/>
+      <c r="F18" s="141"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="141"/>
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
       <c r="L18" s="62"/>
       <c r="M18" s="63" t="s">
         <v>79</v>
@@ -7960,16 +8406,16 @@
     </row>
     <row r="19" spans="3:23" ht="21">
       <c r="C19" s="32"/>
-      <c r="D19" s="122" t="s">
+      <c r="D19" s="141" t="s">
         <v>73</v>
       </c>
-      <c r="E19" s="122"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="122"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
+      <c r="E19" s="141"/>
+      <c r="F19" s="141"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="141"/>
+      <c r="I19" s="141"/>
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
       <c r="L19" s="62"/>
       <c r="M19" s="63" t="s">
         <v>80</v>
@@ -7987,16 +8433,16 @@
     </row>
     <row r="20" spans="3:23" ht="21">
       <c r="C20" s="32"/>
-      <c r="D20" s="122" t="s">
+      <c r="D20" s="141" t="s">
         <v>74</v>
       </c>
-      <c r="E20" s="122"/>
-      <c r="F20" s="122"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
+      <c r="E20" s="141"/>
+      <c r="F20" s="141"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="141"/>
+      <c r="I20" s="141"/>
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
       <c r="L20" s="62"/>
       <c r="M20" s="63" t="s">
         <v>81</v>
@@ -8014,16 +8460,16 @@
     </row>
     <row r="21" spans="3:23" ht="21">
       <c r="C21" s="32"/>
-      <c r="D21" s="122" t="s">
+      <c r="D21" s="141" t="s">
         <v>75</v>
       </c>
-      <c r="E21" s="122"/>
-      <c r="F21" s="122"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
+      <c r="E21" s="141"/>
+      <c r="F21" s="141"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="141"/>
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
       <c r="L21" s="62"/>
       <c r="M21" s="63" t="s">
         <v>82</v>
@@ -8063,320 +8509,320 @@
       </c>
     </row>
     <row r="26" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C26" s="103" t="s">
+      <c r="C26" s="113" t="s">
         <v>86</v>
       </c>
-      <c r="D26" s="104"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="104"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="105"/>
+      <c r="D26" s="114"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="114"/>
+      <c r="I26" s="114"/>
+      <c r="J26" s="114"/>
+      <c r="K26" s="114"/>
+      <c r="L26" s="114"/>
+      <c r="M26" s="115"/>
     </row>
     <row r="27" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C27" s="106"/>
-      <c r="D27" s="107"/>
-      <c r="E27" s="107"/>
-      <c r="F27" s="107"/>
-      <c r="G27" s="107"/>
-      <c r="H27" s="107"/>
-      <c r="I27" s="107"/>
-      <c r="J27" s="107"/>
-      <c r="K27" s="107"/>
-      <c r="L27" s="107"/>
-      <c r="M27" s="108"/>
+      <c r="C27" s="116"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="117"/>
+      <c r="K27" s="117"/>
+      <c r="L27" s="117"/>
+      <c r="M27" s="118"/>
     </row>
     <row r="28" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C28" s="106"/>
-      <c r="D28" s="107"/>
-      <c r="E28" s="107"/>
-      <c r="F28" s="107"/>
-      <c r="G28" s="107"/>
-      <c r="H28" s="107"/>
-      <c r="I28" s="107"/>
-      <c r="J28" s="107"/>
-      <c r="K28" s="107"/>
-      <c r="L28" s="107"/>
-      <c r="M28" s="108"/>
+      <c r="C28" s="116"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="117"/>
+      <c r="K28" s="117"/>
+      <c r="L28" s="117"/>
+      <c r="M28" s="118"/>
     </row>
     <row r="29" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C29" s="106"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="107"/>
-      <c r="G29" s="107"/>
-      <c r="H29" s="107"/>
-      <c r="I29" s="107"/>
-      <c r="J29" s="107"/>
-      <c r="K29" s="107"/>
-      <c r="L29" s="107"/>
-      <c r="M29" s="108"/>
+      <c r="C29" s="116"/>
+      <c r="D29" s="117"/>
+      <c r="E29" s="117"/>
+      <c r="F29" s="117"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="117"/>
+      <c r="I29" s="117"/>
+      <c r="J29" s="117"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="118"/>
     </row>
     <row r="30" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C30" s="106"/>
-      <c r="D30" s="107"/>
-      <c r="E30" s="107"/>
-      <c r="F30" s="107"/>
-      <c r="G30" s="107"/>
-      <c r="H30" s="107"/>
-      <c r="I30" s="107"/>
-      <c r="J30" s="107"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="107"/>
-      <c r="M30" s="108"/>
+      <c r="C30" s="116"/>
+      <c r="D30" s="117"/>
+      <c r="E30" s="117"/>
+      <c r="F30" s="117"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="117"/>
+      <c r="J30" s="117"/>
+      <c r="K30" s="117"/>
+      <c r="L30" s="117"/>
+      <c r="M30" s="118"/>
     </row>
     <row r="31" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C31" s="106"/>
-      <c r="D31" s="107"/>
-      <c r="E31" s="107"/>
-      <c r="F31" s="107"/>
-      <c r="G31" s="107"/>
-      <c r="H31" s="107"/>
-      <c r="I31" s="107"/>
-      <c r="J31" s="107"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="107"/>
-      <c r="M31" s="108"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="117"/>
+      <c r="E31" s="117"/>
+      <c r="F31" s="117"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="117"/>
+      <c r="I31" s="117"/>
+      <c r="J31" s="117"/>
+      <c r="K31" s="117"/>
+      <c r="L31" s="117"/>
+      <c r="M31" s="118"/>
     </row>
     <row r="32" spans="3:23" s="8" customFormat="1" ht="17.25">
-      <c r="C32" s="106"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="107"/>
-      <c r="G32" s="107"/>
-      <c r="H32" s="107"/>
-      <c r="I32" s="107"/>
-      <c r="J32" s="107"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="107"/>
-      <c r="M32" s="108"/>
+      <c r="C32" s="116"/>
+      <c r="D32" s="117"/>
+      <c r="E32" s="117"/>
+      <c r="F32" s="117"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="117"/>
+      <c r="I32" s="117"/>
+      <c r="J32" s="117"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="118"/>
     </row>
     <row r="33" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C33" s="106"/>
-      <c r="D33" s="107"/>
-      <c r="E33" s="107"/>
-      <c r="F33" s="107"/>
-      <c r="G33" s="107"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="107"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="107"/>
-      <c r="L33" s="107"/>
-      <c r="M33" s="108"/>
+      <c r="C33" s="116"/>
+      <c r="D33" s="117"/>
+      <c r="E33" s="117"/>
+      <c r="F33" s="117"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="117"/>
+      <c r="I33" s="117"/>
+      <c r="J33" s="117"/>
+      <c r="K33" s="117"/>
+      <c r="L33" s="117"/>
+      <c r="M33" s="118"/>
     </row>
     <row r="34" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C34" s="106"/>
-      <c r="D34" s="107"/>
-      <c r="E34" s="107"/>
-      <c r="F34" s="107"/>
-      <c r="G34" s="107"/>
-      <c r="H34" s="107"/>
-      <c r="I34" s="107"/>
-      <c r="J34" s="107"/>
-      <c r="K34" s="107"/>
-      <c r="L34" s="107"/>
-      <c r="M34" s="108"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="117"/>
+      <c r="K34" s="117"/>
+      <c r="L34" s="117"/>
+      <c r="M34" s="118"/>
     </row>
     <row r="35" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C35" s="106"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="107"/>
-      <c r="G35" s="107"/>
-      <c r="H35" s="107"/>
-      <c r="I35" s="107"/>
-      <c r="J35" s="107"/>
-      <c r="K35" s="107"/>
-      <c r="L35" s="107"/>
-      <c r="M35" s="108"/>
+      <c r="C35" s="116"/>
+      <c r="D35" s="117"/>
+      <c r="E35" s="117"/>
+      <c r="F35" s="117"/>
+      <c r="G35" s="117"/>
+      <c r="H35" s="117"/>
+      <c r="I35" s="117"/>
+      <c r="J35" s="117"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118"/>
       <c r="N35" s="33"/>
       <c r="Y35" s="17"/>
     </row>
     <row r="36" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C36" s="106"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="107"/>
-      <c r="F36" s="107"/>
-      <c r="G36" s="107"/>
-      <c r="H36" s="107"/>
-      <c r="I36" s="107"/>
-      <c r="J36" s="107"/>
-      <c r="K36" s="107"/>
-      <c r="L36" s="107"/>
-      <c r="M36" s="108"/>
+      <c r="C36" s="116"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="117"/>
+      <c r="L36" s="117"/>
+      <c r="M36" s="118"/>
     </row>
     <row r="37" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C37" s="106"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="107"/>
-      <c r="G37" s="107"/>
-      <c r="H37" s="107"/>
-      <c r="I37" s="107"/>
-      <c r="J37" s="107"/>
-      <c r="K37" s="107"/>
-      <c r="L37" s="107"/>
-      <c r="M37" s="108"/>
+      <c r="C37" s="116"/>
+      <c r="D37" s="117"/>
+      <c r="E37" s="117"/>
+      <c r="F37" s="117"/>
+      <c r="G37" s="117"/>
+      <c r="H37" s="117"/>
+      <c r="I37" s="117"/>
+      <c r="J37" s="117"/>
+      <c r="K37" s="117"/>
+      <c r="L37" s="117"/>
+      <c r="M37" s="118"/>
     </row>
     <row r="38" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C38" s="106"/>
-      <c r="D38" s="107"/>
-      <c r="E38" s="107"/>
-      <c r="F38" s="107"/>
-      <c r="G38" s="107"/>
-      <c r="H38" s="107"/>
-      <c r="I38" s="107"/>
-      <c r="J38" s="107"/>
-      <c r="K38" s="107"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="108"/>
+      <c r="C38" s="116"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="118"/>
     </row>
     <row r="39" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C39" s="106"/>
-      <c r="D39" s="107"/>
-      <c r="E39" s="107"/>
-      <c r="F39" s="107"/>
-      <c r="G39" s="107"/>
-      <c r="H39" s="107"/>
-      <c r="I39" s="107"/>
-      <c r="J39" s="107"/>
-      <c r="K39" s="107"/>
-      <c r="L39" s="107"/>
-      <c r="M39" s="108"/>
+      <c r="C39" s="116"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="118"/>
     </row>
     <row r="40" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C40" s="106"/>
-      <c r="D40" s="107"/>
-      <c r="E40" s="107"/>
-      <c r="F40" s="107"/>
-      <c r="G40" s="107"/>
-      <c r="H40" s="107"/>
-      <c r="I40" s="107"/>
-      <c r="J40" s="107"/>
-      <c r="K40" s="107"/>
-      <c r="L40" s="107"/>
-      <c r="M40" s="108"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="117"/>
+      <c r="E40" s="117"/>
+      <c r="F40" s="117"/>
+      <c r="G40" s="117"/>
+      <c r="H40" s="117"/>
+      <c r="I40" s="117"/>
+      <c r="J40" s="117"/>
+      <c r="K40" s="117"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="118"/>
     </row>
     <row r="41" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="107"/>
-      <c r="J41" s="107"/>
-      <c r="K41" s="107"/>
-      <c r="L41" s="107"/>
-      <c r="M41" s="108"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="117"/>
+      <c r="E41" s="117"/>
+      <c r="F41" s="117"/>
+      <c r="G41" s="117"/>
+      <c r="H41" s="117"/>
+      <c r="I41" s="117"/>
+      <c r="J41" s="117"/>
+      <c r="K41" s="117"/>
+      <c r="L41" s="117"/>
+      <c r="M41" s="118"/>
     </row>
     <row r="42" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C42" s="106"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="107"/>
-      <c r="J42" s="107"/>
-      <c r="K42" s="107"/>
-      <c r="L42" s="107"/>
-      <c r="M42" s="108"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="117"/>
+      <c r="E42" s="117"/>
+      <c r="F42" s="117"/>
+      <c r="G42" s="117"/>
+      <c r="H42" s="117"/>
+      <c r="I42" s="117"/>
+      <c r="J42" s="117"/>
+      <c r="K42" s="117"/>
+      <c r="L42" s="117"/>
+      <c r="M42" s="118"/>
     </row>
     <row r="43" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="107"/>
-      <c r="J43" s="107"/>
-      <c r="K43" s="107"/>
-      <c r="L43" s="107"/>
-      <c r="M43" s="108"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="117"/>
+      <c r="E43" s="117"/>
+      <c r="F43" s="117"/>
+      <c r="G43" s="117"/>
+      <c r="H43" s="117"/>
+      <c r="I43" s="117"/>
+      <c r="J43" s="117"/>
+      <c r="K43" s="117"/>
+      <c r="L43" s="117"/>
+      <c r="M43" s="118"/>
     </row>
     <row r="44" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C44" s="106"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="107"/>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
-      <c r="J44" s="107"/>
-      <c r="K44" s="107"/>
-      <c r="L44" s="107"/>
-      <c r="M44" s="108"/>
+      <c r="C44" s="116"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="117"/>
+      <c r="J44" s="117"/>
+      <c r="K44" s="117"/>
+      <c r="L44" s="117"/>
+      <c r="M44" s="118"/>
     </row>
     <row r="45" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C45" s="106"/>
-      <c r="D45" s="107"/>
-      <c r="E45" s="107"/>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
-      <c r="J45" s="107"/>
-      <c r="K45" s="107"/>
-      <c r="L45" s="107"/>
-      <c r="M45" s="108"/>
+      <c r="C45" s="116"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="118"/>
     </row>
     <row r="46" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C46" s="106"/>
-      <c r="D46" s="107"/>
-      <c r="E46" s="107"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
-      <c r="J46" s="107"/>
-      <c r="K46" s="107"/>
-      <c r="L46" s="107"/>
-      <c r="M46" s="108"/>
+      <c r="C46" s="116"/>
+      <c r="D46" s="117"/>
+      <c r="E46" s="117"/>
+      <c r="F46" s="117"/>
+      <c r="G46" s="117"/>
+      <c r="H46" s="117"/>
+      <c r="I46" s="117"/>
+      <c r="J46" s="117"/>
+      <c r="K46" s="117"/>
+      <c r="L46" s="117"/>
+      <c r="M46" s="118"/>
     </row>
     <row r="47" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C47" s="106"/>
-      <c r="D47" s="107"/>
-      <c r="E47" s="107"/>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
-      <c r="J47" s="107"/>
-      <c r="K47" s="107"/>
-      <c r="L47" s="107"/>
-      <c r="M47" s="108"/>
+      <c r="C47" s="116"/>
+      <c r="D47" s="117"/>
+      <c r="E47" s="117"/>
+      <c r="F47" s="117"/>
+      <c r="G47" s="117"/>
+      <c r="H47" s="117"/>
+      <c r="I47" s="117"/>
+      <c r="J47" s="117"/>
+      <c r="K47" s="117"/>
+      <c r="L47" s="117"/>
+      <c r="M47" s="118"/>
     </row>
     <row r="48" spans="3:25" s="8" customFormat="1" ht="17.25">
-      <c r="C48" s="106"/>
-      <c r="D48" s="107"/>
-      <c r="E48" s="107"/>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
-      <c r="J48" s="107"/>
-      <c r="K48" s="107"/>
-      <c r="L48" s="107"/>
-      <c r="M48" s="108"/>
+      <c r="C48" s="116"/>
+      <c r="D48" s="117"/>
+      <c r="E48" s="117"/>
+      <c r="F48" s="117"/>
+      <c r="G48" s="117"/>
+      <c r="H48" s="117"/>
+      <c r="I48" s="117"/>
+      <c r="J48" s="117"/>
+      <c r="K48" s="117"/>
+      <c r="L48" s="117"/>
+      <c r="M48" s="118"/>
     </row>
     <row r="49" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="C49" s="109"/>
-      <c r="D49" s="110"/>
-      <c r="E49" s="110"/>
-      <c r="F49" s="110"/>
-      <c r="G49" s="110"/>
-      <c r="H49" s="110"/>
-      <c r="I49" s="110"/>
-      <c r="J49" s="110"/>
-      <c r="K49" s="110"/>
-      <c r="L49" s="110"/>
-      <c r="M49" s="111"/>
+      <c r="C49" s="119"/>
+      <c r="D49" s="120"/>
+      <c r="E49" s="120"/>
+      <c r="F49" s="120"/>
+      <c r="G49" s="120"/>
+      <c r="H49" s="120"/>
+      <c r="I49" s="120"/>
+      <c r="J49" s="120"/>
+      <c r="K49" s="120"/>
+      <c r="L49" s="120"/>
+      <c r="M49" s="121"/>
     </row>
     <row r="50" spans="3:31" s="8" customFormat="1" ht="17.25"/>
     <row r="51" spans="3:31" s="8" customFormat="1" ht="17.25">
@@ -9576,14 +10022,14 @@
     <row r="121" spans="3:26" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="C121" s="48"/>
       <c r="D121" s="48"/>
-      <c r="E121" s="112" t="s">
+      <c r="E121" s="122" t="s">
         <v>140</v>
       </c>
-      <c r="F121" s="113"/>
-      <c r="G121" s="113"/>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="114"/>
+      <c r="F121" s="123"/>
+      <c r="G121" s="123"/>
+      <c r="H121" s="123"/>
+      <c r="I121" s="123"/>
+      <c r="J121" s="124"/>
       <c r="K121" s="48"/>
       <c r="L121" s="48"/>
       <c r="M121" s="48"/>
@@ -9603,12 +10049,12 @@
     <row r="122" spans="3:26" s="8" customFormat="1" ht="23.25">
       <c r="C122" s="48"/>
       <c r="D122" s="48"/>
-      <c r="E122" s="115"/>
-      <c r="F122" s="116"/>
-      <c r="G122" s="116"/>
-      <c r="H122" s="116"/>
-      <c r="I122" s="116"/>
-      <c r="J122" s="117"/>
+      <c r="E122" s="125"/>
+      <c r="F122" s="126"/>
+      <c r="G122" s="126"/>
+      <c r="H122" s="126"/>
+      <c r="I122" s="126"/>
+      <c r="J122" s="127"/>
       <c r="K122" s="48"/>
       <c r="L122" s="48"/>
       <c r="M122" s="48"/>
@@ -9630,12 +10076,12 @@
     <row r="123" spans="3:26" s="8" customFormat="1" ht="17.25">
       <c r="C123" s="48"/>
       <c r="D123" s="48"/>
-      <c r="E123" s="115"/>
-      <c r="F123" s="116"/>
-      <c r="G123" s="116"/>
-      <c r="H123" s="116"/>
-      <c r="I123" s="116"/>
-      <c r="J123" s="117"/>
+      <c r="E123" s="125"/>
+      <c r="F123" s="126"/>
+      <c r="G123" s="126"/>
+      <c r="H123" s="126"/>
+      <c r="I123" s="126"/>
+      <c r="J123" s="127"/>
       <c r="K123" s="48"/>
       <c r="L123" s="48"/>
       <c r="M123" s="48"/>
@@ -9657,12 +10103,12 @@
     <row r="124" spans="3:26" ht="17.25">
       <c r="C124" s="48"/>
       <c r="D124" s="48"/>
-      <c r="E124" s="115"/>
-      <c r="F124" s="116"/>
-      <c r="G124" s="116"/>
-      <c r="H124" s="116"/>
-      <c r="I124" s="116"/>
-      <c r="J124" s="117"/>
+      <c r="E124" s="125"/>
+      <c r="F124" s="126"/>
+      <c r="G124" s="126"/>
+      <c r="H124" s="126"/>
+      <c r="I124" s="126"/>
+      <c r="J124" s="127"/>
       <c r="K124" s="48"/>
       <c r="L124" s="48"/>
       <c r="M124" s="48"/>
@@ -9684,12 +10130,12 @@
     <row r="125" spans="3:26" ht="17.25">
       <c r="C125" s="48"/>
       <c r="D125" s="48"/>
-      <c r="E125" s="115"/>
-      <c r="F125" s="116"/>
-      <c r="G125" s="116"/>
-      <c r="H125" s="116"/>
-      <c r="I125" s="116"/>
-      <c r="J125" s="117"/>
+      <c r="E125" s="125"/>
+      <c r="F125" s="126"/>
+      <c r="G125" s="126"/>
+      <c r="H125" s="126"/>
+      <c r="I125" s="126"/>
+      <c r="J125" s="127"/>
       <c r="K125" s="48"/>
       <c r="L125" s="48"/>
       <c r="M125" s="48"/>
@@ -9711,12 +10157,12 @@
     <row r="126" spans="3:26" ht="17.25">
       <c r="C126" s="48"/>
       <c r="D126" s="48"/>
-      <c r="E126" s="115"/>
-      <c r="F126" s="116"/>
-      <c r="G126" s="116"/>
-      <c r="H126" s="116"/>
-      <c r="I126" s="116"/>
-      <c r="J126" s="117"/>
+      <c r="E126" s="125"/>
+      <c r="F126" s="126"/>
+      <c r="G126" s="126"/>
+      <c r="H126" s="126"/>
+      <c r="I126" s="126"/>
+      <c r="J126" s="127"/>
       <c r="K126" s="48"/>
       <c r="L126" s="48"/>
       <c r="M126" s="48"/>
@@ -9738,12 +10184,12 @@
     <row r="127" spans="3:26" ht="17.25">
       <c r="C127" s="48"/>
       <c r="D127" s="48"/>
-      <c r="E127" s="115"/>
-      <c r="F127" s="116"/>
-      <c r="G127" s="116"/>
-      <c r="H127" s="116"/>
-      <c r="I127" s="116"/>
-      <c r="J127" s="117"/>
+      <c r="E127" s="125"/>
+      <c r="F127" s="126"/>
+      <c r="G127" s="126"/>
+      <c r="H127" s="126"/>
+      <c r="I127" s="126"/>
+      <c r="J127" s="127"/>
       <c r="K127" s="48"/>
       <c r="L127" s="48"/>
       <c r="M127" s="48"/>
@@ -9763,12 +10209,12 @@
     <row r="128" spans="3:26" ht="37.5" customHeight="1">
       <c r="C128" s="48"/>
       <c r="D128" s="48"/>
-      <c r="E128" s="115"/>
-      <c r="F128" s="116"/>
-      <c r="G128" s="116"/>
-      <c r="H128" s="116"/>
-      <c r="I128" s="116"/>
-      <c r="J128" s="117"/>
+      <c r="E128" s="125"/>
+      <c r="F128" s="126"/>
+      <c r="G128" s="126"/>
+      <c r="H128" s="126"/>
+      <c r="I128" s="126"/>
+      <c r="J128" s="127"/>
       <c r="K128" s="48"/>
       <c r="L128" s="48"/>
       <c r="M128" s="48"/>
@@ -9788,12 +10234,12 @@
     <row r="129" spans="3:31" ht="156" customHeight="1" thickBot="1">
       <c r="C129" s="48"/>
       <c r="D129" s="48"/>
-      <c r="E129" s="118"/>
-      <c r="F129" s="119"/>
-      <c r="G129" s="119"/>
-      <c r="H129" s="119"/>
-      <c r="I129" s="119"/>
-      <c r="J129" s="120"/>
+      <c r="E129" s="128"/>
+      <c r="F129" s="129"/>
+      <c r="G129" s="129"/>
+      <c r="H129" s="129"/>
+      <c r="I129" s="129"/>
+      <c r="J129" s="130"/>
       <c r="K129" s="48"/>
       <c r="L129" s="48"/>
       <c r="M129" s="48"/>
@@ -9902,19 +10348,19 @@
       <c r="AE137" s="8"/>
     </row>
     <row r="138" spans="3:31" ht="17.25">
-      <c r="C138" s="94" t="s">
+      <c r="C138" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="D138" s="95"/>
-      <c r="E138" s="95"/>
-      <c r="F138" s="95"/>
-      <c r="G138" s="95"/>
-      <c r="H138" s="95"/>
-      <c r="I138" s="95"/>
-      <c r="J138" s="95"/>
-      <c r="K138" s="95"/>
-      <c r="L138" s="95"/>
-      <c r="M138" s="96"/>
+      <c r="D138" s="132"/>
+      <c r="E138" s="132"/>
+      <c r="F138" s="132"/>
+      <c r="G138" s="132"/>
+      <c r="H138" s="132"/>
+      <c r="I138" s="132"/>
+      <c r="J138" s="132"/>
+      <c r="K138" s="132"/>
+      <c r="L138" s="132"/>
+      <c r="M138" s="133"/>
       <c r="N138" s="8"/>
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
@@ -9935,17 +10381,17 @@
       <c r="AE138" s="8"/>
     </row>
     <row r="139" spans="3:31" ht="17.25">
-      <c r="C139" s="97"/>
-      <c r="D139" s="98"/>
-      <c r="E139" s="98"/>
-      <c r="F139" s="98"/>
-      <c r="G139" s="98"/>
-      <c r="H139" s="98"/>
-      <c r="I139" s="98"/>
-      <c r="J139" s="98"/>
-      <c r="K139" s="98"/>
-      <c r="L139" s="98"/>
-      <c r="M139" s="99"/>
+      <c r="C139" s="134"/>
+      <c r="D139" s="135"/>
+      <c r="E139" s="135"/>
+      <c r="F139" s="135"/>
+      <c r="G139" s="135"/>
+      <c r="H139" s="135"/>
+      <c r="I139" s="135"/>
+      <c r="J139" s="135"/>
+      <c r="K139" s="135"/>
+      <c r="L139" s="135"/>
+      <c r="M139" s="136"/>
       <c r="N139" s="8"/>
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
@@ -9966,17 +10412,17 @@
       <c r="AE139" s="8"/>
     </row>
     <row r="140" spans="3:31" ht="17.25">
-      <c r="C140" s="97"/>
-      <c r="D140" s="98"/>
-      <c r="E140" s="98"/>
-      <c r="F140" s="98"/>
-      <c r="G140" s="98"/>
-      <c r="H140" s="98"/>
-      <c r="I140" s="98"/>
-      <c r="J140" s="98"/>
-      <c r="K140" s="98"/>
-      <c r="L140" s="98"/>
-      <c r="M140" s="99"/>
+      <c r="C140" s="134"/>
+      <c r="D140" s="135"/>
+      <c r="E140" s="135"/>
+      <c r="F140" s="135"/>
+      <c r="G140" s="135"/>
+      <c r="H140" s="135"/>
+      <c r="I140" s="135"/>
+      <c r="J140" s="135"/>
+      <c r="K140" s="135"/>
+      <c r="L140" s="135"/>
+      <c r="M140" s="136"/>
       <c r="N140" s="8"/>
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
@@ -9997,17 +10443,17 @@
       <c r="AE140" s="8"/>
     </row>
     <row r="141" spans="3:31" ht="17.25">
-      <c r="C141" s="97"/>
-      <c r="D141" s="98"/>
-      <c r="E141" s="98"/>
-      <c r="F141" s="98"/>
-      <c r="G141" s="98"/>
-      <c r="H141" s="98"/>
-      <c r="I141" s="98"/>
-      <c r="J141" s="98"/>
-      <c r="K141" s="98"/>
-      <c r="L141" s="98"/>
-      <c r="M141" s="99"/>
+      <c r="C141" s="134"/>
+      <c r="D141" s="135"/>
+      <c r="E141" s="135"/>
+      <c r="F141" s="135"/>
+      <c r="G141" s="135"/>
+      <c r="H141" s="135"/>
+      <c r="I141" s="135"/>
+      <c r="J141" s="135"/>
+      <c r="K141" s="135"/>
+      <c r="L141" s="135"/>
+      <c r="M141" s="136"/>
       <c r="N141" s="8"/>
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
@@ -10028,17 +10474,17 @@
       <c r="AE141" s="8"/>
     </row>
     <row r="142" spans="3:31" ht="17.25">
-      <c r="C142" s="97"/>
-      <c r="D142" s="98"/>
-      <c r="E142" s="98"/>
-      <c r="F142" s="98"/>
-      <c r="G142" s="98"/>
-      <c r="H142" s="98"/>
-      <c r="I142" s="98"/>
-      <c r="J142" s="98"/>
-      <c r="K142" s="98"/>
-      <c r="L142" s="98"/>
-      <c r="M142" s="99"/>
+      <c r="C142" s="134"/>
+      <c r="D142" s="135"/>
+      <c r="E142" s="135"/>
+      <c r="F142" s="135"/>
+      <c r="G142" s="135"/>
+      <c r="H142" s="135"/>
+      <c r="I142" s="135"/>
+      <c r="J142" s="135"/>
+      <c r="K142" s="135"/>
+      <c r="L142" s="135"/>
+      <c r="M142" s="136"/>
       <c r="N142" s="8"/>
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
@@ -10059,17 +10505,17 @@
       <c r="AE142" s="8"/>
     </row>
     <row r="143" spans="3:31" ht="17.25">
-      <c r="C143" s="97"/>
-      <c r="D143" s="98"/>
-      <c r="E143" s="98"/>
-      <c r="F143" s="98"/>
-      <c r="G143" s="98"/>
-      <c r="H143" s="98"/>
-      <c r="I143" s="98"/>
-      <c r="J143" s="98"/>
-      <c r="K143" s="98"/>
-      <c r="L143" s="98"/>
-      <c r="M143" s="99"/>
+      <c r="C143" s="134"/>
+      <c r="D143" s="135"/>
+      <c r="E143" s="135"/>
+      <c r="F143" s="135"/>
+      <c r="G143" s="135"/>
+      <c r="H143" s="135"/>
+      <c r="I143" s="135"/>
+      <c r="J143" s="135"/>
+      <c r="K143" s="135"/>
+      <c r="L143" s="135"/>
+      <c r="M143" s="136"/>
       <c r="N143" s="54"/>
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
@@ -10090,17 +10536,17 @@
       <c r="AE143" s="8"/>
     </row>
     <row r="144" spans="3:31" ht="17.25">
-      <c r="C144" s="97"/>
-      <c r="D144" s="98"/>
-      <c r="E144" s="98"/>
-      <c r="F144" s="98"/>
-      <c r="G144" s="98"/>
-      <c r="H144" s="98"/>
-      <c r="I144" s="98"/>
-      <c r="J144" s="98"/>
-      <c r="K144" s="98"/>
-      <c r="L144" s="98"/>
-      <c r="M144" s="99"/>
+      <c r="C144" s="134"/>
+      <c r="D144" s="135"/>
+      <c r="E144" s="135"/>
+      <c r="F144" s="135"/>
+      <c r="G144" s="135"/>
+      <c r="H144" s="135"/>
+      <c r="I144" s="135"/>
+      <c r="J144" s="135"/>
+      <c r="K144" s="135"/>
+      <c r="L144" s="135"/>
+      <c r="M144" s="136"/>
       <c r="N144" s="8"/>
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
@@ -10121,17 +10567,17 @@
       <c r="AE144" s="8"/>
     </row>
     <row r="145" spans="3:31" ht="17.25">
-      <c r="C145" s="97"/>
-      <c r="D145" s="98"/>
-      <c r="E145" s="98"/>
-      <c r="F145" s="98"/>
-      <c r="G145" s="98"/>
-      <c r="H145" s="98"/>
-      <c r="I145" s="98"/>
-      <c r="J145" s="98"/>
-      <c r="K145" s="98"/>
-      <c r="L145" s="98"/>
-      <c r="M145" s="99"/>
+      <c r="C145" s="134"/>
+      <c r="D145" s="135"/>
+      <c r="E145" s="135"/>
+      <c r="F145" s="135"/>
+      <c r="G145" s="135"/>
+      <c r="H145" s="135"/>
+      <c r="I145" s="135"/>
+      <c r="J145" s="135"/>
+      <c r="K145" s="135"/>
+      <c r="L145" s="135"/>
+      <c r="M145" s="136"/>
       <c r="N145" s="8"/>
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
@@ -10152,17 +10598,17 @@
       <c r="AE145" s="8"/>
     </row>
     <row r="146" spans="3:31" ht="17.25">
-      <c r="C146" s="97"/>
-      <c r="D146" s="98"/>
-      <c r="E146" s="98"/>
-      <c r="F146" s="98"/>
-      <c r="G146" s="98"/>
-      <c r="H146" s="98"/>
-      <c r="I146" s="98"/>
-      <c r="J146" s="98"/>
-      <c r="K146" s="98"/>
-      <c r="L146" s="98"/>
-      <c r="M146" s="99"/>
+      <c r="C146" s="134"/>
+      <c r="D146" s="135"/>
+      <c r="E146" s="135"/>
+      <c r="F146" s="135"/>
+      <c r="G146" s="135"/>
+      <c r="H146" s="135"/>
+      <c r="I146" s="135"/>
+      <c r="J146" s="135"/>
+      <c r="K146" s="135"/>
+      <c r="L146" s="135"/>
+      <c r="M146" s="136"/>
       <c r="N146" s="8"/>
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
@@ -10183,17 +10629,17 @@
       <c r="AE146" s="8"/>
     </row>
     <row r="147" spans="3:31" ht="18" thickBot="1">
-      <c r="C147" s="100"/>
-      <c r="D147" s="101"/>
-      <c r="E147" s="101"/>
-      <c r="F147" s="101"/>
-      <c r="G147" s="101"/>
-      <c r="H147" s="101"/>
-      <c r="I147" s="101"/>
-      <c r="J147" s="101"/>
-      <c r="K147" s="101"/>
-      <c r="L147" s="101"/>
-      <c r="M147" s="102"/>
+      <c r="C147" s="137"/>
+      <c r="D147" s="138"/>
+      <c r="E147" s="138"/>
+      <c r="F147" s="138"/>
+      <c r="G147" s="138"/>
+      <c r="H147" s="138"/>
+      <c r="I147" s="138"/>
+      <c r="J147" s="138"/>
+      <c r="K147" s="138"/>
+      <c r="L147" s="138"/>
+      <c r="M147" s="139"/>
       <c r="N147" s="8"/>
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
@@ -10433,19 +10879,19 @@
       <c r="AE154" s="8"/>
     </row>
     <row r="155" spans="3:31" ht="17.25">
-      <c r="C155" s="94" t="s">
+      <c r="C155" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="D155" s="95"/>
-      <c r="E155" s="95"/>
-      <c r="F155" s="95"/>
-      <c r="G155" s="95"/>
-      <c r="H155" s="95"/>
-      <c r="I155" s="95"/>
-      <c r="J155" s="95"/>
-      <c r="K155" s="95"/>
-      <c r="L155" s="95"/>
-      <c r="M155" s="96"/>
+      <c r="D155" s="132"/>
+      <c r="E155" s="132"/>
+      <c r="F155" s="132"/>
+      <c r="G155" s="132"/>
+      <c r="H155" s="132"/>
+      <c r="I155" s="132"/>
+      <c r="J155" s="132"/>
+      <c r="K155" s="132"/>
+      <c r="L155" s="132"/>
+      <c r="M155" s="133"/>
       <c r="N155" s="8"/>
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
@@ -10466,122 +10912,122 @@
       <c r="AE155" s="8"/>
     </row>
     <row r="156" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C156" s="97"/>
-      <c r="D156" s="98"/>
-      <c r="E156" s="98"/>
-      <c r="F156" s="98"/>
-      <c r="G156" s="98"/>
-      <c r="H156" s="98"/>
-      <c r="I156" s="98"/>
-      <c r="J156" s="98"/>
-      <c r="K156" s="98"/>
-      <c r="L156" s="98"/>
-      <c r="M156" s="99"/>
+      <c r="C156" s="134"/>
+      <c r="D156" s="135"/>
+      <c r="E156" s="135"/>
+      <c r="F156" s="135"/>
+      <c r="G156" s="135"/>
+      <c r="H156" s="135"/>
+      <c r="I156" s="135"/>
+      <c r="J156" s="135"/>
+      <c r="K156" s="135"/>
+      <c r="L156" s="135"/>
+      <c r="M156" s="136"/>
     </row>
     <row r="157" spans="3:31" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="C157" s="97"/>
-      <c r="D157" s="98"/>
-      <c r="E157" s="98"/>
-      <c r="F157" s="98"/>
-      <c r="G157" s="98"/>
-      <c r="H157" s="98"/>
-      <c r="I157" s="98"/>
-      <c r="J157" s="98"/>
-      <c r="K157" s="98"/>
-      <c r="L157" s="98"/>
-      <c r="M157" s="99"/>
+      <c r="C157" s="134"/>
+      <c r="D157" s="135"/>
+      <c r="E157" s="135"/>
+      <c r="F157" s="135"/>
+      <c r="G157" s="135"/>
+      <c r="H157" s="135"/>
+      <c r="I157" s="135"/>
+      <c r="J157" s="135"/>
+      <c r="K157" s="135"/>
+      <c r="L157" s="135"/>
+      <c r="M157" s="136"/>
     </row>
     <row r="158" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C158" s="97"/>
-      <c r="D158" s="98"/>
-      <c r="E158" s="98"/>
-      <c r="F158" s="98"/>
-      <c r="G158" s="98"/>
-      <c r="H158" s="98"/>
-      <c r="I158" s="98"/>
-      <c r="J158" s="98"/>
-      <c r="K158" s="98"/>
-      <c r="L158" s="98"/>
-      <c r="M158" s="99"/>
+      <c r="C158" s="134"/>
+      <c r="D158" s="135"/>
+      <c r="E158" s="135"/>
+      <c r="F158" s="135"/>
+      <c r="G158" s="135"/>
+      <c r="H158" s="135"/>
+      <c r="I158" s="135"/>
+      <c r="J158" s="135"/>
+      <c r="K158" s="135"/>
+      <c r="L158" s="135"/>
+      <c r="M158" s="136"/>
     </row>
     <row r="159" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C159" s="97"/>
-      <c r="D159" s="98"/>
-      <c r="E159" s="98"/>
-      <c r="F159" s="98"/>
-      <c r="G159" s="98"/>
-      <c r="H159" s="98"/>
-      <c r="I159" s="98"/>
-      <c r="J159" s="98"/>
-      <c r="K159" s="98"/>
-      <c r="L159" s="98"/>
-      <c r="M159" s="99"/>
+      <c r="C159" s="134"/>
+      <c r="D159" s="135"/>
+      <c r="E159" s="135"/>
+      <c r="F159" s="135"/>
+      <c r="G159" s="135"/>
+      <c r="H159" s="135"/>
+      <c r="I159" s="135"/>
+      <c r="J159" s="135"/>
+      <c r="K159" s="135"/>
+      <c r="L159" s="135"/>
+      <c r="M159" s="136"/>
       <c r="N159" s="54"/>
     </row>
     <row r="160" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C160" s="97"/>
-      <c r="D160" s="98"/>
-      <c r="E160" s="98"/>
-      <c r="F160" s="98"/>
-      <c r="G160" s="98"/>
-      <c r="H160" s="98"/>
-      <c r="I160" s="98"/>
-      <c r="J160" s="98"/>
-      <c r="K160" s="98"/>
-      <c r="L160" s="98"/>
-      <c r="M160" s="99"/>
+      <c r="C160" s="134"/>
+      <c r="D160" s="135"/>
+      <c r="E160" s="135"/>
+      <c r="F160" s="135"/>
+      <c r="G160" s="135"/>
+      <c r="H160" s="135"/>
+      <c r="I160" s="135"/>
+      <c r="J160" s="135"/>
+      <c r="K160" s="135"/>
+      <c r="L160" s="135"/>
+      <c r="M160" s="136"/>
     </row>
     <row r="161" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C161" s="97"/>
-      <c r="D161" s="98"/>
-      <c r="E161" s="98"/>
-      <c r="F161" s="98"/>
-      <c r="G161" s="98"/>
-      <c r="H161" s="98"/>
-      <c r="I161" s="98"/>
-      <c r="J161" s="98"/>
-      <c r="K161" s="98"/>
-      <c r="L161" s="98"/>
-      <c r="M161" s="99"/>
+      <c r="C161" s="134"/>
+      <c r="D161" s="135"/>
+      <c r="E161" s="135"/>
+      <c r="F161" s="135"/>
+      <c r="G161" s="135"/>
+      <c r="H161" s="135"/>
+      <c r="I161" s="135"/>
+      <c r="J161" s="135"/>
+      <c r="K161" s="135"/>
+      <c r="L161" s="135"/>
+      <c r="M161" s="136"/>
     </row>
     <row r="162" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C162" s="97"/>
-      <c r="D162" s="98"/>
-      <c r="E162" s="98"/>
-      <c r="F162" s="98"/>
-      <c r="G162" s="98"/>
-      <c r="H162" s="98"/>
-      <c r="I162" s="98"/>
-      <c r="J162" s="98"/>
-      <c r="K162" s="98"/>
-      <c r="L162" s="98"/>
-      <c r="M162" s="99"/>
+      <c r="C162" s="134"/>
+      <c r="D162" s="135"/>
+      <c r="E162" s="135"/>
+      <c r="F162" s="135"/>
+      <c r="G162" s="135"/>
+      <c r="H162" s="135"/>
+      <c r="I162" s="135"/>
+      <c r="J162" s="135"/>
+      <c r="K162" s="135"/>
+      <c r="L162" s="135"/>
+      <c r="M162" s="136"/>
     </row>
     <row r="163" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="C163" s="97"/>
-      <c r="D163" s="98"/>
-      <c r="E163" s="98"/>
-      <c r="F163" s="98"/>
-      <c r="G163" s="98"/>
-      <c r="H163" s="98"/>
-      <c r="I163" s="98"/>
-      <c r="J163" s="98"/>
-      <c r="K163" s="98"/>
-      <c r="L163" s="98"/>
-      <c r="M163" s="99"/>
+      <c r="C163" s="134"/>
+      <c r="D163" s="135"/>
+      <c r="E163" s="135"/>
+      <c r="F163" s="135"/>
+      <c r="G163" s="135"/>
+      <c r="H163" s="135"/>
+      <c r="I163" s="135"/>
+      <c r="J163" s="135"/>
+      <c r="K163" s="135"/>
+      <c r="L163" s="135"/>
+      <c r="M163" s="136"/>
     </row>
     <row r="164" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="C164" s="100"/>
-      <c r="D164" s="101"/>
-      <c r="E164" s="101"/>
-      <c r="F164" s="101"/>
-      <c r="G164" s="101"/>
-      <c r="H164" s="101"/>
-      <c r="I164" s="101"/>
-      <c r="J164" s="101"/>
-      <c r="K164" s="101"/>
-      <c r="L164" s="101"/>
-      <c r="M164" s="102"/>
+      <c r="C164" s="137"/>
+      <c r="D164" s="138"/>
+      <c r="E164" s="138"/>
+      <c r="F164" s="138"/>
+      <c r="G164" s="138"/>
+      <c r="H164" s="138"/>
+      <c r="I164" s="138"/>
+      <c r="J164" s="138"/>
+      <c r="K164" s="138"/>
+      <c r="L164" s="138"/>
+      <c r="M164" s="139"/>
     </row>
     <row r="165" spans="3:31" s="8" customFormat="1" ht="17.25"/>
     <row r="166" spans="3:31" s="8" customFormat="1" ht="69.75" customHeight="1" thickBot="1"/>
@@ -10987,86 +11433,86 @@
     </row>
     <row r="182" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1"/>
     <row r="183" spans="3:31" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="D183" s="94" t="s">
+      <c r="D183" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="E183" s="95"/>
-      <c r="F183" s="95"/>
-      <c r="G183" s="95"/>
-      <c r="H183" s="95"/>
-      <c r="I183" s="95"/>
-      <c r="J183" s="95"/>
-      <c r="K183" s="95"/>
-      <c r="L183" s="96"/>
+      <c r="E183" s="132"/>
+      <c r="F183" s="132"/>
+      <c r="G183" s="132"/>
+      <c r="H183" s="132"/>
+      <c r="I183" s="132"/>
+      <c r="J183" s="132"/>
+      <c r="K183" s="132"/>
+      <c r="L183" s="133"/>
     </row>
     <row r="184" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D184" s="97"/>
-      <c r="E184" s="98"/>
-      <c r="F184" s="98"/>
-      <c r="G184" s="98"/>
-      <c r="H184" s="98"/>
-      <c r="I184" s="98"/>
-      <c r="J184" s="98"/>
-      <c r="K184" s="98"/>
-      <c r="L184" s="99"/>
+      <c r="D184" s="134"/>
+      <c r="E184" s="135"/>
+      <c r="F184" s="135"/>
+      <c r="G184" s="135"/>
+      <c r="H184" s="135"/>
+      <c r="I184" s="135"/>
+      <c r="J184" s="135"/>
+      <c r="K184" s="135"/>
+      <c r="L184" s="136"/>
     </row>
     <row r="185" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D185" s="97"/>
-      <c r="E185" s="98"/>
-      <c r="F185" s="98"/>
-      <c r="G185" s="98"/>
-      <c r="H185" s="98"/>
-      <c r="I185" s="98"/>
-      <c r="J185" s="98"/>
-      <c r="K185" s="98"/>
-      <c r="L185" s="99"/>
+      <c r="D185" s="134"/>
+      <c r="E185" s="135"/>
+      <c r="F185" s="135"/>
+      <c r="G185" s="135"/>
+      <c r="H185" s="135"/>
+      <c r="I185" s="135"/>
+      <c r="J185" s="135"/>
+      <c r="K185" s="135"/>
+      <c r="L185" s="136"/>
     </row>
     <row r="186" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D186" s="97"/>
-      <c r="E186" s="98"/>
-      <c r="F186" s="98"/>
-      <c r="G186" s="98"/>
-      <c r="H186" s="98"/>
-      <c r="I186" s="98"/>
-      <c r="J186" s="98"/>
-      <c r="K186" s="98"/>
-      <c r="L186" s="99"/>
+      <c r="D186" s="134"/>
+      <c r="E186" s="135"/>
+      <c r="F186" s="135"/>
+      <c r="G186" s="135"/>
+      <c r="H186" s="135"/>
+      <c r="I186" s="135"/>
+      <c r="J186" s="135"/>
+      <c r="K186" s="135"/>
+      <c r="L186" s="136"/>
       <c r="M186" s="33"/>
       <c r="N186" s="17"/>
       <c r="O186" s="17"/>
     </row>
     <row r="187" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D187" s="97"/>
-      <c r="E187" s="98"/>
-      <c r="F187" s="98"/>
-      <c r="G187" s="98"/>
-      <c r="H187" s="98"/>
-      <c r="I187" s="98"/>
-      <c r="J187" s="98"/>
-      <c r="K187" s="98"/>
-      <c r="L187" s="99"/>
+      <c r="D187" s="134"/>
+      <c r="E187" s="135"/>
+      <c r="F187" s="135"/>
+      <c r="G187" s="135"/>
+      <c r="H187" s="135"/>
+      <c r="I187" s="135"/>
+      <c r="J187" s="135"/>
+      <c r="K187" s="135"/>
+      <c r="L187" s="136"/>
     </row>
     <row r="188" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D188" s="97"/>
-      <c r="E188" s="98"/>
-      <c r="F188" s="98"/>
-      <c r="G188" s="98"/>
-      <c r="H188" s="98"/>
-      <c r="I188" s="98"/>
-      <c r="J188" s="98"/>
-      <c r="K188" s="98"/>
-      <c r="L188" s="99"/>
+      <c r="D188" s="134"/>
+      <c r="E188" s="135"/>
+      <c r="F188" s="135"/>
+      <c r="G188" s="135"/>
+      <c r="H188" s="135"/>
+      <c r="I188" s="135"/>
+      <c r="J188" s="135"/>
+      <c r="K188" s="135"/>
+      <c r="L188" s="136"/>
     </row>
     <row r="189" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="D189" s="100"/>
-      <c r="E189" s="101"/>
-      <c r="F189" s="101"/>
-      <c r="G189" s="101"/>
-      <c r="H189" s="101"/>
-      <c r="I189" s="101"/>
-      <c r="J189" s="101"/>
-      <c r="K189" s="101"/>
-      <c r="L189" s="102"/>
+      <c r="D189" s="137"/>
+      <c r="E189" s="138"/>
+      <c r="F189" s="138"/>
+      <c r="G189" s="138"/>
+      <c r="H189" s="138"/>
+      <c r="I189" s="138"/>
+      <c r="J189" s="138"/>
+      <c r="K189" s="138"/>
+      <c r="L189" s="139"/>
     </row>
     <row r="190" spans="3:31" s="8" customFormat="1" ht="17.25"/>
     <row r="191" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
@@ -11075,141 +11521,141 @@
       </c>
     </row>
     <row r="192" spans="3:31" s="8" customFormat="1" ht="17.25">
-      <c r="D192" s="133" t="s">
+      <c r="D192" s="104" t="s">
         <v>121</v>
       </c>
-      <c r="E192" s="134"/>
-      <c r="F192" s="134"/>
-      <c r="G192" s="134"/>
-      <c r="H192" s="134"/>
-      <c r="I192" s="134"/>
-      <c r="J192" s="134"/>
-      <c r="K192" s="134"/>
-      <c r="L192" s="135"/>
+      <c r="E192" s="105"/>
+      <c r="F192" s="105"/>
+      <c r="G192" s="105"/>
+      <c r="H192" s="105"/>
+      <c r="I192" s="105"/>
+      <c r="J192" s="105"/>
+      <c r="K192" s="105"/>
+      <c r="L192" s="106"/>
     </row>
     <row r="193" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D193" s="136"/>
-      <c r="E193" s="137"/>
-      <c r="F193" s="137"/>
-      <c r="G193" s="137"/>
-      <c r="H193" s="137"/>
-      <c r="I193" s="137"/>
-      <c r="J193" s="137"/>
-      <c r="K193" s="137"/>
-      <c r="L193" s="138"/>
+      <c r="D193" s="107"/>
+      <c r="E193" s="108"/>
+      <c r="F193" s="108"/>
+      <c r="G193" s="108"/>
+      <c r="H193" s="108"/>
+      <c r="I193" s="108"/>
+      <c r="J193" s="108"/>
+      <c r="K193" s="108"/>
+      <c r="L193" s="109"/>
     </row>
     <row r="194" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D194" s="136"/>
-      <c r="E194" s="137"/>
-      <c r="F194" s="137"/>
-      <c r="G194" s="137"/>
-      <c r="H194" s="137"/>
-      <c r="I194" s="137"/>
-      <c r="J194" s="137"/>
-      <c r="K194" s="137"/>
-      <c r="L194" s="138"/>
+      <c r="D194" s="107"/>
+      <c r="E194" s="108"/>
+      <c r="F194" s="108"/>
+      <c r="G194" s="108"/>
+      <c r="H194" s="108"/>
+      <c r="I194" s="108"/>
+      <c r="J194" s="108"/>
+      <c r="K194" s="108"/>
+      <c r="L194" s="109"/>
     </row>
     <row r="195" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D195" s="136"/>
-      <c r="E195" s="137"/>
-      <c r="F195" s="137"/>
-      <c r="G195" s="137"/>
-      <c r="H195" s="137"/>
-      <c r="I195" s="137"/>
-      <c r="J195" s="137"/>
-      <c r="K195" s="137"/>
-      <c r="L195" s="138"/>
+      <c r="D195" s="107"/>
+      <c r="E195" s="108"/>
+      <c r="F195" s="108"/>
+      <c r="G195" s="108"/>
+      <c r="H195" s="108"/>
+      <c r="I195" s="108"/>
+      <c r="J195" s="108"/>
+      <c r="K195" s="108"/>
+      <c r="L195" s="109"/>
     </row>
     <row r="196" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D196" s="136"/>
-      <c r="E196" s="137"/>
-      <c r="F196" s="137"/>
-      <c r="G196" s="137"/>
-      <c r="H196" s="137"/>
-      <c r="I196" s="137"/>
-      <c r="J196" s="137"/>
-      <c r="K196" s="137"/>
-      <c r="L196" s="138"/>
+      <c r="D196" s="107"/>
+      <c r="E196" s="108"/>
+      <c r="F196" s="108"/>
+      <c r="G196" s="108"/>
+      <c r="H196" s="108"/>
+      <c r="I196" s="108"/>
+      <c r="J196" s="108"/>
+      <c r="K196" s="108"/>
+      <c r="L196" s="109"/>
     </row>
     <row r="197" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D197" s="136"/>
-      <c r="E197" s="137"/>
-      <c r="F197" s="137"/>
-      <c r="G197" s="137"/>
-      <c r="H197" s="137"/>
-      <c r="I197" s="137"/>
-      <c r="J197" s="137"/>
-      <c r="K197" s="137"/>
-      <c r="L197" s="138"/>
+      <c r="D197" s="107"/>
+      <c r="E197" s="108"/>
+      <c r="F197" s="108"/>
+      <c r="G197" s="108"/>
+      <c r="H197" s="108"/>
+      <c r="I197" s="108"/>
+      <c r="J197" s="108"/>
+      <c r="K197" s="108"/>
+      <c r="L197" s="109"/>
     </row>
     <row r="198" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D198" s="136"/>
-      <c r="E198" s="137"/>
-      <c r="F198" s="137"/>
-      <c r="G198" s="137"/>
-      <c r="H198" s="137"/>
-      <c r="I198" s="137"/>
-      <c r="J198" s="137"/>
-      <c r="K198" s="137"/>
-      <c r="L198" s="138"/>
+      <c r="D198" s="107"/>
+      <c r="E198" s="108"/>
+      <c r="F198" s="108"/>
+      <c r="G198" s="108"/>
+      <c r="H198" s="108"/>
+      <c r="I198" s="108"/>
+      <c r="J198" s="108"/>
+      <c r="K198" s="108"/>
+      <c r="L198" s="109"/>
       <c r="M198" s="33"/>
       <c r="N198" s="17"/>
       <c r="O198" s="17"/>
     </row>
     <row r="199" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D199" s="136"/>
-      <c r="E199" s="137"/>
-      <c r="F199" s="137"/>
-      <c r="G199" s="137"/>
-      <c r="H199" s="137"/>
-      <c r="I199" s="137"/>
-      <c r="J199" s="137"/>
-      <c r="K199" s="137"/>
-      <c r="L199" s="138"/>
+      <c r="D199" s="107"/>
+      <c r="E199" s="108"/>
+      <c r="F199" s="108"/>
+      <c r="G199" s="108"/>
+      <c r="H199" s="108"/>
+      <c r="I199" s="108"/>
+      <c r="J199" s="108"/>
+      <c r="K199" s="108"/>
+      <c r="L199" s="109"/>
     </row>
     <row r="200" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D200" s="136"/>
-      <c r="E200" s="137"/>
-      <c r="F200" s="137"/>
-      <c r="G200" s="137"/>
-      <c r="H200" s="137"/>
-      <c r="I200" s="137"/>
-      <c r="J200" s="137"/>
-      <c r="K200" s="137"/>
-      <c r="L200" s="138"/>
+      <c r="D200" s="107"/>
+      <c r="E200" s="108"/>
+      <c r="F200" s="108"/>
+      <c r="G200" s="108"/>
+      <c r="H200" s="108"/>
+      <c r="I200" s="108"/>
+      <c r="J200" s="108"/>
+      <c r="K200" s="108"/>
+      <c r="L200" s="109"/>
     </row>
     <row r="201" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D201" s="136"/>
-      <c r="E201" s="137"/>
-      <c r="F201" s="137"/>
-      <c r="G201" s="137"/>
-      <c r="H201" s="137"/>
-      <c r="I201" s="137"/>
-      <c r="J201" s="137"/>
-      <c r="K201" s="137"/>
-      <c r="L201" s="138"/>
+      <c r="D201" s="107"/>
+      <c r="E201" s="108"/>
+      <c r="F201" s="108"/>
+      <c r="G201" s="108"/>
+      <c r="H201" s="108"/>
+      <c r="I201" s="108"/>
+      <c r="J201" s="108"/>
+      <c r="K201" s="108"/>
+      <c r="L201" s="109"/>
     </row>
     <row r="202" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D202" s="136"/>
-      <c r="E202" s="137"/>
-      <c r="F202" s="137"/>
-      <c r="G202" s="137"/>
-      <c r="H202" s="137"/>
-      <c r="I202" s="137"/>
-      <c r="J202" s="137"/>
-      <c r="K202" s="137"/>
-      <c r="L202" s="138"/>
+      <c r="D202" s="107"/>
+      <c r="E202" s="108"/>
+      <c r="F202" s="108"/>
+      <c r="G202" s="108"/>
+      <c r="H202" s="108"/>
+      <c r="I202" s="108"/>
+      <c r="J202" s="108"/>
+      <c r="K202" s="108"/>
+      <c r="L202" s="109"/>
     </row>
     <row r="203" spans="4:15" s="8" customFormat="1" ht="48.75" customHeight="1" thickBot="1">
-      <c r="D203" s="139"/>
-      <c r="E203" s="140"/>
-      <c r="F203" s="140"/>
-      <c r="G203" s="140"/>
-      <c r="H203" s="140"/>
-      <c r="I203" s="140"/>
-      <c r="J203" s="140"/>
-      <c r="K203" s="140"/>
-      <c r="L203" s="141"/>
+      <c r="D203" s="110"/>
+      <c r="E203" s="111"/>
+      <c r="F203" s="111"/>
+      <c r="G203" s="111"/>
+      <c r="H203" s="111"/>
+      <c r="I203" s="111"/>
+      <c r="J203" s="111"/>
+      <c r="K203" s="111"/>
+      <c r="L203" s="112"/>
     </row>
     <row r="204" spans="4:15" s="8" customFormat="1" ht="17.25"/>
     <row r="205" spans="4:15" s="8" customFormat="1" ht="18" thickBot="1">
@@ -11218,97 +11664,97 @@
       </c>
     </row>
     <row r="206" spans="4:15" s="8" customFormat="1" ht="28.5" customHeight="1">
-      <c r="D206" s="133" t="s">
+      <c r="D206" s="104" t="s">
         <v>124</v>
       </c>
-      <c r="E206" s="134"/>
-      <c r="F206" s="134"/>
-      <c r="G206" s="134"/>
-      <c r="H206" s="134"/>
-      <c r="I206" s="134"/>
-      <c r="J206" s="134"/>
-      <c r="K206" s="134"/>
-      <c r="L206" s="135"/>
+      <c r="E206" s="105"/>
+      <c r="F206" s="105"/>
+      <c r="G206" s="105"/>
+      <c r="H206" s="105"/>
+      <c r="I206" s="105"/>
+      <c r="J206" s="105"/>
+      <c r="K206" s="105"/>
+      <c r="L206" s="106"/>
     </row>
     <row r="207" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D207" s="136"/>
-      <c r="E207" s="137"/>
-      <c r="F207" s="137"/>
-      <c r="G207" s="137"/>
-      <c r="H207" s="137"/>
-      <c r="I207" s="137"/>
-      <c r="J207" s="137"/>
-      <c r="K207" s="137"/>
-      <c r="L207" s="138"/>
+      <c r="D207" s="107"/>
+      <c r="E207" s="108"/>
+      <c r="F207" s="108"/>
+      <c r="G207" s="108"/>
+      <c r="H207" s="108"/>
+      <c r="I207" s="108"/>
+      <c r="J207" s="108"/>
+      <c r="K207" s="108"/>
+      <c r="L207" s="109"/>
     </row>
     <row r="208" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D208" s="136"/>
-      <c r="E208" s="137"/>
-      <c r="F208" s="137"/>
-      <c r="G208" s="137"/>
-      <c r="H208" s="137"/>
-      <c r="I208" s="137"/>
-      <c r="J208" s="137"/>
-      <c r="K208" s="137"/>
-      <c r="L208" s="138"/>
+      <c r="D208" s="107"/>
+      <c r="E208" s="108"/>
+      <c r="F208" s="108"/>
+      <c r="G208" s="108"/>
+      <c r="H208" s="108"/>
+      <c r="I208" s="108"/>
+      <c r="J208" s="108"/>
+      <c r="K208" s="108"/>
+      <c r="L208" s="109"/>
     </row>
     <row r="209" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D209" s="136"/>
-      <c r="E209" s="137"/>
-      <c r="F209" s="137"/>
-      <c r="G209" s="137"/>
-      <c r="H209" s="137"/>
-      <c r="I209" s="137"/>
-      <c r="J209" s="137"/>
-      <c r="K209" s="137"/>
-      <c r="L209" s="138"/>
+      <c r="D209" s="107"/>
+      <c r="E209" s="108"/>
+      <c r="F209" s="108"/>
+      <c r="G209" s="108"/>
+      <c r="H209" s="108"/>
+      <c r="I209" s="108"/>
+      <c r="J209" s="108"/>
+      <c r="K209" s="108"/>
+      <c r="L209" s="109"/>
       <c r="M209" s="33"/>
       <c r="N209" s="17"/>
       <c r="O209" s="17"/>
     </row>
     <row r="210" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D210" s="136"/>
-      <c r="E210" s="137"/>
-      <c r="F210" s="137"/>
-      <c r="G210" s="137"/>
-      <c r="H210" s="137"/>
-      <c r="I210" s="137"/>
-      <c r="J210" s="137"/>
-      <c r="K210" s="137"/>
-      <c r="L210" s="138"/>
+      <c r="D210" s="107"/>
+      <c r="E210" s="108"/>
+      <c r="F210" s="108"/>
+      <c r="G210" s="108"/>
+      <c r="H210" s="108"/>
+      <c r="I210" s="108"/>
+      <c r="J210" s="108"/>
+      <c r="K210" s="108"/>
+      <c r="L210" s="109"/>
     </row>
     <row r="211" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D211" s="136"/>
-      <c r="E211" s="137"/>
-      <c r="F211" s="137"/>
-      <c r="G211" s="137"/>
-      <c r="H211" s="137"/>
-      <c r="I211" s="137"/>
-      <c r="J211" s="137"/>
-      <c r="K211" s="137"/>
-      <c r="L211" s="138"/>
+      <c r="D211" s="107"/>
+      <c r="E211" s="108"/>
+      <c r="F211" s="108"/>
+      <c r="G211" s="108"/>
+      <c r="H211" s="108"/>
+      <c r="I211" s="108"/>
+      <c r="J211" s="108"/>
+      <c r="K211" s="108"/>
+      <c r="L211" s="109"/>
     </row>
     <row r="212" spans="4:15" s="8" customFormat="1" ht="17.25">
-      <c r="D212" s="136"/>
-      <c r="E212" s="137"/>
-      <c r="F212" s="137"/>
-      <c r="G212" s="137"/>
-      <c r="H212" s="137"/>
-      <c r="I212" s="137"/>
-      <c r="J212" s="137"/>
-      <c r="K212" s="137"/>
-      <c r="L212" s="138"/>
+      <c r="D212" s="107"/>
+      <c r="E212" s="108"/>
+      <c r="F212" s="108"/>
+      <c r="G212" s="108"/>
+      <c r="H212" s="108"/>
+      <c r="I212" s="108"/>
+      <c r="J212" s="108"/>
+      <c r="K212" s="108"/>
+      <c r="L212" s="109"/>
     </row>
     <row r="213" spans="4:15" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="D213" s="139"/>
-      <c r="E213" s="140"/>
-      <c r="F213" s="140"/>
-      <c r="G213" s="140"/>
-      <c r="H213" s="140"/>
-      <c r="I213" s="140"/>
-      <c r="J213" s="140"/>
-      <c r="K213" s="140"/>
-      <c r="L213" s="141"/>
+      <c r="D213" s="110"/>
+      <c r="E213" s="111"/>
+      <c r="F213" s="111"/>
+      <c r="G213" s="111"/>
+      <c r="H213" s="111"/>
+      <c r="I213" s="111"/>
+      <c r="J213" s="111"/>
+      <c r="K213" s="111"/>
+      <c r="L213" s="112"/>
     </row>
     <row r="214" spans="4:15" s="8" customFormat="1" ht="17.25"/>
     <row r="215" spans="4:15" s="8" customFormat="1" ht="18" thickBot="1">
@@ -11317,141 +11763,141 @@
       </c>
     </row>
     <row r="216" spans="4:15" ht="15" customHeight="1">
-      <c r="D216" s="124" t="s">
+      <c r="D216" s="143" t="s">
         <v>126</v>
       </c>
-      <c r="E216" s="125"/>
-      <c r="F216" s="125"/>
-      <c r="G216" s="125"/>
-      <c r="H216" s="125"/>
-      <c r="I216" s="125"/>
-      <c r="J216" s="125"/>
-      <c r="K216" s="125"/>
-      <c r="L216" s="126"/>
+      <c r="E216" s="144"/>
+      <c r="F216" s="144"/>
+      <c r="G216" s="144"/>
+      <c r="H216" s="144"/>
+      <c r="I216" s="144"/>
+      <c r="J216" s="144"/>
+      <c r="K216" s="144"/>
+      <c r="L216" s="145"/>
     </row>
     <row r="217" spans="4:15" ht="15" customHeight="1">
-      <c r="D217" s="127"/>
-      <c r="E217" s="128"/>
-      <c r="F217" s="128"/>
-      <c r="G217" s="128"/>
-      <c r="H217" s="128"/>
-      <c r="I217" s="128"/>
-      <c r="J217" s="128"/>
-      <c r="K217" s="128"/>
-      <c r="L217" s="129"/>
+      <c r="D217" s="146"/>
+      <c r="E217" s="147"/>
+      <c r="F217" s="147"/>
+      <c r="G217" s="147"/>
+      <c r="H217" s="147"/>
+      <c r="I217" s="147"/>
+      <c r="J217" s="147"/>
+      <c r="K217" s="147"/>
+      <c r="L217" s="148"/>
     </row>
     <row r="218" spans="4:15" ht="15" customHeight="1">
-      <c r="D218" s="127"/>
-      <c r="E218" s="128"/>
-      <c r="F218" s="128"/>
-      <c r="G218" s="128"/>
-      <c r="H218" s="128"/>
-      <c r="I218" s="128"/>
-      <c r="J218" s="128"/>
-      <c r="K218" s="128"/>
-      <c r="L218" s="129"/>
+      <c r="D218" s="146"/>
+      <c r="E218" s="147"/>
+      <c r="F218" s="147"/>
+      <c r="G218" s="147"/>
+      <c r="H218" s="147"/>
+      <c r="I218" s="147"/>
+      <c r="J218" s="147"/>
+      <c r="K218" s="147"/>
+      <c r="L218" s="148"/>
     </row>
     <row r="219" spans="4:15" ht="15" customHeight="1">
-      <c r="D219" s="127"/>
-      <c r="E219" s="128"/>
-      <c r="F219" s="128"/>
-      <c r="G219" s="128"/>
-      <c r="H219" s="128"/>
-      <c r="I219" s="128"/>
-      <c r="J219" s="128"/>
-      <c r="K219" s="128"/>
-      <c r="L219" s="129"/>
+      <c r="D219" s="146"/>
+      <c r="E219" s="147"/>
+      <c r="F219" s="147"/>
+      <c r="G219" s="147"/>
+      <c r="H219" s="147"/>
+      <c r="I219" s="147"/>
+      <c r="J219" s="147"/>
+      <c r="K219" s="147"/>
+      <c r="L219" s="148"/>
     </row>
     <row r="220" spans="4:15" ht="15" customHeight="1">
-      <c r="D220" s="127"/>
-      <c r="E220" s="128"/>
-      <c r="F220" s="128"/>
-      <c r="G220" s="128"/>
-      <c r="H220" s="128"/>
-      <c r="I220" s="128"/>
-      <c r="J220" s="128"/>
-      <c r="K220" s="128"/>
-      <c r="L220" s="129"/>
+      <c r="D220" s="146"/>
+      <c r="E220" s="147"/>
+      <c r="F220" s="147"/>
+      <c r="G220" s="147"/>
+      <c r="H220" s="147"/>
+      <c r="I220" s="147"/>
+      <c r="J220" s="147"/>
+      <c r="K220" s="147"/>
+      <c r="L220" s="148"/>
     </row>
     <row r="221" spans="4:15" ht="15" customHeight="1">
-      <c r="D221" s="127"/>
-      <c r="E221" s="128"/>
-      <c r="F221" s="128"/>
-      <c r="G221" s="128"/>
-      <c r="H221" s="128"/>
-      <c r="I221" s="128"/>
-      <c r="J221" s="128"/>
-      <c r="K221" s="128"/>
-      <c r="L221" s="129"/>
+      <c r="D221" s="146"/>
+      <c r="E221" s="147"/>
+      <c r="F221" s="147"/>
+      <c r="G221" s="147"/>
+      <c r="H221" s="147"/>
+      <c r="I221" s="147"/>
+      <c r="J221" s="147"/>
+      <c r="K221" s="147"/>
+      <c r="L221" s="148"/>
       <c r="M221" s="58"/>
       <c r="N221" s="18"/>
       <c r="O221" s="18"/>
     </row>
     <row r="222" spans="4:15" ht="15" customHeight="1">
-      <c r="D222" s="127"/>
-      <c r="E222" s="128"/>
-      <c r="F222" s="128"/>
-      <c r="G222" s="128"/>
-      <c r="H222" s="128"/>
-      <c r="I222" s="128"/>
-      <c r="J222" s="128"/>
-      <c r="K222" s="128"/>
-      <c r="L222" s="129"/>
+      <c r="D222" s="146"/>
+      <c r="E222" s="147"/>
+      <c r="F222" s="147"/>
+      <c r="G222" s="147"/>
+      <c r="H222" s="147"/>
+      <c r="I222" s="147"/>
+      <c r="J222" s="147"/>
+      <c r="K222" s="147"/>
+      <c r="L222" s="148"/>
     </row>
     <row r="223" spans="4:15" ht="15.75" customHeight="1">
-      <c r="D223" s="127"/>
-      <c r="E223" s="128"/>
-      <c r="F223" s="128"/>
-      <c r="G223" s="128"/>
-      <c r="H223" s="128"/>
-      <c r="I223" s="128"/>
-      <c r="J223" s="128"/>
-      <c r="K223" s="128"/>
-      <c r="L223" s="129"/>
+      <c r="D223" s="146"/>
+      <c r="E223" s="147"/>
+      <c r="F223" s="147"/>
+      <c r="G223" s="147"/>
+      <c r="H223" s="147"/>
+      <c r="I223" s="147"/>
+      <c r="J223" s="147"/>
+      <c r="K223" s="147"/>
+      <c r="L223" s="148"/>
     </row>
     <row r="224" spans="4:15" ht="15" customHeight="1">
-      <c r="D224" s="127"/>
-      <c r="E224" s="128"/>
-      <c r="F224" s="128"/>
-      <c r="G224" s="128"/>
-      <c r="H224" s="128"/>
-      <c r="I224" s="128"/>
-      <c r="J224" s="128"/>
-      <c r="K224" s="128"/>
-      <c r="L224" s="129"/>
+      <c r="D224" s="146"/>
+      <c r="E224" s="147"/>
+      <c r="F224" s="147"/>
+      <c r="G224" s="147"/>
+      <c r="H224" s="147"/>
+      <c r="I224" s="147"/>
+      <c r="J224" s="147"/>
+      <c r="K224" s="147"/>
+      <c r="L224" s="148"/>
     </row>
     <row r="225" spans="3:31" ht="15" customHeight="1">
-      <c r="D225" s="127"/>
-      <c r="E225" s="128"/>
-      <c r="F225" s="128"/>
-      <c r="G225" s="128"/>
-      <c r="H225" s="128"/>
-      <c r="I225" s="128"/>
-      <c r="J225" s="128"/>
-      <c r="K225" s="128"/>
-      <c r="L225" s="129"/>
+      <c r="D225" s="146"/>
+      <c r="E225" s="147"/>
+      <c r="F225" s="147"/>
+      <c r="G225" s="147"/>
+      <c r="H225" s="147"/>
+      <c r="I225" s="147"/>
+      <c r="J225" s="147"/>
+      <c r="K225" s="147"/>
+      <c r="L225" s="148"/>
     </row>
     <row r="226" spans="3:31" ht="15" customHeight="1">
-      <c r="D226" s="127"/>
-      <c r="E226" s="128"/>
-      <c r="F226" s="128"/>
-      <c r="G226" s="128"/>
-      <c r="H226" s="128"/>
-      <c r="I226" s="128"/>
-      <c r="J226" s="128"/>
-      <c r="K226" s="128"/>
-      <c r="L226" s="129"/>
+      <c r="D226" s="146"/>
+      <c r="E226" s="147"/>
+      <c r="F226" s="147"/>
+      <c r="G226" s="147"/>
+      <c r="H226" s="147"/>
+      <c r="I226" s="147"/>
+      <c r="J226" s="147"/>
+      <c r="K226" s="147"/>
+      <c r="L226" s="148"/>
     </row>
     <row r="227" spans="3:31" ht="15" customHeight="1" thickBot="1">
-      <c r="D227" s="130"/>
-      <c r="E227" s="131"/>
-      <c r="F227" s="131"/>
-      <c r="G227" s="131"/>
-      <c r="H227" s="131"/>
-      <c r="I227" s="131"/>
-      <c r="J227" s="131"/>
-      <c r="K227" s="131"/>
-      <c r="L227" s="132"/>
+      <c r="D227" s="149"/>
+      <c r="E227" s="150"/>
+      <c r="F227" s="150"/>
+      <c r="G227" s="150"/>
+      <c r="H227" s="150"/>
+      <c r="I227" s="150"/>
+      <c r="J227" s="150"/>
+      <c r="K227" s="150"/>
+      <c r="L227" s="151"/>
     </row>
     <row r="229" spans="3:31" ht="18" thickBot="1">
       <c r="D229" s="57" t="s">
@@ -11467,86 +11913,86 @@
       <c r="L229" s="8"/>
     </row>
     <row r="230" spans="3:31" ht="48" customHeight="1">
-      <c r="D230" s="124" t="s">
+      <c r="D230" s="143" t="s">
         <v>128</v>
       </c>
-      <c r="E230" s="125"/>
-      <c r="F230" s="125"/>
-      <c r="G230" s="125"/>
-      <c r="H230" s="125"/>
-      <c r="I230" s="125"/>
-      <c r="J230" s="125"/>
-      <c r="K230" s="125"/>
-      <c r="L230" s="126"/>
+      <c r="E230" s="144"/>
+      <c r="F230" s="144"/>
+      <c r="G230" s="144"/>
+      <c r="H230" s="144"/>
+      <c r="I230" s="144"/>
+      <c r="J230" s="144"/>
+      <c r="K230" s="144"/>
+      <c r="L230" s="145"/>
     </row>
     <row r="231" spans="3:31">
-      <c r="D231" s="127"/>
-      <c r="E231" s="128"/>
-      <c r="F231" s="128"/>
-      <c r="G231" s="128"/>
-      <c r="H231" s="128"/>
-      <c r="I231" s="128"/>
-      <c r="J231" s="128"/>
-      <c r="K231" s="128"/>
-      <c r="L231" s="129"/>
+      <c r="D231" s="146"/>
+      <c r="E231" s="147"/>
+      <c r="F231" s="147"/>
+      <c r="G231" s="147"/>
+      <c r="H231" s="147"/>
+      <c r="I231" s="147"/>
+      <c r="J231" s="147"/>
+      <c r="K231" s="147"/>
+      <c r="L231" s="148"/>
     </row>
     <row r="232" spans="3:31" ht="18" customHeight="1">
-      <c r="D232" s="127"/>
-      <c r="E232" s="128"/>
-      <c r="F232" s="128"/>
-      <c r="G232" s="128"/>
-      <c r="H232" s="128"/>
-      <c r="I232" s="128"/>
-      <c r="J232" s="128"/>
-      <c r="K232" s="128"/>
-      <c r="L232" s="129"/>
+      <c r="D232" s="146"/>
+      <c r="E232" s="147"/>
+      <c r="F232" s="147"/>
+      <c r="G232" s="147"/>
+      <c r="H232" s="147"/>
+      <c r="I232" s="147"/>
+      <c r="J232" s="147"/>
+      <c r="K232" s="147"/>
+      <c r="L232" s="148"/>
       <c r="M232" s="58"/>
       <c r="N232" s="18"/>
       <c r="O232" s="18"/>
     </row>
     <row r="233" spans="3:31">
-      <c r="D233" s="127"/>
-      <c r="E233" s="128"/>
-      <c r="F233" s="128"/>
-      <c r="G233" s="128"/>
-      <c r="H233" s="128"/>
-      <c r="I233" s="128"/>
-      <c r="J233" s="128"/>
-      <c r="K233" s="128"/>
-      <c r="L233" s="129"/>
+      <c r="D233" s="146"/>
+      <c r="E233" s="147"/>
+      <c r="F233" s="147"/>
+      <c r="G233" s="147"/>
+      <c r="H233" s="147"/>
+      <c r="I233" s="147"/>
+      <c r="J233" s="147"/>
+      <c r="K233" s="147"/>
+      <c r="L233" s="148"/>
     </row>
     <row r="234" spans="3:31" ht="15.75" customHeight="1">
-      <c r="D234" s="127"/>
-      <c r="E234" s="128"/>
-      <c r="F234" s="128"/>
-      <c r="G234" s="128"/>
-      <c r="H234" s="128"/>
-      <c r="I234" s="128"/>
-      <c r="J234" s="128"/>
-      <c r="K234" s="128"/>
-      <c r="L234" s="129"/>
+      <c r="D234" s="146"/>
+      <c r="E234" s="147"/>
+      <c r="F234" s="147"/>
+      <c r="G234" s="147"/>
+      <c r="H234" s="147"/>
+      <c r="I234" s="147"/>
+      <c r="J234" s="147"/>
+      <c r="K234" s="147"/>
+      <c r="L234" s="148"/>
     </row>
     <row r="235" spans="3:31" ht="15" customHeight="1">
-      <c r="D235" s="127"/>
-      <c r="E235" s="128"/>
-      <c r="F235" s="128"/>
-      <c r="G235" s="128"/>
-      <c r="H235" s="128"/>
-      <c r="I235" s="128"/>
-      <c r="J235" s="128"/>
-      <c r="K235" s="128"/>
-      <c r="L235" s="129"/>
+      <c r="D235" s="146"/>
+      <c r="E235" s="147"/>
+      <c r="F235" s="147"/>
+      <c r="G235" s="147"/>
+      <c r="H235" s="147"/>
+      <c r="I235" s="147"/>
+      <c r="J235" s="147"/>
+      <c r="K235" s="147"/>
+      <c r="L235" s="148"/>
     </row>
     <row r="236" spans="3:31" ht="16.5" customHeight="1" thickBot="1">
-      <c r="D236" s="130"/>
-      <c r="E236" s="131"/>
-      <c r="F236" s="131"/>
-      <c r="G236" s="131"/>
-      <c r="H236" s="131"/>
-      <c r="I236" s="131"/>
-      <c r="J236" s="131"/>
-      <c r="K236" s="131"/>
-      <c r="L236" s="132"/>
+      <c r="D236" s="149"/>
+      <c r="E236" s="150"/>
+      <c r="F236" s="150"/>
+      <c r="G236" s="150"/>
+      <c r="H236" s="150"/>
+      <c r="I236" s="150"/>
+      <c r="J236" s="150"/>
+      <c r="K236" s="150"/>
+      <c r="L236" s="151"/>
     </row>
     <row r="237" spans="3:31" ht="29.25" customHeight="1" thickBot="1"/>
     <row r="238" spans="3:31" ht="17.25">
@@ -11879,30 +12325,30 @@
       </c>
     </row>
     <row r="251" spans="2:31" ht="27.75">
-      <c r="C251" s="123" t="s">
+      <c r="C251" s="142" t="s">
         <v>130</v>
       </c>
-      <c r="D251" s="123"/>
-      <c r="E251" s="123"/>
-      <c r="F251" s="123"/>
-      <c r="G251" s="123"/>
-      <c r="H251" s="123"/>
-      <c r="I251" s="123"/>
-      <c r="J251" s="123"/>
-      <c r="K251" s="123"/>
+      <c r="D251" s="142"/>
+      <c r="E251" s="142"/>
+      <c r="F251" s="142"/>
+      <c r="G251" s="142"/>
+      <c r="H251" s="142"/>
+      <c r="I251" s="142"/>
+      <c r="J251" s="142"/>
+      <c r="K251" s="142"/>
     </row>
     <row r="252" spans="2:31" ht="16.5" customHeight="1">
       <c r="C252" s="32"/>
-      <c r="D252" s="122" t="s">
+      <c r="D252" s="141" t="s">
         <v>70</v>
       </c>
-      <c r="E252" s="122"/>
-      <c r="F252" s="122"/>
-      <c r="G252" s="122"/>
-      <c r="H252" s="122"/>
-      <c r="I252" s="122"/>
-      <c r="J252" s="122"/>
-      <c r="K252" s="122"/>
+      <c r="E252" s="141"/>
+      <c r="F252" s="141"/>
+      <c r="G252" s="141"/>
+      <c r="H252" s="141"/>
+      <c r="I252" s="141"/>
+      <c r="J252" s="141"/>
+      <c r="K252" s="141"/>
       <c r="L252" s="62"/>
       <c r="M252" s="63" t="s">
         <v>77</v>
@@ -11919,16 +12365,16 @@
     </row>
     <row r="253" spans="2:31" ht="16.5" customHeight="1">
       <c r="C253" s="32"/>
-      <c r="D253" s="122" t="s">
+      <c r="D253" s="141" t="s">
         <v>157</v>
       </c>
-      <c r="E253" s="122"/>
-      <c r="F253" s="122"/>
-      <c r="G253" s="122"/>
-      <c r="H253" s="122"/>
-      <c r="I253" s="122"/>
-      <c r="J253" s="122"/>
-      <c r="K253" s="122"/>
+      <c r="E253" s="141"/>
+      <c r="F253" s="141"/>
+      <c r="G253" s="141"/>
+      <c r="H253" s="141"/>
+      <c r="I253" s="141"/>
+      <c r="J253" s="141"/>
+      <c r="K253" s="141"/>
       <c r="L253" s="62"/>
       <c r="M253" s="63" t="s">
         <v>80</v>
@@ -11945,16 +12391,16 @@
     </row>
     <row r="254" spans="2:31" ht="16.5" customHeight="1">
       <c r="C254" s="32"/>
-      <c r="D254" s="122" t="s">
+      <c r="D254" s="141" t="s">
         <v>158</v>
       </c>
-      <c r="E254" s="122"/>
-      <c r="F254" s="122"/>
-      <c r="G254" s="122"/>
-      <c r="H254" s="122"/>
-      <c r="I254" s="122"/>
-      <c r="J254" s="122"/>
-      <c r="K254" s="122"/>
+      <c r="E254" s="141"/>
+      <c r="F254" s="141"/>
+      <c r="G254" s="141"/>
+      <c r="H254" s="141"/>
+      <c r="I254" s="141"/>
+      <c r="J254" s="141"/>
+      <c r="K254" s="141"/>
       <c r="L254" s="62"/>
       <c r="M254" s="63" t="s">
         <v>161</v>
@@ -11971,16 +12417,16 @@
     </row>
     <row r="255" spans="2:31" ht="16.5" customHeight="1">
       <c r="C255" s="32"/>
-      <c r="D255" s="122" t="s">
+      <c r="D255" s="141" t="s">
         <v>159</v>
       </c>
-      <c r="E255" s="122"/>
-      <c r="F255" s="122"/>
-      <c r="G255" s="122"/>
-      <c r="H255" s="122"/>
-      <c r="I255" s="122"/>
-      <c r="J255" s="122"/>
-      <c r="K255" s="122"/>
+      <c r="E255" s="141"/>
+      <c r="F255" s="141"/>
+      <c r="G255" s="141"/>
+      <c r="H255" s="141"/>
+      <c r="I255" s="141"/>
+      <c r="J255" s="141"/>
+      <c r="K255" s="141"/>
       <c r="L255" s="62"/>
       <c r="M255" s="63" t="s">
         <v>162</v>
@@ -11997,16 +12443,16 @@
     </row>
     <row r="256" spans="2:31" ht="16.5" customHeight="1">
       <c r="C256" s="32"/>
-      <c r="D256" s="122" t="s">
+      <c r="D256" s="141" t="s">
         <v>160</v>
       </c>
-      <c r="E256" s="122"/>
-      <c r="F256" s="122"/>
-      <c r="G256" s="122"/>
-      <c r="H256" s="122"/>
-      <c r="I256" s="122"/>
-      <c r="J256" s="122"/>
-      <c r="K256" s="122"/>
+      <c r="E256" s="141"/>
+      <c r="F256" s="141"/>
+      <c r="G256" s="141"/>
+      <c r="H256" s="141"/>
+      <c r="I256" s="141"/>
+      <c r="J256" s="141"/>
+      <c r="K256" s="141"/>
       <c r="L256" s="62"/>
       <c r="M256" s="63" t="s">
         <v>163</v>
@@ -12038,69 +12484,69 @@
     </row>
     <row r="261" spans="3:14" s="8" customFormat="1" ht="18" thickBot="1"/>
     <row r="262" spans="3:14" s="8" customFormat="1" ht="17.25" customHeight="1">
-      <c r="D262" s="142" t="s">
+      <c r="D262" s="95" t="s">
         <v>170</v>
       </c>
-      <c r="E262" s="143"/>
-      <c r="F262" s="143"/>
-      <c r="G262" s="143"/>
-      <c r="H262" s="143"/>
-      <c r="I262" s="143"/>
-      <c r="J262" s="143"/>
-      <c r="K262" s="144"/>
+      <c r="E262" s="96"/>
+      <c r="F262" s="96"/>
+      <c r="G262" s="96"/>
+      <c r="H262" s="96"/>
+      <c r="I262" s="96"/>
+      <c r="J262" s="96"/>
+      <c r="K262" s="97"/>
     </row>
     <row r="263" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D263" s="145"/>
-      <c r="E263" s="146"/>
-      <c r="F263" s="146"/>
-      <c r="G263" s="146"/>
-      <c r="H263" s="146"/>
-      <c r="I263" s="146"/>
-      <c r="J263" s="146"/>
-      <c r="K263" s="147"/>
+      <c r="D263" s="98"/>
+      <c r="E263" s="99"/>
+      <c r="F263" s="99"/>
+      <c r="G263" s="99"/>
+      <c r="H263" s="99"/>
+      <c r="I263" s="99"/>
+      <c r="J263" s="99"/>
+      <c r="K263" s="100"/>
     </row>
     <row r="264" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D264" s="145"/>
-      <c r="E264" s="146"/>
-      <c r="F264" s="146"/>
-      <c r="G264" s="146"/>
-      <c r="H264" s="146"/>
-      <c r="I264" s="146"/>
-      <c r="J264" s="146"/>
-      <c r="K264" s="147"/>
+      <c r="D264" s="98"/>
+      <c r="E264" s="99"/>
+      <c r="F264" s="99"/>
+      <c r="G264" s="99"/>
+      <c r="H264" s="99"/>
+      <c r="I264" s="99"/>
+      <c r="J264" s="99"/>
+      <c r="K264" s="100"/>
       <c r="L264" s="33"/>
       <c r="M264" s="17"/>
       <c r="N264" s="17"/>
     </row>
     <row r="265" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D265" s="145"/>
-      <c r="E265" s="146"/>
-      <c r="F265" s="146"/>
-      <c r="G265" s="146"/>
-      <c r="H265" s="146"/>
-      <c r="I265" s="146"/>
-      <c r="J265" s="146"/>
-      <c r="K265" s="147"/>
+      <c r="D265" s="98"/>
+      <c r="E265" s="99"/>
+      <c r="F265" s="99"/>
+      <c r="G265" s="99"/>
+      <c r="H265" s="99"/>
+      <c r="I265" s="99"/>
+      <c r="J265" s="99"/>
+      <c r="K265" s="100"/>
     </row>
     <row r="266" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D266" s="145"/>
-      <c r="E266" s="146"/>
-      <c r="F266" s="146"/>
-      <c r="G266" s="146"/>
-      <c r="H266" s="146"/>
-      <c r="I266" s="146"/>
-      <c r="J266" s="146"/>
-      <c r="K266" s="147"/>
+      <c r="D266" s="98"/>
+      <c r="E266" s="99"/>
+      <c r="F266" s="99"/>
+      <c r="G266" s="99"/>
+      <c r="H266" s="99"/>
+      <c r="I266" s="99"/>
+      <c r="J266" s="99"/>
+      <c r="K266" s="100"/>
     </row>
     <row r="267" spans="3:14" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="D267" s="148"/>
-      <c r="E267" s="149"/>
-      <c r="F267" s="149"/>
-      <c r="G267" s="149"/>
-      <c r="H267" s="149"/>
-      <c r="I267" s="149"/>
-      <c r="J267" s="149"/>
-      <c r="K267" s="150"/>
+      <c r="D267" s="101"/>
+      <c r="E267" s="102"/>
+      <c r="F267" s="102"/>
+      <c r="G267" s="102"/>
+      <c r="H267" s="102"/>
+      <c r="I267" s="102"/>
+      <c r="J267" s="102"/>
+      <c r="K267" s="103"/>
     </row>
     <row r="268" spans="3:14" s="8" customFormat="1" ht="17.25"/>
     <row r="269" spans="3:14" s="8" customFormat="1" ht="18" thickBot="1">
@@ -12109,59 +12555,59 @@
       </c>
     </row>
     <row r="270" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D270" s="133" t="s">
+      <c r="D270" s="104" t="s">
         <v>172</v>
       </c>
-      <c r="E270" s="134"/>
-      <c r="F270" s="134"/>
-      <c r="G270" s="134"/>
-      <c r="H270" s="134"/>
-      <c r="I270" s="134"/>
-      <c r="J270" s="134"/>
-      <c r="K270" s="135"/>
+      <c r="E270" s="105"/>
+      <c r="F270" s="105"/>
+      <c r="G270" s="105"/>
+      <c r="H270" s="105"/>
+      <c r="I270" s="105"/>
+      <c r="J270" s="105"/>
+      <c r="K270" s="106"/>
     </row>
     <row r="271" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D271" s="136"/>
-      <c r="E271" s="137"/>
-      <c r="F271" s="137"/>
-      <c r="G271" s="137"/>
-      <c r="H271" s="137"/>
-      <c r="I271" s="137"/>
-      <c r="J271" s="137"/>
-      <c r="K271" s="138"/>
+      <c r="D271" s="107"/>
+      <c r="E271" s="108"/>
+      <c r="F271" s="108"/>
+      <c r="G271" s="108"/>
+      <c r="H271" s="108"/>
+      <c r="I271" s="108"/>
+      <c r="J271" s="108"/>
+      <c r="K271" s="109"/>
     </row>
     <row r="272" spans="3:14" s="8" customFormat="1" ht="17.25">
-      <c r="D272" s="136"/>
-      <c r="E272" s="137"/>
-      <c r="F272" s="137"/>
-      <c r="G272" s="137"/>
-      <c r="H272" s="137"/>
-      <c r="I272" s="137"/>
-      <c r="J272" s="137"/>
-      <c r="K272" s="138"/>
+      <c r="D272" s="107"/>
+      <c r="E272" s="108"/>
+      <c r="F272" s="108"/>
+      <c r="G272" s="108"/>
+      <c r="H272" s="108"/>
+      <c r="I272" s="108"/>
+      <c r="J272" s="108"/>
+      <c r="K272" s="109"/>
       <c r="L272" s="33"/>
       <c r="M272" s="17"/>
       <c r="N272" s="17"/>
     </row>
     <row r="273" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D273" s="136"/>
-      <c r="E273" s="137"/>
-      <c r="F273" s="137"/>
-      <c r="G273" s="137"/>
-      <c r="H273" s="137"/>
-      <c r="I273" s="137"/>
-      <c r="J273" s="137"/>
-      <c r="K273" s="138"/>
+      <c r="D273" s="107"/>
+      <c r="E273" s="108"/>
+      <c r="F273" s="108"/>
+      <c r="G273" s="108"/>
+      <c r="H273" s="108"/>
+      <c r="I273" s="108"/>
+      <c r="J273" s="108"/>
+      <c r="K273" s="109"/>
     </row>
     <row r="274" spans="4:14" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="D274" s="139"/>
-      <c r="E274" s="140"/>
-      <c r="F274" s="140"/>
-      <c r="G274" s="140"/>
-      <c r="H274" s="140"/>
-      <c r="I274" s="140"/>
-      <c r="J274" s="140"/>
-      <c r="K274" s="141"/>
+      <c r="D274" s="110"/>
+      <c r="E274" s="111"/>
+      <c r="F274" s="111"/>
+      <c r="G274" s="111"/>
+      <c r="H274" s="111"/>
+      <c r="I274" s="111"/>
+      <c r="J274" s="111"/>
+      <c r="K274" s="112"/>
     </row>
     <row r="275" spans="4:14" s="8" customFormat="1" ht="17.25"/>
     <row r="276" spans="4:14" s="8" customFormat="1" ht="18" thickBot="1">
@@ -12170,139 +12616,139 @@
       </c>
     </row>
     <row r="277" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D277" s="133" t="s">
+      <c r="D277" s="104" t="s">
         <v>174</v>
       </c>
-      <c r="E277" s="134"/>
-      <c r="F277" s="134"/>
-      <c r="G277" s="134"/>
-      <c r="H277" s="134"/>
-      <c r="I277" s="134"/>
-      <c r="J277" s="134"/>
-      <c r="K277" s="135"/>
+      <c r="E277" s="105"/>
+      <c r="F277" s="105"/>
+      <c r="G277" s="105"/>
+      <c r="H277" s="105"/>
+      <c r="I277" s="105"/>
+      <c r="J277" s="105"/>
+      <c r="K277" s="106"/>
     </row>
     <row r="278" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D278" s="136"/>
-      <c r="E278" s="137"/>
-      <c r="F278" s="137"/>
-      <c r="G278" s="137"/>
-      <c r="H278" s="137"/>
-      <c r="I278" s="137"/>
-      <c r="J278" s="137"/>
-      <c r="K278" s="138"/>
+      <c r="D278" s="107"/>
+      <c r="E278" s="108"/>
+      <c r="F278" s="108"/>
+      <c r="G278" s="108"/>
+      <c r="H278" s="108"/>
+      <c r="I278" s="108"/>
+      <c r="J278" s="108"/>
+      <c r="K278" s="109"/>
     </row>
     <row r="279" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D279" s="136"/>
-      <c r="E279" s="137"/>
-      <c r="F279" s="137"/>
-      <c r="G279" s="137"/>
-      <c r="H279" s="137"/>
-      <c r="I279" s="137"/>
-      <c r="J279" s="137"/>
-      <c r="K279" s="138"/>
+      <c r="D279" s="107"/>
+      <c r="E279" s="108"/>
+      <c r="F279" s="108"/>
+      <c r="G279" s="108"/>
+      <c r="H279" s="108"/>
+      <c r="I279" s="108"/>
+      <c r="J279" s="108"/>
+      <c r="K279" s="109"/>
     </row>
     <row r="280" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D280" s="136"/>
-      <c r="E280" s="137"/>
-      <c r="F280" s="137"/>
-      <c r="G280" s="137"/>
-      <c r="H280" s="137"/>
-      <c r="I280" s="137"/>
-      <c r="J280" s="137"/>
-      <c r="K280" s="138"/>
+      <c r="D280" s="107"/>
+      <c r="E280" s="108"/>
+      <c r="F280" s="108"/>
+      <c r="G280" s="108"/>
+      <c r="H280" s="108"/>
+      <c r="I280" s="108"/>
+      <c r="J280" s="108"/>
+      <c r="K280" s="109"/>
     </row>
     <row r="281" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D281" s="136"/>
-      <c r="E281" s="137"/>
-      <c r="F281" s="137"/>
-      <c r="G281" s="137"/>
-      <c r="H281" s="137"/>
-      <c r="I281" s="137"/>
-      <c r="J281" s="137"/>
-      <c r="K281" s="138"/>
+      <c r="D281" s="107"/>
+      <c r="E281" s="108"/>
+      <c r="F281" s="108"/>
+      <c r="G281" s="108"/>
+      <c r="H281" s="108"/>
+      <c r="I281" s="108"/>
+      <c r="J281" s="108"/>
+      <c r="K281" s="109"/>
     </row>
     <row r="282" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D282" s="136"/>
-      <c r="E282" s="137"/>
-      <c r="F282" s="137"/>
-      <c r="G282" s="137"/>
-      <c r="H282" s="137"/>
-      <c r="I282" s="137"/>
-      <c r="J282" s="137"/>
-      <c r="K282" s="138"/>
+      <c r="D282" s="107"/>
+      <c r="E282" s="108"/>
+      <c r="F282" s="108"/>
+      <c r="G282" s="108"/>
+      <c r="H282" s="108"/>
+      <c r="I282" s="108"/>
+      <c r="J282" s="108"/>
+      <c r="K282" s="109"/>
       <c r="L282" s="33"/>
       <c r="M282" s="17"/>
       <c r="N282" s="17"/>
     </row>
     <row r="283" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D283" s="136"/>
-      <c r="E283" s="137"/>
-      <c r="F283" s="137"/>
-      <c r="G283" s="137"/>
-      <c r="H283" s="137"/>
-      <c r="I283" s="137"/>
-      <c r="J283" s="137"/>
-      <c r="K283" s="138"/>
+      <c r="D283" s="107"/>
+      <c r="E283" s="108"/>
+      <c r="F283" s="108"/>
+      <c r="G283" s="108"/>
+      <c r="H283" s="108"/>
+      <c r="I283" s="108"/>
+      <c r="J283" s="108"/>
+      <c r="K283" s="109"/>
     </row>
     <row r="284" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D284" s="136"/>
-      <c r="E284" s="137"/>
-      <c r="F284" s="137"/>
-      <c r="G284" s="137"/>
-      <c r="H284" s="137"/>
-      <c r="I284" s="137"/>
-      <c r="J284" s="137"/>
-      <c r="K284" s="138"/>
+      <c r="D284" s="107"/>
+      <c r="E284" s="108"/>
+      <c r="F284" s="108"/>
+      <c r="G284" s="108"/>
+      <c r="H284" s="108"/>
+      <c r="I284" s="108"/>
+      <c r="J284" s="108"/>
+      <c r="K284" s="109"/>
     </row>
     <row r="285" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D285" s="136"/>
-      <c r="E285" s="137"/>
-      <c r="F285" s="137"/>
-      <c r="G285" s="137"/>
-      <c r="H285" s="137"/>
-      <c r="I285" s="137"/>
-      <c r="J285" s="137"/>
-      <c r="K285" s="138"/>
+      <c r="D285" s="107"/>
+      <c r="E285" s="108"/>
+      <c r="F285" s="108"/>
+      <c r="G285" s="108"/>
+      <c r="H285" s="108"/>
+      <c r="I285" s="108"/>
+      <c r="J285" s="108"/>
+      <c r="K285" s="109"/>
     </row>
     <row r="286" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D286" s="136"/>
-      <c r="E286" s="137"/>
-      <c r="F286" s="137"/>
-      <c r="G286" s="137"/>
-      <c r="H286" s="137"/>
-      <c r="I286" s="137"/>
-      <c r="J286" s="137"/>
-      <c r="K286" s="138"/>
+      <c r="D286" s="107"/>
+      <c r="E286" s="108"/>
+      <c r="F286" s="108"/>
+      <c r="G286" s="108"/>
+      <c r="H286" s="108"/>
+      <c r="I286" s="108"/>
+      <c r="J286" s="108"/>
+      <c r="K286" s="109"/>
     </row>
     <row r="287" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D287" s="136"/>
-      <c r="E287" s="137"/>
-      <c r="F287" s="137"/>
-      <c r="G287" s="137"/>
-      <c r="H287" s="137"/>
-      <c r="I287" s="137"/>
-      <c r="J287" s="137"/>
-      <c r="K287" s="138"/>
+      <c r="D287" s="107"/>
+      <c r="E287" s="108"/>
+      <c r="F287" s="108"/>
+      <c r="G287" s="108"/>
+      <c r="H287" s="108"/>
+      <c r="I287" s="108"/>
+      <c r="J287" s="108"/>
+      <c r="K287" s="109"/>
     </row>
     <row r="288" spans="4:14" s="8" customFormat="1" ht="17.25">
-      <c r="D288" s="136"/>
-      <c r="E288" s="137"/>
-      <c r="F288" s="137"/>
-      <c r="G288" s="137"/>
-      <c r="H288" s="137"/>
-      <c r="I288" s="137"/>
-      <c r="J288" s="137"/>
-      <c r="K288" s="138"/>
+      <c r="D288" s="107"/>
+      <c r="E288" s="108"/>
+      <c r="F288" s="108"/>
+      <c r="G288" s="108"/>
+      <c r="H288" s="108"/>
+      <c r="I288" s="108"/>
+      <c r="J288" s="108"/>
+      <c r="K288" s="109"/>
     </row>
     <row r="289" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
-      <c r="D289" s="139"/>
-      <c r="E289" s="140"/>
-      <c r="F289" s="140"/>
-      <c r="G289" s="140"/>
-      <c r="H289" s="140"/>
-      <c r="I289" s="140"/>
-      <c r="J289" s="140"/>
-      <c r="K289" s="141"/>
+      <c r="D289" s="110"/>
+      <c r="E289" s="111"/>
+      <c r="F289" s="111"/>
+      <c r="G289" s="111"/>
+      <c r="H289" s="111"/>
+      <c r="I289" s="111"/>
+      <c r="J289" s="111"/>
+      <c r="K289" s="112"/>
     </row>
     <row r="290" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1"/>
     <row r="291" spans="3:31" s="8" customFormat="1" ht="17.25">
@@ -12626,25 +13072,2282 @@
         <v>165</v>
       </c>
     </row>
-    <row r="304" spans="3:31" ht="30">
-      <c r="C304" s="16" t="s">
+    <row r="303" spans="3:31" ht="18" thickBot="1">
+      <c r="C303" s="8"/>
+      <c r="D303" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="E303" s="8"/>
+      <c r="F303" s="8"/>
+      <c r="G303" s="8"/>
+      <c r="H303" s="8"/>
+      <c r="I303" s="8"/>
+      <c r="J303" s="8"/>
+      <c r="K303" s="8"/>
+      <c r="L303" s="8"/>
+      <c r="M303" s="8"/>
+      <c r="N303" s="8"/>
+      <c r="O303" s="8"/>
+      <c r="P303" s="8"/>
+      <c r="Q303" s="8"/>
+      <c r="R303" s="8"/>
+      <c r="S303" s="8"/>
+      <c r="T303" s="8"/>
+      <c r="U303" s="8"/>
+      <c r="V303" s="8"/>
+      <c r="W303" s="8"/>
+      <c r="X303" s="8"/>
+      <c r="Y303" s="8"/>
+      <c r="Z303" s="8"/>
+      <c r="AA303" s="8"/>
+      <c r="AB303" s="8"/>
+      <c r="AC303" s="8"/>
+      <c r="AD303" s="8"/>
+      <c r="AE303" s="8"/>
+    </row>
+    <row r="304" spans="3:31" ht="17.25">
+      <c r="C304" s="8"/>
+      <c r="D304" s="104" t="s">
+        <v>176</v>
+      </c>
+      <c r="E304" s="105"/>
+      <c r="F304" s="105"/>
+      <c r="G304" s="105"/>
+      <c r="H304" s="105"/>
+      <c r="I304" s="105"/>
+      <c r="J304" s="105"/>
+      <c r="K304" s="106"/>
+      <c r="L304" s="8"/>
+      <c r="M304" s="8"/>
+      <c r="N304" s="8"/>
+      <c r="O304" s="8"/>
+      <c r="P304" s="8"/>
+      <c r="Q304" s="8"/>
+      <c r="R304" s="8"/>
+      <c r="S304" s="8"/>
+      <c r="T304" s="8"/>
+      <c r="U304" s="8"/>
+      <c r="V304" s="8"/>
+      <c r="W304" s="8"/>
+      <c r="X304" s="8"/>
+      <c r="Y304" s="8"/>
+      <c r="Z304" s="8"/>
+      <c r="AA304" s="8"/>
+      <c r="AB304" s="8"/>
+      <c r="AC304" s="8"/>
+      <c r="AD304" s="8"/>
+      <c r="AE304" s="8"/>
+    </row>
+    <row r="305" spans="3:31" ht="37.5" customHeight="1">
+      <c r="C305" s="8"/>
+      <c r="D305" s="107"/>
+      <c r="E305" s="108"/>
+      <c r="F305" s="108"/>
+      <c r="G305" s="108"/>
+      <c r="H305" s="108"/>
+      <c r="I305" s="108"/>
+      <c r="J305" s="108"/>
+      <c r="K305" s="109"/>
+      <c r="L305" s="8"/>
+      <c r="M305" s="8"/>
+      <c r="N305" s="8"/>
+      <c r="O305" s="8"/>
+      <c r="P305" s="8"/>
+      <c r="Q305" s="8"/>
+      <c r="R305" s="8"/>
+      <c r="S305" s="8"/>
+      <c r="T305" s="8"/>
+      <c r="U305" s="8"/>
+      <c r="V305" s="8"/>
+      <c r="W305" s="8"/>
+      <c r="X305" s="8"/>
+      <c r="Y305" s="8"/>
+      <c r="Z305" s="8"/>
+      <c r="AA305" s="8"/>
+      <c r="AB305" s="8"/>
+      <c r="AC305" s="8"/>
+      <c r="AD305" s="8"/>
+      <c r="AE305" s="8"/>
+    </row>
+    <row r="306" spans="3:31" ht="17.25">
+      <c r="C306" s="8"/>
+      <c r="D306" s="107"/>
+      <c r="E306" s="108"/>
+      <c r="F306" s="108"/>
+      <c r="G306" s="108"/>
+      <c r="H306" s="108"/>
+      <c r="I306" s="108"/>
+      <c r="J306" s="108"/>
+      <c r="K306" s="109"/>
+      <c r="L306" s="8"/>
+      <c r="M306" s="8"/>
+      <c r="N306" s="8"/>
+      <c r="O306" s="8"/>
+      <c r="P306" s="8"/>
+      <c r="Q306" s="8"/>
+      <c r="R306" s="8"/>
+      <c r="S306" s="8"/>
+      <c r="T306" s="8"/>
+      <c r="U306" s="8"/>
+      <c r="V306" s="8"/>
+      <c r="W306" s="8"/>
+      <c r="X306" s="8"/>
+      <c r="Y306" s="8"/>
+      <c r="Z306" s="8"/>
+      <c r="AA306" s="8"/>
+      <c r="AB306" s="8"/>
+      <c r="AC306" s="8"/>
+      <c r="AD306" s="8"/>
+      <c r="AE306" s="8"/>
+    </row>
+    <row r="307" spans="3:31" ht="17.25">
+      <c r="C307" s="8"/>
+      <c r="D307" s="107"/>
+      <c r="E307" s="108"/>
+      <c r="F307" s="108"/>
+      <c r="G307" s="108"/>
+      <c r="H307" s="108"/>
+      <c r="I307" s="108"/>
+      <c r="J307" s="108"/>
+      <c r="K307" s="109"/>
+      <c r="L307" s="8"/>
+      <c r="M307" s="8"/>
+      <c r="N307" s="8"/>
+      <c r="O307" s="8"/>
+      <c r="P307" s="8"/>
+      <c r="Q307" s="8"/>
+      <c r="R307" s="8"/>
+      <c r="S307" s="8"/>
+      <c r="T307" s="8"/>
+      <c r="U307" s="8"/>
+      <c r="V307" s="8"/>
+      <c r="W307" s="8"/>
+      <c r="X307" s="8"/>
+      <c r="Y307" s="8"/>
+      <c r="Z307" s="8"/>
+      <c r="AA307" s="8"/>
+      <c r="AB307" s="8"/>
+      <c r="AC307" s="8"/>
+      <c r="AD307" s="8"/>
+      <c r="AE307" s="8"/>
+    </row>
+    <row r="308" spans="3:31" ht="17.25">
+      <c r="C308" s="8"/>
+      <c r="D308" s="107"/>
+      <c r="E308" s="108"/>
+      <c r="F308" s="108"/>
+      <c r="G308" s="108"/>
+      <c r="H308" s="108"/>
+      <c r="I308" s="108"/>
+      <c r="J308" s="108"/>
+      <c r="K308" s="109"/>
+      <c r="L308" s="8"/>
+      <c r="M308" s="8"/>
+      <c r="N308" s="8"/>
+      <c r="O308" s="8"/>
+      <c r="P308" s="8"/>
+      <c r="Q308" s="8"/>
+      <c r="R308" s="8"/>
+      <c r="S308" s="8"/>
+      <c r="T308" s="8"/>
+      <c r="U308" s="8"/>
+      <c r="V308" s="8"/>
+      <c r="W308" s="8"/>
+      <c r="X308" s="8"/>
+      <c r="Y308" s="8"/>
+      <c r="Z308" s="8"/>
+      <c r="AA308" s="8"/>
+      <c r="AB308" s="8"/>
+      <c r="AC308" s="8"/>
+      <c r="AD308" s="8"/>
+      <c r="AE308" s="8"/>
+    </row>
+    <row r="309" spans="3:31" ht="17.25">
+      <c r="C309" s="8"/>
+      <c r="D309" s="107"/>
+      <c r="E309" s="108"/>
+      <c r="F309" s="108"/>
+      <c r="G309" s="108"/>
+      <c r="H309" s="108"/>
+      <c r="I309" s="108"/>
+      <c r="J309" s="108"/>
+      <c r="K309" s="109"/>
+      <c r="L309" s="8"/>
+      <c r="M309" s="8"/>
+      <c r="N309" s="8"/>
+      <c r="O309" s="8"/>
+      <c r="P309" s="8"/>
+      <c r="Q309" s="8"/>
+      <c r="R309" s="8"/>
+      <c r="S309" s="8"/>
+      <c r="T309" s="8"/>
+      <c r="U309" s="8"/>
+      <c r="V309" s="8"/>
+      <c r="W309" s="8"/>
+      <c r="X309" s="8"/>
+      <c r="Y309" s="8"/>
+      <c r="Z309" s="8"/>
+      <c r="AA309" s="8"/>
+      <c r="AB309" s="8"/>
+      <c r="AC309" s="8"/>
+      <c r="AD309" s="8"/>
+      <c r="AE309" s="8"/>
+    </row>
+    <row r="310" spans="3:31" ht="17.25">
+      <c r="C310" s="8"/>
+      <c r="D310" s="107"/>
+      <c r="E310" s="108"/>
+      <c r="F310" s="108"/>
+      <c r="G310" s="108"/>
+      <c r="H310" s="108"/>
+      <c r="I310" s="108"/>
+      <c r="J310" s="108"/>
+      <c r="K310" s="109"/>
+      <c r="L310" s="8"/>
+      <c r="M310" s="8"/>
+      <c r="N310" s="8"/>
+      <c r="O310" s="8"/>
+      <c r="P310" s="8"/>
+      <c r="Q310" s="8"/>
+      <c r="R310" s="8"/>
+      <c r="S310" s="8"/>
+      <c r="T310" s="8"/>
+      <c r="U310" s="8"/>
+      <c r="V310" s="8"/>
+      <c r="W310" s="8"/>
+      <c r="X310" s="8"/>
+      <c r="Y310" s="8"/>
+      <c r="Z310" s="8"/>
+      <c r="AA310" s="8"/>
+      <c r="AB310" s="8"/>
+      <c r="AC310" s="8"/>
+      <c r="AD310" s="8"/>
+      <c r="AE310" s="8"/>
+    </row>
+    <row r="311" spans="3:31" ht="54" customHeight="1">
+      <c r="C311" s="8"/>
+      <c r="D311" s="107"/>
+      <c r="E311" s="108"/>
+      <c r="F311" s="108"/>
+      <c r="G311" s="108"/>
+      <c r="H311" s="108"/>
+      <c r="I311" s="108"/>
+      <c r="J311" s="108"/>
+      <c r="K311" s="109"/>
+      <c r="L311" s="33"/>
+      <c r="M311" s="17"/>
+      <c r="N311" s="8"/>
+      <c r="O311" s="8"/>
+      <c r="P311" s="8"/>
+      <c r="Q311" s="8"/>
+      <c r="R311" s="8"/>
+      <c r="S311" s="8"/>
+      <c r="T311" s="8"/>
+      <c r="U311" s="8"/>
+      <c r="V311" s="8"/>
+      <c r="W311" s="8"/>
+      <c r="X311" s="8"/>
+      <c r="Y311" s="8"/>
+      <c r="Z311" s="8"/>
+      <c r="AA311" s="8"/>
+      <c r="AB311" s="8"/>
+      <c r="AC311" s="8"/>
+      <c r="AD311" s="8"/>
+      <c r="AE311" s="8"/>
+    </row>
+    <row r="312" spans="3:31" ht="17.25">
+      <c r="C312" s="8"/>
+      <c r="D312" s="107"/>
+      <c r="E312" s="108"/>
+      <c r="F312" s="108"/>
+      <c r="G312" s="108"/>
+      <c r="H312" s="108"/>
+      <c r="I312" s="108"/>
+      <c r="J312" s="108"/>
+      <c r="K312" s="109"/>
+      <c r="L312" s="8"/>
+      <c r="M312" s="8"/>
+      <c r="N312" s="8"/>
+      <c r="O312" s="8"/>
+      <c r="P312" s="8"/>
+      <c r="Q312" s="8"/>
+      <c r="R312" s="8"/>
+      <c r="S312" s="8"/>
+      <c r="T312" s="8"/>
+      <c r="U312" s="8"/>
+      <c r="V312" s="8"/>
+      <c r="W312" s="8"/>
+      <c r="X312" s="8"/>
+      <c r="Y312" s="8"/>
+      <c r="Z312" s="8"/>
+      <c r="AA312" s="8"/>
+      <c r="AB312" s="8"/>
+      <c r="AC312" s="8"/>
+      <c r="AD312" s="8"/>
+      <c r="AE312" s="8"/>
+    </row>
+    <row r="313" spans="3:31" ht="17.25">
+      <c r="C313" s="8"/>
+      <c r="D313" s="107"/>
+      <c r="E313" s="108"/>
+      <c r="F313" s="108"/>
+      <c r="G313" s="108"/>
+      <c r="H313" s="108"/>
+      <c r="I313" s="108"/>
+      <c r="J313" s="108"/>
+      <c r="K313" s="109"/>
+      <c r="L313" s="8"/>
+      <c r="M313" s="8"/>
+      <c r="N313" s="8"/>
+      <c r="O313" s="8"/>
+      <c r="P313" s="8"/>
+      <c r="Q313" s="8"/>
+      <c r="R313" s="8"/>
+      <c r="S313" s="8"/>
+      <c r="T313" s="8"/>
+      <c r="U313" s="8"/>
+      <c r="V313" s="8"/>
+      <c r="W313" s="8"/>
+      <c r="X313" s="8"/>
+      <c r="Y313" s="8"/>
+      <c r="Z313" s="8"/>
+      <c r="AA313" s="8"/>
+      <c r="AB313" s="8"/>
+      <c r="AC313" s="8"/>
+      <c r="AD313" s="8"/>
+      <c r="AE313" s="8"/>
+    </row>
+    <row r="314" spans="3:31" ht="17.25">
+      <c r="C314" s="8"/>
+      <c r="D314" s="107"/>
+      <c r="E314" s="108"/>
+      <c r="F314" s="108"/>
+      <c r="G314" s="108"/>
+      <c r="H314" s="108"/>
+      <c r="I314" s="108"/>
+      <c r="J314" s="108"/>
+      <c r="K314" s="109"/>
+      <c r="L314" s="8"/>
+      <c r="M314" s="8"/>
+      <c r="N314" s="8"/>
+      <c r="O314" s="8"/>
+      <c r="P314" s="8"/>
+      <c r="Q314" s="8"/>
+      <c r="R314" s="8"/>
+      <c r="S314" s="8"/>
+      <c r="T314" s="8"/>
+      <c r="U314" s="8"/>
+      <c r="V314" s="8"/>
+      <c r="W314" s="8"/>
+      <c r="X314" s="8"/>
+      <c r="Y314" s="8"/>
+      <c r="Z314" s="8"/>
+      <c r="AA314" s="8"/>
+      <c r="AB314" s="8"/>
+      <c r="AC314" s="8"/>
+      <c r="AD314" s="8"/>
+      <c r="AE314" s="8"/>
+    </row>
+    <row r="315" spans="3:31" ht="17.25">
+      <c r="C315" s="8"/>
+      <c r="D315" s="107"/>
+      <c r="E315" s="108"/>
+      <c r="F315" s="108"/>
+      <c r="G315" s="108"/>
+      <c r="H315" s="108"/>
+      <c r="I315" s="108"/>
+      <c r="J315" s="108"/>
+      <c r="K315" s="109"/>
+      <c r="L315" s="8"/>
+      <c r="M315" s="8"/>
+      <c r="N315" s="8"/>
+      <c r="O315" s="8"/>
+      <c r="P315" s="8"/>
+      <c r="Q315" s="8"/>
+      <c r="R315" s="8"/>
+      <c r="S315" s="8"/>
+      <c r="T315" s="8"/>
+      <c r="U315" s="8"/>
+      <c r="V315" s="8"/>
+      <c r="W315" s="8"/>
+      <c r="X315" s="8"/>
+      <c r="Y315" s="8"/>
+      <c r="Z315" s="8"/>
+      <c r="AA315" s="8"/>
+      <c r="AB315" s="8"/>
+      <c r="AC315" s="8"/>
+      <c r="AD315" s="8"/>
+      <c r="AE315" s="8"/>
+    </row>
+    <row r="316" spans="3:31" ht="17.25">
+      <c r="C316" s="8"/>
+      <c r="D316" s="107"/>
+      <c r="E316" s="108"/>
+      <c r="F316" s="108"/>
+      <c r="G316" s="108"/>
+      <c r="H316" s="108"/>
+      <c r="I316" s="108"/>
+      <c r="J316" s="108"/>
+      <c r="K316" s="109"/>
+      <c r="L316" s="8"/>
+      <c r="M316" s="8"/>
+      <c r="N316" s="8"/>
+      <c r="O316" s="8"/>
+      <c r="P316" s="8"/>
+      <c r="Q316" s="8"/>
+      <c r="R316" s="8"/>
+      <c r="S316" s="8"/>
+      <c r="T316" s="8"/>
+      <c r="U316" s="8"/>
+      <c r="V316" s="8"/>
+      <c r="W316" s="8"/>
+      <c r="X316" s="8"/>
+      <c r="Y316" s="8"/>
+      <c r="Z316" s="8"/>
+      <c r="AA316" s="8"/>
+      <c r="AB316" s="8"/>
+      <c r="AC316" s="8"/>
+      <c r="AD316" s="8"/>
+      <c r="AE316" s="8"/>
+    </row>
+    <row r="317" spans="3:31" ht="17.25">
+      <c r="C317" s="8"/>
+      <c r="D317" s="107"/>
+      <c r="E317" s="108"/>
+      <c r="F317" s="108"/>
+      <c r="G317" s="108"/>
+      <c r="H317" s="108"/>
+      <c r="I317" s="108"/>
+      <c r="J317" s="108"/>
+      <c r="K317" s="109"/>
+      <c r="L317" s="8"/>
+      <c r="M317" s="8"/>
+      <c r="N317" s="8"/>
+      <c r="O317" s="8"/>
+      <c r="P317" s="8"/>
+      <c r="Q317" s="8"/>
+      <c r="R317" s="8"/>
+      <c r="S317" s="8"/>
+      <c r="T317" s="8"/>
+      <c r="U317" s="8"/>
+      <c r="V317" s="8"/>
+      <c r="W317" s="8"/>
+      <c r="X317" s="8"/>
+      <c r="Y317" s="8"/>
+      <c r="Z317" s="8"/>
+      <c r="AA317" s="8"/>
+      <c r="AB317" s="8"/>
+      <c r="AC317" s="8"/>
+      <c r="AD317" s="8"/>
+      <c r="AE317" s="8"/>
+    </row>
+    <row r="318" spans="3:31" ht="17.25">
+      <c r="C318" s="8"/>
+      <c r="D318" s="107"/>
+      <c r="E318" s="108"/>
+      <c r="F318" s="108"/>
+      <c r="G318" s="108"/>
+      <c r="H318" s="108"/>
+      <c r="I318" s="108"/>
+      <c r="J318" s="108"/>
+      <c r="K318" s="109"/>
+      <c r="L318" s="8"/>
+      <c r="M318" s="8"/>
+      <c r="N318" s="8"/>
+      <c r="O318" s="8"/>
+      <c r="P318" s="8"/>
+      <c r="Q318" s="8"/>
+      <c r="R318" s="8"/>
+      <c r="S318" s="8"/>
+      <c r="T318" s="8"/>
+      <c r="U318" s="8"/>
+      <c r="V318" s="8"/>
+      <c r="W318" s="8"/>
+      <c r="X318" s="8"/>
+      <c r="Y318" s="8"/>
+      <c r="Z318" s="8"/>
+      <c r="AA318" s="8"/>
+      <c r="AB318" s="8"/>
+      <c r="AC318" s="8"/>
+      <c r="AD318" s="8"/>
+      <c r="AE318" s="8"/>
+    </row>
+    <row r="319" spans="3:31" ht="17.25">
+      <c r="C319" s="8"/>
+      <c r="D319" s="107"/>
+      <c r="E319" s="108"/>
+      <c r="F319" s="108"/>
+      <c r="G319" s="108"/>
+      <c r="H319" s="108"/>
+      <c r="I319" s="108"/>
+      <c r="J319" s="108"/>
+      <c r="K319" s="109"/>
+      <c r="L319" s="8"/>
+      <c r="M319" s="8"/>
+      <c r="N319" s="8"/>
+      <c r="O319" s="8"/>
+      <c r="P319" s="8"/>
+      <c r="Q319" s="8"/>
+      <c r="R319" s="8"/>
+      <c r="S319" s="8"/>
+      <c r="T319" s="8"/>
+      <c r="U319" s="8"/>
+      <c r="V319" s="8"/>
+      <c r="W319" s="8"/>
+      <c r="X319" s="8"/>
+      <c r="Y319" s="8"/>
+      <c r="Z319" s="8"/>
+      <c r="AA319" s="8"/>
+      <c r="AB319" s="8"/>
+      <c r="AC319" s="8"/>
+      <c r="AD319" s="8"/>
+      <c r="AE319" s="8"/>
+    </row>
+    <row r="320" spans="3:31" ht="17.25">
+      <c r="C320" s="8"/>
+      <c r="D320" s="107"/>
+      <c r="E320" s="108"/>
+      <c r="F320" s="108"/>
+      <c r="G320" s="108"/>
+      <c r="H320" s="108"/>
+      <c r="I320" s="108"/>
+      <c r="J320" s="108"/>
+      <c r="K320" s="109"/>
+      <c r="L320" s="8"/>
+      <c r="M320" s="8"/>
+      <c r="N320" s="8"/>
+      <c r="O320" s="8"/>
+      <c r="P320" s="8"/>
+      <c r="Q320" s="8"/>
+      <c r="R320" s="8"/>
+      <c r="S320" s="8"/>
+      <c r="T320" s="8"/>
+      <c r="U320" s="8"/>
+      <c r="V320" s="8"/>
+      <c r="W320" s="8"/>
+      <c r="X320" s="8"/>
+      <c r="Y320" s="8"/>
+      <c r="Z320" s="8"/>
+      <c r="AA320" s="8"/>
+      <c r="AB320" s="8"/>
+      <c r="AC320" s="8"/>
+      <c r="AD320" s="8"/>
+      <c r="AE320" s="8"/>
+    </row>
+    <row r="321" spans="3:31" ht="47.25" customHeight="1" thickBot="1">
+      <c r="C321" s="8"/>
+      <c r="D321" s="110"/>
+      <c r="E321" s="111"/>
+      <c r="F321" s="111"/>
+      <c r="G321" s="111"/>
+      <c r="H321" s="111"/>
+      <c r="I321" s="111"/>
+      <c r="J321" s="111"/>
+      <c r="K321" s="112"/>
+      <c r="L321" s="8"/>
+      <c r="M321" s="8"/>
+      <c r="N321" s="8"/>
+      <c r="O321" s="8"/>
+      <c r="P321" s="8"/>
+      <c r="Q321" s="8"/>
+      <c r="R321" s="8"/>
+      <c r="S321" s="8"/>
+      <c r="T321" s="8"/>
+      <c r="U321" s="8"/>
+      <c r="V321" s="8"/>
+      <c r="W321" s="8"/>
+      <c r="X321" s="8"/>
+      <c r="Y321" s="8"/>
+      <c r="Z321" s="8"/>
+      <c r="AA321" s="8"/>
+      <c r="AB321" s="8"/>
+      <c r="AC321" s="8"/>
+      <c r="AD321" s="8"/>
+      <c r="AE321" s="8"/>
+    </row>
+    <row r="322" spans="3:31" ht="18" thickBot="1">
+      <c r="C322" s="8"/>
+      <c r="D322" s="8"/>
+      <c r="E322" s="8"/>
+      <c r="F322" s="8"/>
+      <c r="G322" s="8"/>
+      <c r="H322" s="8"/>
+      <c r="I322" s="8"/>
+      <c r="J322" s="8"/>
+      <c r="K322" s="8"/>
+      <c r="L322" s="8"/>
+      <c r="M322" s="8"/>
+      <c r="N322" s="8"/>
+      <c r="O322" s="8"/>
+      <c r="P322" s="8"/>
+      <c r="Q322" s="8"/>
+      <c r="R322" s="8"/>
+      <c r="S322" s="8"/>
+      <c r="T322" s="8"/>
+      <c r="U322" s="8"/>
+      <c r="V322" s="8"/>
+      <c r="W322" s="8"/>
+      <c r="X322" s="8"/>
+      <c r="Y322" s="8"/>
+      <c r="Z322" s="8"/>
+      <c r="AA322" s="8"/>
+      <c r="AB322" s="8"/>
+      <c r="AC322" s="8"/>
+      <c r="AD322" s="8"/>
+      <c r="AE322" s="8"/>
+    </row>
+    <row r="323" spans="3:31" ht="17.25">
+      <c r="C323" s="37"/>
+      <c r="D323" s="38"/>
+      <c r="E323" s="38"/>
+      <c r="F323" s="38"/>
+      <c r="G323" s="38"/>
+      <c r="H323" s="38"/>
+      <c r="I323" s="38"/>
+      <c r="J323" s="38"/>
+      <c r="K323" s="38"/>
+      <c r="L323" s="38"/>
+      <c r="M323" s="38"/>
+      <c r="N323" s="38"/>
+      <c r="O323" s="38"/>
+      <c r="P323" s="38"/>
+      <c r="Q323" s="38"/>
+      <c r="R323" s="38"/>
+      <c r="S323" s="38"/>
+      <c r="T323" s="38"/>
+      <c r="U323" s="38"/>
+      <c r="V323" s="38"/>
+      <c r="W323" s="38"/>
+      <c r="X323" s="38"/>
+      <c r="Y323" s="38"/>
+      <c r="Z323" s="38"/>
+      <c r="AA323" s="38"/>
+      <c r="AB323" s="38"/>
+      <c r="AC323" s="38"/>
+      <c r="AD323" s="38"/>
+      <c r="AE323" s="39"/>
+    </row>
+    <row r="324" spans="3:31" ht="28.5">
+      <c r="C324" s="40"/>
+      <c r="D324" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E324" s="42"/>
+      <c r="F324" s="42"/>
+      <c r="G324" s="42"/>
+      <c r="H324" s="42"/>
+      <c r="I324" s="42"/>
+      <c r="J324" s="42"/>
+      <c r="K324" s="42"/>
+      <c r="L324" s="42"/>
+      <c r="M324" s="42"/>
+      <c r="N324" s="42"/>
+      <c r="O324" s="42"/>
+      <c r="P324" s="42"/>
+      <c r="Q324" s="42"/>
+      <c r="R324" s="42"/>
+      <c r="S324" s="42"/>
+      <c r="T324" s="42"/>
+      <c r="U324" s="42"/>
+      <c r="V324" s="42"/>
+      <c r="W324" s="42"/>
+      <c r="X324" s="42"/>
+      <c r="Y324" s="42"/>
+      <c r="Z324" s="42"/>
+      <c r="AA324" s="42"/>
+      <c r="AB324" s="42"/>
+      <c r="AC324" s="42"/>
+      <c r="AD324" s="42"/>
+      <c r="AE324" s="43"/>
+    </row>
+    <row r="325" spans="3:31" ht="21">
+      <c r="C325" s="40"/>
+      <c r="D325" s="59"/>
+      <c r="E325" s="61"/>
+      <c r="F325" s="61"/>
+      <c r="G325" s="61"/>
+      <c r="H325" s="61"/>
+      <c r="I325" s="61"/>
+      <c r="J325" s="61"/>
+      <c r="K325" s="61"/>
+      <c r="L325" s="61"/>
+      <c r="M325" s="61"/>
+      <c r="N325" s="61"/>
+      <c r="O325" s="61"/>
+      <c r="P325" s="61"/>
+      <c r="Q325" s="61"/>
+      <c r="R325" s="61"/>
+      <c r="S325" s="61"/>
+      <c r="T325" s="61"/>
+      <c r="U325" s="61"/>
+      <c r="V325" s="42"/>
+      <c r="W325" s="42"/>
+      <c r="X325" s="42"/>
+      <c r="Y325" s="42"/>
+      <c r="Z325" s="42"/>
+      <c r="AA325" s="42"/>
+      <c r="AB325" s="42"/>
+      <c r="AC325" s="42"/>
+      <c r="AD325" s="42"/>
+      <c r="AE325" s="43"/>
+    </row>
+    <row r="326" spans="3:31" ht="21">
+      <c r="C326" s="40"/>
+      <c r="D326" s="59"/>
+      <c r="E326" s="61"/>
+      <c r="F326" s="61"/>
+      <c r="G326" s="61"/>
+      <c r="H326" s="61"/>
+      <c r="I326" s="61"/>
+      <c r="J326" s="61"/>
+      <c r="K326" s="61"/>
+      <c r="L326" s="61"/>
+      <c r="M326" s="61"/>
+      <c r="N326" s="61"/>
+      <c r="O326" s="61"/>
+      <c r="P326" s="61"/>
+      <c r="Q326" s="61"/>
+      <c r="R326" s="61"/>
+      <c r="S326" s="61"/>
+      <c r="T326" s="61"/>
+      <c r="U326" s="61"/>
+      <c r="V326" s="42"/>
+      <c r="W326" s="42"/>
+      <c r="X326" s="42"/>
+      <c r="Y326" s="42"/>
+      <c r="Z326" s="42"/>
+      <c r="AA326" s="42"/>
+      <c r="AB326" s="42"/>
+      <c r="AC326" s="42"/>
+      <c r="AD326" s="42"/>
+      <c r="AE326" s="43"/>
+    </row>
+    <row r="327" spans="3:31" ht="21">
+      <c r="C327" s="40"/>
+      <c r="D327" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E327" s="61"/>
+      <c r="F327" s="61"/>
+      <c r="G327" s="61"/>
+      <c r="H327" s="61"/>
+      <c r="I327" s="61"/>
+      <c r="J327" s="61"/>
+      <c r="K327" s="61"/>
+      <c r="L327" s="61"/>
+      <c r="M327" s="61"/>
+      <c r="N327" s="61"/>
+      <c r="O327" s="61"/>
+      <c r="P327" s="61"/>
+      <c r="Q327" s="61"/>
+      <c r="R327" s="61"/>
+      <c r="S327" s="61"/>
+      <c r="T327" s="61"/>
+      <c r="U327" s="61"/>
+      <c r="V327" s="42"/>
+      <c r="W327" s="42"/>
+      <c r="X327" s="42"/>
+      <c r="Y327" s="42"/>
+      <c r="Z327" s="42"/>
+      <c r="AA327" s="42"/>
+      <c r="AB327" s="42"/>
+      <c r="AC327" s="42"/>
+      <c r="AD327" s="42"/>
+      <c r="AE327" s="43"/>
+    </row>
+    <row r="328" spans="3:31" ht="17.25">
+      <c r="C328" s="40"/>
+      <c r="D328" s="42"/>
+      <c r="E328" s="8"/>
+      <c r="F328" s="42"/>
+      <c r="G328" s="42"/>
+      <c r="H328" s="42"/>
+      <c r="I328" s="42"/>
+      <c r="J328" s="42"/>
+      <c r="K328" s="42"/>
+      <c r="L328" s="42"/>
+      <c r="M328" s="42"/>
+      <c r="N328" s="42"/>
+      <c r="O328" s="42"/>
+      <c r="P328" s="42"/>
+      <c r="Q328" s="42"/>
+      <c r="R328" s="42"/>
+      <c r="S328" s="42"/>
+      <c r="T328" s="42"/>
+      <c r="U328" s="42"/>
+      <c r="V328" s="42"/>
+      <c r="W328" s="42"/>
+      <c r="X328" s="42"/>
+      <c r="Y328" s="42"/>
+      <c r="Z328" s="42"/>
+      <c r="AA328" s="42"/>
+      <c r="AB328" s="42"/>
+      <c r="AC328" s="42"/>
+      <c r="AD328" s="42"/>
+      <c r="AE328" s="43"/>
+    </row>
+    <row r="329" spans="3:31" ht="28.5">
+      <c r="C329" s="40"/>
+      <c r="D329" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E329" s="42"/>
+      <c r="F329" s="42"/>
+      <c r="G329" s="42"/>
+      <c r="H329" s="42"/>
+      <c r="I329" s="42"/>
+      <c r="J329" s="42"/>
+      <c r="K329" s="42"/>
+      <c r="L329" s="42"/>
+      <c r="M329" s="42"/>
+      <c r="N329" s="42"/>
+      <c r="O329" s="42"/>
+      <c r="P329" s="42"/>
+      <c r="Q329" s="42"/>
+      <c r="R329" s="42"/>
+      <c r="S329" s="42"/>
+      <c r="T329" s="42"/>
+      <c r="U329" s="42"/>
+      <c r="V329" s="42"/>
+      <c r="W329" s="42"/>
+      <c r="X329" s="42"/>
+      <c r="Y329" s="42"/>
+      <c r="Z329" s="42"/>
+      <c r="AA329" s="42"/>
+      <c r="AB329" s="42"/>
+      <c r="AC329" s="42"/>
+      <c r="AD329" s="42"/>
+      <c r="AE329" s="43"/>
+    </row>
+    <row r="330" spans="3:31" ht="21">
+      <c r="C330" s="40"/>
+      <c r="D330" s="60"/>
+      <c r="E330" s="61"/>
+      <c r="F330" s="61"/>
+      <c r="G330" s="61"/>
+      <c r="H330" s="61"/>
+      <c r="I330" s="61"/>
+      <c r="J330" s="61"/>
+      <c r="K330" s="61"/>
+      <c r="L330" s="61"/>
+      <c r="M330" s="61"/>
+      <c r="N330" s="61"/>
+      <c r="O330" s="42"/>
+      <c r="P330" s="42"/>
+      <c r="Q330" s="42"/>
+      <c r="R330" s="42"/>
+      <c r="S330" s="42"/>
+      <c r="T330" s="42"/>
+      <c r="U330" s="42"/>
+      <c r="V330" s="42"/>
+      <c r="W330" s="42"/>
+      <c r="X330" s="42"/>
+      <c r="Y330" s="42"/>
+      <c r="Z330" s="42"/>
+      <c r="AA330" s="42"/>
+      <c r="AB330" s="42"/>
+      <c r="AC330" s="42"/>
+      <c r="AD330" s="42"/>
+      <c r="AE330" s="43"/>
+    </row>
+    <row r="331" spans="3:31" ht="17.25">
+      <c r="C331" s="40"/>
+      <c r="D331" s="42"/>
+      <c r="E331" s="42"/>
+      <c r="F331" s="42"/>
+      <c r="G331" s="42"/>
+      <c r="H331" s="42"/>
+      <c r="I331" s="42"/>
+      <c r="J331" s="42"/>
+      <c r="K331" s="42"/>
+      <c r="L331" s="42"/>
+      <c r="M331" s="42"/>
+      <c r="N331" s="42"/>
+      <c r="O331" s="42"/>
+      <c r="P331" s="42"/>
+      <c r="Q331" s="42"/>
+      <c r="R331" s="42"/>
+      <c r="S331" s="42"/>
+      <c r="T331" s="42"/>
+      <c r="U331" s="42"/>
+      <c r="V331" s="42"/>
+      <c r="W331" s="42"/>
+      <c r="X331" s="42"/>
+      <c r="Y331" s="42"/>
+      <c r="Z331" s="42"/>
+      <c r="AA331" s="42"/>
+      <c r="AB331" s="42"/>
+      <c r="AC331" s="42"/>
+      <c r="AD331" s="42"/>
+      <c r="AE331" s="43"/>
+    </row>
+    <row r="332" spans="3:31" ht="18" thickBot="1">
+      <c r="C332" s="44"/>
+      <c r="D332" s="45"/>
+      <c r="E332" s="45"/>
+      <c r="F332" s="45"/>
+      <c r="G332" s="45"/>
+      <c r="H332" s="45"/>
+      <c r="I332" s="45"/>
+      <c r="J332" s="45"/>
+      <c r="K332" s="45"/>
+      <c r="L332" s="45"/>
+      <c r="M332" s="45"/>
+      <c r="N332" s="45"/>
+      <c r="O332" s="45"/>
+      <c r="P332" s="45"/>
+      <c r="Q332" s="45"/>
+      <c r="R332" s="45"/>
+      <c r="S332" s="45"/>
+      <c r="T332" s="45"/>
+      <c r="U332" s="45"/>
+      <c r="V332" s="45"/>
+      <c r="W332" s="45"/>
+      <c r="X332" s="45"/>
+      <c r="Y332" s="45"/>
+      <c r="Z332" s="45"/>
+      <c r="AA332" s="45"/>
+      <c r="AB332" s="45"/>
+      <c r="AC332" s="45"/>
+      <c r="AD332" s="45"/>
+      <c r="AE332" s="46"/>
+    </row>
+    <row r="334" spans="3:31" ht="30">
+      <c r="C334" s="16" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="306" spans="3:3" ht="30">
-      <c r="C306" s="16" t="s">
+    <row r="335" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D335" s="8" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="336" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D336" s="104" t="s">
+        <v>178</v>
+      </c>
+      <c r="E336" s="105"/>
+      <c r="F336" s="105"/>
+      <c r="G336" s="105"/>
+      <c r="H336" s="105"/>
+      <c r="I336" s="105"/>
+      <c r="J336" s="105"/>
+      <c r="K336" s="106"/>
+    </row>
+    <row r="337" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D337" s="107"/>
+      <c r="E337" s="108"/>
+      <c r="F337" s="108"/>
+      <c r="G337" s="108"/>
+      <c r="H337" s="108"/>
+      <c r="I337" s="108"/>
+      <c r="J337" s="108"/>
+      <c r="K337" s="109"/>
+    </row>
+    <row r="338" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D338" s="107"/>
+      <c r="E338" s="108"/>
+      <c r="F338" s="108"/>
+      <c r="G338" s="108"/>
+      <c r="H338" s="108"/>
+      <c r="I338" s="108"/>
+      <c r="J338" s="108"/>
+      <c r="K338" s="109"/>
+    </row>
+    <row r="339" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D339" s="107"/>
+      <c r="E339" s="108"/>
+      <c r="F339" s="108"/>
+      <c r="G339" s="108"/>
+      <c r="H339" s="108"/>
+      <c r="I339" s="108"/>
+      <c r="J339" s="108"/>
+      <c r="K339" s="109"/>
+    </row>
+    <row r="340" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D340" s="107"/>
+      <c r="E340" s="108"/>
+      <c r="F340" s="108"/>
+      <c r="G340" s="108"/>
+      <c r="H340" s="108"/>
+      <c r="I340" s="108"/>
+      <c r="J340" s="108"/>
+      <c r="K340" s="109"/>
+    </row>
+    <row r="341" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D341" s="107"/>
+      <c r="E341" s="108"/>
+      <c r="F341" s="108"/>
+      <c r="G341" s="108"/>
+      <c r="H341" s="108"/>
+      <c r="I341" s="108"/>
+      <c r="J341" s="108"/>
+      <c r="K341" s="109"/>
+    </row>
+    <row r="342" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D342" s="107"/>
+      <c r="E342" s="108"/>
+      <c r="F342" s="108"/>
+      <c r="G342" s="108"/>
+      <c r="H342" s="108"/>
+      <c r="I342" s="108"/>
+      <c r="J342" s="108"/>
+      <c r="K342" s="109"/>
+    </row>
+    <row r="343" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D343" s="107"/>
+      <c r="E343" s="108"/>
+      <c r="F343" s="108"/>
+      <c r="G343" s="108"/>
+      <c r="H343" s="108"/>
+      <c r="I343" s="108"/>
+      <c r="J343" s="108"/>
+      <c r="K343" s="109"/>
+    </row>
+    <row r="344" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D344" s="107"/>
+      <c r="E344" s="108"/>
+      <c r="F344" s="108"/>
+      <c r="G344" s="108"/>
+      <c r="H344" s="108"/>
+      <c r="I344" s="108"/>
+      <c r="J344" s="108"/>
+      <c r="K344" s="109"/>
+      <c r="L344" s="33"/>
+      <c r="M344" s="17"/>
+      <c r="N344" s="17"/>
+    </row>
+    <row r="345" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D345" s="107"/>
+      <c r="E345" s="108"/>
+      <c r="F345" s="108"/>
+      <c r="G345" s="108"/>
+      <c r="H345" s="108"/>
+      <c r="I345" s="108"/>
+      <c r="J345" s="108"/>
+      <c r="K345" s="109"/>
+    </row>
+    <row r="346" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D346" s="107"/>
+      <c r="E346" s="108"/>
+      <c r="F346" s="108"/>
+      <c r="G346" s="108"/>
+      <c r="H346" s="108"/>
+      <c r="I346" s="108"/>
+      <c r="J346" s="108"/>
+      <c r="K346" s="109"/>
+    </row>
+    <row r="347" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D347" s="107"/>
+      <c r="E347" s="108"/>
+      <c r="F347" s="108"/>
+      <c r="G347" s="108"/>
+      <c r="H347" s="108"/>
+      <c r="I347" s="108"/>
+      <c r="J347" s="108"/>
+      <c r="K347" s="109"/>
+    </row>
+    <row r="348" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D348" s="107"/>
+      <c r="E348" s="108"/>
+      <c r="F348" s="108"/>
+      <c r="G348" s="108"/>
+      <c r="H348" s="108"/>
+      <c r="I348" s="108"/>
+      <c r="J348" s="108"/>
+      <c r="K348" s="109"/>
+    </row>
+    <row r="349" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D349" s="107"/>
+      <c r="E349" s="108"/>
+      <c r="F349" s="108"/>
+      <c r="G349" s="108"/>
+      <c r="H349" s="108"/>
+      <c r="I349" s="108"/>
+      <c r="J349" s="108"/>
+      <c r="K349" s="109"/>
+    </row>
+    <row r="350" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D350" s="107"/>
+      <c r="E350" s="108"/>
+      <c r="F350" s="108"/>
+      <c r="G350" s="108"/>
+      <c r="H350" s="108"/>
+      <c r="I350" s="108"/>
+      <c r="J350" s="108"/>
+      <c r="K350" s="109"/>
+    </row>
+    <row r="351" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D351" s="107"/>
+      <c r="E351" s="108"/>
+      <c r="F351" s="108"/>
+      <c r="G351" s="108"/>
+      <c r="H351" s="108"/>
+      <c r="I351" s="108"/>
+      <c r="J351" s="108"/>
+      <c r="K351" s="109"/>
+    </row>
+    <row r="352" spans="4:14" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D352" s="110"/>
+      <c r="E352" s="111"/>
+      <c r="F352" s="111"/>
+      <c r="G352" s="111"/>
+      <c r="H352" s="111"/>
+      <c r="I352" s="111"/>
+      <c r="J352" s="111"/>
+      <c r="K352" s="112"/>
+    </row>
+    <row r="353" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D353" s="71"/>
+      <c r="E353" s="71"/>
+      <c r="F353" s="71"/>
+      <c r="G353" s="71"/>
+      <c r="H353" s="71"/>
+      <c r="I353" s="71"/>
+      <c r="J353" s="71"/>
+      <c r="K353" s="71"/>
+    </row>
+    <row r="354" spans="4:14" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D354" s="8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="355" spans="4:14" s="8" customFormat="1" ht="17.25" customHeight="1">
+      <c r="D355" s="104" t="s">
+        <v>180</v>
+      </c>
+      <c r="E355" s="152"/>
+      <c r="F355" s="152"/>
+      <c r="G355" s="152"/>
+      <c r="H355" s="152"/>
+      <c r="I355" s="152"/>
+      <c r="J355" s="152"/>
+      <c r="K355" s="153"/>
+    </row>
+    <row r="356" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D356" s="154"/>
+      <c r="E356" s="155"/>
+      <c r="F356" s="155"/>
+      <c r="G356" s="155"/>
+      <c r="H356" s="155"/>
+      <c r="I356" s="155"/>
+      <c r="J356" s="155"/>
+      <c r="K356" s="156"/>
+    </row>
+    <row r="357" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D357" s="154"/>
+      <c r="E357" s="155"/>
+      <c r="F357" s="155"/>
+      <c r="G357" s="155"/>
+      <c r="H357" s="155"/>
+      <c r="I357" s="155"/>
+      <c r="J357" s="155"/>
+      <c r="K357" s="156"/>
+    </row>
+    <row r="358" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D358" s="154"/>
+      <c r="E358" s="155"/>
+      <c r="F358" s="155"/>
+      <c r="G358" s="155"/>
+      <c r="H358" s="155"/>
+      <c r="I358" s="155"/>
+      <c r="J358" s="155"/>
+      <c r="K358" s="156"/>
+    </row>
+    <row r="359" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D359" s="154"/>
+      <c r="E359" s="155"/>
+      <c r="F359" s="155"/>
+      <c r="G359" s="155"/>
+      <c r="H359" s="155"/>
+      <c r="I359" s="155"/>
+      <c r="J359" s="155"/>
+      <c r="K359" s="156"/>
+    </row>
+    <row r="360" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D360" s="154"/>
+      <c r="E360" s="155"/>
+      <c r="F360" s="155"/>
+      <c r="G360" s="155"/>
+      <c r="H360" s="155"/>
+      <c r="I360" s="155"/>
+      <c r="J360" s="155"/>
+      <c r="K360" s="156"/>
+    </row>
+    <row r="361" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D361" s="154"/>
+      <c r="E361" s="155"/>
+      <c r="F361" s="155"/>
+      <c r="G361" s="155"/>
+      <c r="H361" s="155"/>
+      <c r="I361" s="155"/>
+      <c r="J361" s="155"/>
+      <c r="K361" s="156"/>
+    </row>
+    <row r="362" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D362" s="154"/>
+      <c r="E362" s="155"/>
+      <c r="F362" s="155"/>
+      <c r="G362" s="155"/>
+      <c r="H362" s="155"/>
+      <c r="I362" s="155"/>
+      <c r="J362" s="155"/>
+      <c r="K362" s="156"/>
+    </row>
+    <row r="363" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D363" s="154"/>
+      <c r="E363" s="155"/>
+      <c r="F363" s="155"/>
+      <c r="G363" s="155"/>
+      <c r="H363" s="155"/>
+      <c r="I363" s="155"/>
+      <c r="J363" s="155"/>
+      <c r="K363" s="156"/>
+    </row>
+    <row r="364" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D364" s="154"/>
+      <c r="E364" s="155"/>
+      <c r="F364" s="155"/>
+      <c r="G364" s="155"/>
+      <c r="H364" s="155"/>
+      <c r="I364" s="155"/>
+      <c r="J364" s="155"/>
+      <c r="K364" s="156"/>
+    </row>
+    <row r="365" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D365" s="154"/>
+      <c r="E365" s="155"/>
+      <c r="F365" s="155"/>
+      <c r="G365" s="155"/>
+      <c r="H365" s="155"/>
+      <c r="I365" s="155"/>
+      <c r="J365" s="155"/>
+      <c r="K365" s="156"/>
+    </row>
+    <row r="366" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D366" s="154"/>
+      <c r="E366" s="155"/>
+      <c r="F366" s="155"/>
+      <c r="G366" s="155"/>
+      <c r="H366" s="155"/>
+      <c r="I366" s="155"/>
+      <c r="J366" s="155"/>
+      <c r="K366" s="156"/>
+    </row>
+    <row r="367" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D367" s="154"/>
+      <c r="E367" s="155"/>
+      <c r="F367" s="155"/>
+      <c r="G367" s="155"/>
+      <c r="H367" s="155"/>
+      <c r="I367" s="155"/>
+      <c r="J367" s="155"/>
+      <c r="K367" s="156"/>
+      <c r="L367" s="33"/>
+      <c r="M367" s="17"/>
+      <c r="N367" s="17"/>
+    </row>
+    <row r="368" spans="4:14" s="8" customFormat="1" ht="17.25">
+      <c r="D368" s="154"/>
+      <c r="E368" s="155"/>
+      <c r="F368" s="155"/>
+      <c r="G368" s="155"/>
+      <c r="H368" s="155"/>
+      <c r="I368" s="155"/>
+      <c r="J368" s="155"/>
+      <c r="K368" s="156"/>
+    </row>
+    <row r="369" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D369" s="154"/>
+      <c r="E369" s="155"/>
+      <c r="F369" s="155"/>
+      <c r="G369" s="155"/>
+      <c r="H369" s="155"/>
+      <c r="I369" s="155"/>
+      <c r="J369" s="155"/>
+      <c r="K369" s="156"/>
+    </row>
+    <row r="370" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D370" s="154"/>
+      <c r="E370" s="155"/>
+      <c r="F370" s="155"/>
+      <c r="G370" s="155"/>
+      <c r="H370" s="155"/>
+      <c r="I370" s="155"/>
+      <c r="J370" s="155"/>
+      <c r="K370" s="156"/>
+    </row>
+    <row r="371" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D371" s="154"/>
+      <c r="E371" s="155"/>
+      <c r="F371" s="155"/>
+      <c r="G371" s="155"/>
+      <c r="H371" s="155"/>
+      <c r="I371" s="155"/>
+      <c r="J371" s="155"/>
+      <c r="K371" s="156"/>
+    </row>
+    <row r="372" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D372" s="154"/>
+      <c r="E372" s="155"/>
+      <c r="F372" s="155"/>
+      <c r="G372" s="155"/>
+      <c r="H372" s="155"/>
+      <c r="I372" s="155"/>
+      <c r="J372" s="155"/>
+      <c r="K372" s="156"/>
+    </row>
+    <row r="373" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D373" s="154"/>
+      <c r="E373" s="155"/>
+      <c r="F373" s="155"/>
+      <c r="G373" s="155"/>
+      <c r="H373" s="155"/>
+      <c r="I373" s="155"/>
+      <c r="J373" s="155"/>
+      <c r="K373" s="156"/>
+    </row>
+    <row r="374" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D374" s="154"/>
+      <c r="E374" s="155"/>
+      <c r="F374" s="155"/>
+      <c r="G374" s="155"/>
+      <c r="H374" s="155"/>
+      <c r="I374" s="155"/>
+      <c r="J374" s="155"/>
+      <c r="K374" s="156"/>
+    </row>
+    <row r="375" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D375" s="154"/>
+      <c r="E375" s="155"/>
+      <c r="F375" s="155"/>
+      <c r="G375" s="155"/>
+      <c r="H375" s="155"/>
+      <c r="I375" s="155"/>
+      <c r="J375" s="155"/>
+      <c r="K375" s="156"/>
+    </row>
+    <row r="376" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D376" s="154"/>
+      <c r="E376" s="155"/>
+      <c r="F376" s="155"/>
+      <c r="G376" s="155"/>
+      <c r="H376" s="155"/>
+      <c r="I376" s="155"/>
+      <c r="J376" s="155"/>
+      <c r="K376" s="156"/>
+    </row>
+    <row r="377" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D377" s="154"/>
+      <c r="E377" s="155"/>
+      <c r="F377" s="155"/>
+      <c r="G377" s="155"/>
+      <c r="H377" s="155"/>
+      <c r="I377" s="155"/>
+      <c r="J377" s="155"/>
+      <c r="K377" s="156"/>
+    </row>
+    <row r="378" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D378" s="154"/>
+      <c r="E378" s="155"/>
+      <c r="F378" s="155"/>
+      <c r="G378" s="155"/>
+      <c r="H378" s="155"/>
+      <c r="I378" s="155"/>
+      <c r="J378" s="155"/>
+      <c r="K378" s="156"/>
+    </row>
+    <row r="379" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D379" s="154"/>
+      <c r="E379" s="155"/>
+      <c r="F379" s="155"/>
+      <c r="G379" s="155"/>
+      <c r="H379" s="155"/>
+      <c r="I379" s="155"/>
+      <c r="J379" s="155"/>
+      <c r="K379" s="156"/>
+    </row>
+    <row r="380" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D380" s="154"/>
+      <c r="E380" s="155"/>
+      <c r="F380" s="155"/>
+      <c r="G380" s="155"/>
+      <c r="H380" s="155"/>
+      <c r="I380" s="155"/>
+      <c r="J380" s="155"/>
+      <c r="K380" s="156"/>
+    </row>
+    <row r="381" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D381" s="154"/>
+      <c r="E381" s="155"/>
+      <c r="F381" s="155"/>
+      <c r="G381" s="155"/>
+      <c r="H381" s="155"/>
+      <c r="I381" s="155"/>
+      <c r="J381" s="155"/>
+      <c r="K381" s="156"/>
+    </row>
+    <row r="382" spans="4:11" s="8" customFormat="1" ht="17.25">
+      <c r="D382" s="154"/>
+      <c r="E382" s="155"/>
+      <c r="F382" s="155"/>
+      <c r="G382" s="155"/>
+      <c r="H382" s="155"/>
+      <c r="I382" s="155"/>
+      <c r="J382" s="155"/>
+      <c r="K382" s="156"/>
+    </row>
+    <row r="383" spans="4:11" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D383" s="157"/>
+      <c r="E383" s="158"/>
+      <c r="F383" s="158"/>
+      <c r="G383" s="158"/>
+      <c r="H383" s="158"/>
+      <c r="I383" s="158"/>
+      <c r="J383" s="158"/>
+      <c r="K383" s="159"/>
+    </row>
+    <row r="384" spans="4:11" s="8" customFormat="1" ht="18" thickBot="1"/>
+    <row r="385" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="C385" s="37"/>
+      <c r="D385" s="38"/>
+      <c r="E385" s="38"/>
+      <c r="F385" s="38"/>
+      <c r="G385" s="38"/>
+      <c r="H385" s="38"/>
+      <c r="I385" s="38"/>
+      <c r="J385" s="38"/>
+      <c r="K385" s="38"/>
+      <c r="L385" s="38"/>
+      <c r="M385" s="38"/>
+      <c r="N385" s="38"/>
+      <c r="O385" s="38"/>
+      <c r="P385" s="38"/>
+      <c r="Q385" s="38"/>
+      <c r="R385" s="38"/>
+      <c r="S385" s="38"/>
+      <c r="T385" s="38"/>
+      <c r="U385" s="38"/>
+      <c r="V385" s="38"/>
+      <c r="W385" s="38"/>
+      <c r="X385" s="38"/>
+      <c r="Y385" s="38"/>
+      <c r="Z385" s="38"/>
+      <c r="AA385" s="38"/>
+      <c r="AB385" s="38"/>
+      <c r="AC385" s="38"/>
+      <c r="AD385" s="38"/>
+      <c r="AE385" s="39"/>
+    </row>
+    <row r="386" spans="3:31" s="8" customFormat="1" ht="28.5">
+      <c r="C386" s="40"/>
+      <c r="D386" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E386" s="42"/>
+      <c r="F386" s="42"/>
+      <c r="G386" s="42"/>
+      <c r="H386" s="42"/>
+      <c r="I386" s="42"/>
+      <c r="J386" s="42"/>
+      <c r="K386" s="42"/>
+      <c r="L386" s="42"/>
+      <c r="M386" s="42"/>
+      <c r="N386" s="42"/>
+      <c r="O386" s="42"/>
+      <c r="P386" s="42"/>
+      <c r="Q386" s="42"/>
+      <c r="R386" s="42"/>
+      <c r="S386" s="42"/>
+      <c r="T386" s="42"/>
+      <c r="U386" s="42"/>
+      <c r="V386" s="42"/>
+      <c r="W386" s="42"/>
+      <c r="X386" s="42"/>
+      <c r="Y386" s="42"/>
+      <c r="Z386" s="42"/>
+      <c r="AA386" s="42"/>
+      <c r="AB386" s="42"/>
+      <c r="AC386" s="42"/>
+      <c r="AD386" s="42"/>
+      <c r="AE386" s="43"/>
+    </row>
+    <row r="387" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C387" s="40"/>
+      <c r="D387" s="59"/>
+      <c r="E387" s="61"/>
+      <c r="F387" s="61"/>
+      <c r="G387" s="61"/>
+      <c r="H387" s="61"/>
+      <c r="I387" s="61"/>
+      <c r="J387" s="61"/>
+      <c r="K387" s="61"/>
+      <c r="L387" s="61"/>
+      <c r="M387" s="61"/>
+      <c r="N387" s="61"/>
+      <c r="O387" s="61"/>
+      <c r="P387" s="61"/>
+      <c r="Q387" s="61"/>
+      <c r="R387" s="61"/>
+      <c r="S387" s="61"/>
+      <c r="T387" s="61"/>
+      <c r="U387" s="61"/>
+      <c r="V387" s="42"/>
+      <c r="W387" s="42"/>
+      <c r="X387" s="42"/>
+      <c r="Y387" s="42"/>
+      <c r="Z387" s="42"/>
+      <c r="AA387" s="42"/>
+      <c r="AB387" s="42"/>
+      <c r="AC387" s="42"/>
+      <c r="AD387" s="42"/>
+      <c r="AE387" s="43"/>
+    </row>
+    <row r="388" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C388" s="40"/>
+      <c r="D388" s="59"/>
+      <c r="E388" s="61"/>
+      <c r="F388" s="61"/>
+      <c r="G388" s="61"/>
+      <c r="H388" s="61"/>
+      <c r="I388" s="61"/>
+      <c r="J388" s="61"/>
+      <c r="K388" s="61"/>
+      <c r="L388" s="61"/>
+      <c r="M388" s="61"/>
+      <c r="N388" s="61"/>
+      <c r="O388" s="61"/>
+      <c r="P388" s="61"/>
+      <c r="Q388" s="61"/>
+      <c r="R388" s="61"/>
+      <c r="S388" s="61"/>
+      <c r="T388" s="61"/>
+      <c r="U388" s="61"/>
+      <c r="V388" s="42"/>
+      <c r="W388" s="42"/>
+      <c r="X388" s="42"/>
+      <c r="Y388" s="42"/>
+      <c r="Z388" s="42"/>
+      <c r="AA388" s="42"/>
+      <c r="AB388" s="42"/>
+      <c r="AC388" s="42"/>
+      <c r="AD388" s="42"/>
+      <c r="AE388" s="43"/>
+    </row>
+    <row r="389" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C389" s="40"/>
+      <c r="D389" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E389" s="61"/>
+      <c r="F389" s="61"/>
+      <c r="G389" s="61"/>
+      <c r="H389" s="61"/>
+      <c r="I389" s="61"/>
+      <c r="J389" s="61"/>
+      <c r="K389" s="61"/>
+      <c r="L389" s="61"/>
+      <c r="M389" s="61"/>
+      <c r="N389" s="61"/>
+      <c r="O389" s="61"/>
+      <c r="P389" s="61"/>
+      <c r="Q389" s="61"/>
+      <c r="R389" s="61"/>
+      <c r="S389" s="61"/>
+      <c r="T389" s="61"/>
+      <c r="U389" s="61"/>
+      <c r="V389" s="42"/>
+      <c r="W389" s="42"/>
+      <c r="X389" s="42"/>
+      <c r="Y389" s="42"/>
+      <c r="Z389" s="42"/>
+      <c r="AA389" s="42"/>
+      <c r="AB389" s="42"/>
+      <c r="AC389" s="42"/>
+      <c r="AD389" s="42"/>
+      <c r="AE389" s="43"/>
+    </row>
+    <row r="390" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="C390" s="40"/>
+      <c r="D390" s="42"/>
+      <c r="F390" s="42"/>
+      <c r="G390" s="42"/>
+      <c r="H390" s="42"/>
+      <c r="I390" s="42"/>
+      <c r="J390" s="42"/>
+      <c r="K390" s="42"/>
+      <c r="L390" s="42"/>
+      <c r="M390" s="42"/>
+      <c r="N390" s="42"/>
+      <c r="O390" s="42"/>
+      <c r="P390" s="42"/>
+      <c r="Q390" s="42"/>
+      <c r="R390" s="42"/>
+      <c r="S390" s="42"/>
+      <c r="T390" s="42"/>
+      <c r="U390" s="42"/>
+      <c r="V390" s="42"/>
+      <c r="W390" s="42"/>
+      <c r="X390" s="42"/>
+      <c r="Y390" s="42"/>
+      <c r="Z390" s="42"/>
+      <c r="AA390" s="42"/>
+      <c r="AB390" s="42"/>
+      <c r="AC390" s="42"/>
+      <c r="AD390" s="42"/>
+      <c r="AE390" s="43"/>
+    </row>
+    <row r="391" spans="3:31" s="8" customFormat="1" ht="28.5">
+      <c r="C391" s="40"/>
+      <c r="D391" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E391" s="42"/>
+      <c r="F391" s="42"/>
+      <c r="G391" s="42"/>
+      <c r="H391" s="42"/>
+      <c r="I391" s="42"/>
+      <c r="J391" s="42"/>
+      <c r="K391" s="42"/>
+      <c r="L391" s="42"/>
+      <c r="M391" s="42"/>
+      <c r="N391" s="42"/>
+      <c r="O391" s="42"/>
+      <c r="P391" s="42"/>
+      <c r="Q391" s="42"/>
+      <c r="R391" s="42"/>
+      <c r="S391" s="42"/>
+      <c r="T391" s="42"/>
+      <c r="U391" s="42"/>
+      <c r="V391" s="42"/>
+      <c r="W391" s="42"/>
+      <c r="X391" s="42"/>
+      <c r="Y391" s="42"/>
+      <c r="Z391" s="42"/>
+      <c r="AA391" s="42"/>
+      <c r="AB391" s="42"/>
+      <c r="AC391" s="42"/>
+      <c r="AD391" s="42"/>
+      <c r="AE391" s="43"/>
+    </row>
+    <row r="392" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C392" s="40"/>
+      <c r="D392" s="60"/>
+      <c r="E392" s="61"/>
+      <c r="F392" s="61"/>
+      <c r="G392" s="61"/>
+      <c r="H392" s="61"/>
+      <c r="I392" s="61"/>
+      <c r="J392" s="61"/>
+      <c r="K392" s="61"/>
+      <c r="L392" s="61"/>
+      <c r="M392" s="61"/>
+      <c r="N392" s="61"/>
+      <c r="O392" s="42"/>
+      <c r="P392" s="42"/>
+      <c r="Q392" s="42"/>
+      <c r="R392" s="42"/>
+      <c r="S392" s="42"/>
+      <c r="T392" s="42"/>
+      <c r="U392" s="42"/>
+      <c r="V392" s="42"/>
+      <c r="W392" s="42"/>
+      <c r="X392" s="42"/>
+      <c r="Y392" s="42"/>
+      <c r="Z392" s="42"/>
+      <c r="AA392" s="42"/>
+      <c r="AB392" s="42"/>
+      <c r="AC392" s="42"/>
+      <c r="AD392" s="42"/>
+      <c r="AE392" s="43"/>
+    </row>
+    <row r="393" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="C393" s="40"/>
+      <c r="D393" s="42"/>
+      <c r="E393" s="42"/>
+      <c r="F393" s="42"/>
+      <c r="G393" s="42"/>
+      <c r="H393" s="42"/>
+      <c r="I393" s="42"/>
+      <c r="J393" s="42"/>
+      <c r="K393" s="42"/>
+      <c r="L393" s="42"/>
+      <c r="M393" s="42"/>
+      <c r="N393" s="42"/>
+      <c r="O393" s="42"/>
+      <c r="P393" s="42"/>
+      <c r="Q393" s="42"/>
+      <c r="R393" s="42"/>
+      <c r="S393" s="42"/>
+      <c r="T393" s="42"/>
+      <c r="U393" s="42"/>
+      <c r="V393" s="42"/>
+      <c r="W393" s="42"/>
+      <c r="X393" s="42"/>
+      <c r="Y393" s="42"/>
+      <c r="Z393" s="42"/>
+      <c r="AA393" s="42"/>
+      <c r="AB393" s="42"/>
+      <c r="AC393" s="42"/>
+      <c r="AD393" s="42"/>
+      <c r="AE393" s="43"/>
+    </row>
+    <row r="394" spans="3:31" ht="18" thickBot="1">
+      <c r="C394" s="44"/>
+      <c r="D394" s="45"/>
+      <c r="E394" s="45"/>
+      <c r="F394" s="45"/>
+      <c r="G394" s="45"/>
+      <c r="H394" s="45"/>
+      <c r="I394" s="45"/>
+      <c r="J394" s="45"/>
+      <c r="K394" s="45"/>
+      <c r="L394" s="45"/>
+      <c r="M394" s="45"/>
+      <c r="N394" s="45"/>
+      <c r="O394" s="45"/>
+      <c r="P394" s="45"/>
+      <c r="Q394" s="45"/>
+      <c r="R394" s="45"/>
+      <c r="S394" s="45"/>
+      <c r="T394" s="45"/>
+      <c r="U394" s="45"/>
+      <c r="V394" s="45"/>
+      <c r="W394" s="45"/>
+      <c r="X394" s="45"/>
+      <c r="Y394" s="45"/>
+      <c r="Z394" s="45"/>
+      <c r="AA394" s="45"/>
+      <c r="AB394" s="45"/>
+      <c r="AC394" s="45"/>
+      <c r="AD394" s="45"/>
+      <c r="AE394" s="46"/>
+    </row>
+    <row r="395" spans="3:31" ht="17.25">
+      <c r="C395" s="8"/>
+      <c r="D395" s="8"/>
+      <c r="E395" s="8"/>
+      <c r="F395" s="8"/>
+      <c r="G395" s="8"/>
+      <c r="H395" s="8"/>
+      <c r="I395" s="8"/>
+      <c r="J395" s="8"/>
+      <c r="K395" s="8"/>
+      <c r="L395" s="8"/>
+      <c r="M395" s="8"/>
+      <c r="N395" s="8"/>
+      <c r="O395" s="8"/>
+      <c r="P395" s="8"/>
+      <c r="Q395" s="8"/>
+      <c r="R395" s="8"/>
+      <c r="S395" s="8"/>
+      <c r="T395" s="8"/>
+      <c r="U395" s="8"/>
+      <c r="V395" s="8"/>
+      <c r="W395" s="8"/>
+      <c r="X395" s="8"/>
+      <c r="Y395" s="8"/>
+      <c r="Z395" s="8"/>
+      <c r="AA395" s="8"/>
+      <c r="AB395" s="8"/>
+      <c r="AC395" s="8"/>
+      <c r="AD395" s="8"/>
+      <c r="AE395" s="8"/>
+    </row>
+    <row r="396" spans="3:31" ht="30">
+      <c r="C396" s="16" t="s">
         <v>167</v>
       </c>
     </row>
+    <row r="397" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D397" s="8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="398" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D398" s="104" t="s">
+        <v>182</v>
+      </c>
+      <c r="E398" s="105"/>
+      <c r="F398" s="105"/>
+      <c r="G398" s="105"/>
+      <c r="H398" s="105"/>
+      <c r="I398" s="105"/>
+      <c r="J398" s="105"/>
+      <c r="K398" s="106"/>
+    </row>
+    <row r="399" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D399" s="107"/>
+      <c r="E399" s="108"/>
+      <c r="F399" s="108"/>
+      <c r="G399" s="108"/>
+      <c r="H399" s="108"/>
+      <c r="I399" s="108"/>
+      <c r="J399" s="108"/>
+      <c r="K399" s="109"/>
+    </row>
+    <row r="400" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D400" s="107"/>
+      <c r="E400" s="108"/>
+      <c r="F400" s="108"/>
+      <c r="G400" s="108"/>
+      <c r="H400" s="108"/>
+      <c r="I400" s="108"/>
+      <c r="J400" s="108"/>
+      <c r="K400" s="109"/>
+    </row>
+    <row r="401" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D401" s="107"/>
+      <c r="E401" s="108"/>
+      <c r="F401" s="108"/>
+      <c r="G401" s="108"/>
+      <c r="H401" s="108"/>
+      <c r="I401" s="108"/>
+      <c r="J401" s="108"/>
+      <c r="K401" s="109"/>
+    </row>
+    <row r="402" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D402" s="107"/>
+      <c r="E402" s="108"/>
+      <c r="F402" s="108"/>
+      <c r="G402" s="108"/>
+      <c r="H402" s="108"/>
+      <c r="I402" s="108"/>
+      <c r="J402" s="108"/>
+      <c r="K402" s="109"/>
+    </row>
+    <row r="403" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D403" s="107"/>
+      <c r="E403" s="108"/>
+      <c r="F403" s="108"/>
+      <c r="G403" s="108"/>
+      <c r="H403" s="108"/>
+      <c r="I403" s="108"/>
+      <c r="J403" s="108"/>
+      <c r="K403" s="109"/>
+    </row>
+    <row r="404" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D404" s="107"/>
+      <c r="E404" s="108"/>
+      <c r="F404" s="108"/>
+      <c r="G404" s="108"/>
+      <c r="H404" s="108"/>
+      <c r="I404" s="108"/>
+      <c r="J404" s="108"/>
+      <c r="K404" s="109"/>
+    </row>
+    <row r="405" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D405" s="107"/>
+      <c r="E405" s="108"/>
+      <c r="F405" s="108"/>
+      <c r="G405" s="108"/>
+      <c r="H405" s="108"/>
+      <c r="I405" s="108"/>
+      <c r="J405" s="108"/>
+      <c r="K405" s="109"/>
+    </row>
+    <row r="406" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D406" s="107"/>
+      <c r="E406" s="108"/>
+      <c r="F406" s="108"/>
+      <c r="G406" s="108"/>
+      <c r="H406" s="108"/>
+      <c r="I406" s="108"/>
+      <c r="J406" s="108"/>
+      <c r="K406" s="109"/>
+    </row>
+    <row r="407" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D407" s="107"/>
+      <c r="E407" s="108"/>
+      <c r="F407" s="108"/>
+      <c r="G407" s="108"/>
+      <c r="H407" s="108"/>
+      <c r="I407" s="108"/>
+      <c r="J407" s="108"/>
+      <c r="K407" s="109"/>
+    </row>
+    <row r="408" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="D408" s="107"/>
+      <c r="E408" s="108"/>
+      <c r="F408" s="108"/>
+      <c r="G408" s="108"/>
+      <c r="H408" s="108"/>
+      <c r="I408" s="108"/>
+      <c r="J408" s="108"/>
+      <c r="K408" s="109"/>
+    </row>
+    <row r="409" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1">
+      <c r="D409" s="110"/>
+      <c r="E409" s="111"/>
+      <c r="F409" s="111"/>
+      <c r="G409" s="111"/>
+      <c r="H409" s="111"/>
+      <c r="I409" s="111"/>
+      <c r="J409" s="111"/>
+      <c r="K409" s="112"/>
+    </row>
+    <row r="410" spans="3:31" s="8" customFormat="1" ht="18" thickBot="1"/>
+    <row r="411" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="C411" s="37"/>
+      <c r="D411" s="38"/>
+      <c r="E411" s="38"/>
+      <c r="F411" s="38"/>
+      <c r="G411" s="38"/>
+      <c r="H411" s="38"/>
+      <c r="I411" s="38"/>
+      <c r="J411" s="38"/>
+      <c r="K411" s="38"/>
+      <c r="L411" s="38"/>
+      <c r="M411" s="38"/>
+      <c r="N411" s="38"/>
+      <c r="O411" s="38"/>
+      <c r="P411" s="38"/>
+      <c r="Q411" s="38"/>
+      <c r="R411" s="38"/>
+      <c r="S411" s="38"/>
+      <c r="T411" s="38"/>
+      <c r="U411" s="38"/>
+      <c r="V411" s="38"/>
+      <c r="W411" s="38"/>
+      <c r="X411" s="38"/>
+      <c r="Y411" s="38"/>
+      <c r="Z411" s="38"/>
+      <c r="AA411" s="38"/>
+      <c r="AB411" s="38"/>
+      <c r="AC411" s="38"/>
+      <c r="AD411" s="38"/>
+      <c r="AE411" s="39"/>
+    </row>
+    <row r="412" spans="3:31" s="8" customFormat="1" ht="28.5">
+      <c r="C412" s="40"/>
+      <c r="D412" s="41" t="s">
+        <v>95</v>
+      </c>
+      <c r="E412" s="42"/>
+      <c r="F412" s="42"/>
+      <c r="G412" s="42"/>
+      <c r="H412" s="42"/>
+      <c r="I412" s="42"/>
+      <c r="J412" s="42"/>
+      <c r="K412" s="42"/>
+      <c r="L412" s="42"/>
+      <c r="M412" s="42"/>
+      <c r="N412" s="42"/>
+      <c r="O412" s="42"/>
+      <c r="P412" s="42"/>
+      <c r="Q412" s="42"/>
+      <c r="R412" s="42"/>
+      <c r="S412" s="42"/>
+      <c r="T412" s="42"/>
+      <c r="U412" s="42"/>
+      <c r="V412" s="42"/>
+      <c r="W412" s="42"/>
+      <c r="X412" s="42"/>
+      <c r="Y412" s="42"/>
+      <c r="Z412" s="42"/>
+      <c r="AA412" s="42"/>
+      <c r="AB412" s="42"/>
+      <c r="AC412" s="42"/>
+      <c r="AD412" s="42"/>
+      <c r="AE412" s="43"/>
+    </row>
+    <row r="413" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C413" s="40"/>
+      <c r="D413" s="59"/>
+      <c r="E413" s="61"/>
+      <c r="F413" s="61"/>
+      <c r="G413" s="61"/>
+      <c r="H413" s="61"/>
+      <c r="I413" s="61"/>
+      <c r="J413" s="61"/>
+      <c r="K413" s="61"/>
+      <c r="L413" s="61"/>
+      <c r="M413" s="61"/>
+      <c r="N413" s="61"/>
+      <c r="O413" s="61"/>
+      <c r="P413" s="61"/>
+      <c r="Q413" s="61"/>
+      <c r="R413" s="61"/>
+      <c r="S413" s="61"/>
+      <c r="T413" s="61"/>
+      <c r="U413" s="61"/>
+      <c r="V413" s="42"/>
+      <c r="W413" s="42"/>
+      <c r="X413" s="42"/>
+      <c r="Y413" s="42"/>
+      <c r="Z413" s="42"/>
+      <c r="AA413" s="42"/>
+      <c r="AB413" s="42"/>
+      <c r="AC413" s="42"/>
+      <c r="AD413" s="42"/>
+      <c r="AE413" s="43"/>
+    </row>
+    <row r="414" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C414" s="40"/>
+      <c r="D414" s="59"/>
+      <c r="E414" s="61"/>
+      <c r="F414" s="61"/>
+      <c r="G414" s="61"/>
+      <c r="H414" s="61"/>
+      <c r="I414" s="61"/>
+      <c r="J414" s="61"/>
+      <c r="K414" s="61"/>
+      <c r="L414" s="61"/>
+      <c r="M414" s="61"/>
+      <c r="N414" s="61"/>
+      <c r="O414" s="61"/>
+      <c r="P414" s="61"/>
+      <c r="Q414" s="61"/>
+      <c r="R414" s="61"/>
+      <c r="S414" s="61"/>
+      <c r="T414" s="61"/>
+      <c r="U414" s="61"/>
+      <c r="V414" s="42"/>
+      <c r="W414" s="42"/>
+      <c r="X414" s="42"/>
+      <c r="Y414" s="42"/>
+      <c r="Z414" s="42"/>
+      <c r="AA414" s="42"/>
+      <c r="AB414" s="42"/>
+      <c r="AC414" s="42"/>
+      <c r="AD414" s="42"/>
+      <c r="AE414" s="43"/>
+    </row>
+    <row r="415" spans="3:31" s="8" customFormat="1" ht="21">
+      <c r="C415" s="40"/>
+      <c r="D415" s="59" t="s">
+        <v>148</v>
+      </c>
+      <c r="E415" s="61"/>
+      <c r="F415" s="61"/>
+      <c r="G415" s="61"/>
+      <c r="H415" s="61"/>
+      <c r="I415" s="61"/>
+      <c r="J415" s="61"/>
+      <c r="K415" s="61"/>
+      <c r="L415" s="61"/>
+      <c r="M415" s="61"/>
+      <c r="N415" s="61"/>
+      <c r="O415" s="61"/>
+      <c r="P415" s="61"/>
+      <c r="Q415" s="61"/>
+      <c r="R415" s="61"/>
+      <c r="S415" s="61"/>
+      <c r="T415" s="61"/>
+      <c r="U415" s="61"/>
+      <c r="V415" s="42"/>
+      <c r="W415" s="42"/>
+      <c r="X415" s="42"/>
+      <c r="Y415" s="42"/>
+      <c r="Z415" s="42"/>
+      <c r="AA415" s="42"/>
+      <c r="AB415" s="42"/>
+      <c r="AC415" s="42"/>
+      <c r="AD415" s="42"/>
+      <c r="AE415" s="43"/>
+    </row>
+    <row r="416" spans="3:31" s="8" customFormat="1" ht="17.25">
+      <c r="C416" s="40"/>
+      <c r="D416" s="42"/>
+      <c r="F416" s="42"/>
+      <c r="G416" s="42"/>
+      <c r="H416" s="42"/>
+      <c r="I416" s="42"/>
+      <c r="J416" s="42"/>
+      <c r="K416" s="42"/>
+      <c r="L416" s="42"/>
+      <c r="M416" s="42"/>
+      <c r="N416" s="42"/>
+      <c r="O416" s="42"/>
+      <c r="P416" s="42"/>
+      <c r="Q416" s="42"/>
+      <c r="R416" s="42"/>
+      <c r="S416" s="42"/>
+      <c r="T416" s="42"/>
+      <c r="U416" s="42"/>
+      <c r="V416" s="42"/>
+      <c r="W416" s="42"/>
+      <c r="X416" s="42"/>
+      <c r="Y416" s="42"/>
+      <c r="Z416" s="42"/>
+      <c r="AA416" s="42"/>
+      <c r="AB416" s="42"/>
+      <c r="AC416" s="42"/>
+      <c r="AD416" s="42"/>
+      <c r="AE416" s="43"/>
+    </row>
+    <row r="417" spans="3:31" s="8" customFormat="1" ht="28.5">
+      <c r="C417" s="40"/>
+      <c r="D417" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="E417" s="42"/>
+      <c r="F417" s="42"/>
+      <c r="G417" s="42"/>
+      <c r="H417" s="42"/>
+      <c r="I417" s="42"/>
+      <c r="J417" s="42"/>
+      <c r="K417" s="42"/>
+      <c r="L417" s="42"/>
+      <c r="M417" s="42"/>
+      <c r="N417" s="42"/>
+      <c r="O417" s="42"/>
+      <c r="P417" s="42"/>
+      <c r="Q417" s="42"/>
+      <c r="R417" s="42"/>
+      <c r="S417" s="42"/>
+      <c r="T417" s="42"/>
+      <c r="U417" s="42"/>
+      <c r="V417" s="42"/>
+      <c r="W417" s="42"/>
+      <c r="X417" s="42"/>
+      <c r="Y417" s="42"/>
+      <c r="Z417" s="42"/>
+      <c r="AA417" s="42"/>
+      <c r="AB417" s="42"/>
+      <c r="AC417" s="42"/>
+      <c r="AD417" s="42"/>
+      <c r="AE417" s="43"/>
+    </row>
+    <row r="418" spans="3:31" ht="21">
+      <c r="C418" s="40"/>
+      <c r="D418" s="60"/>
+      <c r="E418" s="61"/>
+      <c r="F418" s="61"/>
+      <c r="G418" s="61"/>
+      <c r="H418" s="61"/>
+      <c r="I418" s="61"/>
+      <c r="J418" s="61"/>
+      <c r="K418" s="61"/>
+      <c r="L418" s="61"/>
+      <c r="M418" s="61"/>
+      <c r="N418" s="61"/>
+      <c r="O418" s="42"/>
+      <c r="P418" s="42"/>
+      <c r="Q418" s="42"/>
+      <c r="R418" s="42"/>
+      <c r="S418" s="42"/>
+      <c r="T418" s="42"/>
+      <c r="U418" s="42"/>
+      <c r="V418" s="42"/>
+      <c r="W418" s="42"/>
+      <c r="X418" s="42"/>
+      <c r="Y418" s="42"/>
+      <c r="Z418" s="42"/>
+      <c r="AA418" s="42"/>
+      <c r="AB418" s="42"/>
+      <c r="AC418" s="42"/>
+      <c r="AD418" s="42"/>
+      <c r="AE418" s="43"/>
+    </row>
+    <row r="419" spans="3:31" ht="17.25">
+      <c r="C419" s="40"/>
+      <c r="D419" s="42"/>
+      <c r="E419" s="42"/>
+      <c r="F419" s="42"/>
+      <c r="G419" s="42"/>
+      <c r="H419" s="42"/>
+      <c r="I419" s="42"/>
+      <c r="J419" s="42"/>
+      <c r="K419" s="42"/>
+      <c r="L419" s="42"/>
+      <c r="M419" s="42"/>
+      <c r="N419" s="42"/>
+      <c r="O419" s="42"/>
+      <c r="P419" s="42"/>
+      <c r="Q419" s="42"/>
+      <c r="R419" s="42"/>
+      <c r="S419" s="42"/>
+      <c r="T419" s="42"/>
+      <c r="U419" s="42"/>
+      <c r="V419" s="42"/>
+      <c r="W419" s="42"/>
+      <c r="X419" s="42"/>
+      <c r="Y419" s="42"/>
+      <c r="Z419" s="42"/>
+      <c r="AA419" s="42"/>
+      <c r="AB419" s="42"/>
+      <c r="AC419" s="42"/>
+      <c r="AD419" s="42"/>
+      <c r="AE419" s="43"/>
+    </row>
+    <row r="420" spans="3:31" ht="18" thickBot="1">
+      <c r="C420" s="44"/>
+      <c r="D420" s="45"/>
+      <c r="E420" s="45"/>
+      <c r="F420" s="45"/>
+      <c r="G420" s="45"/>
+      <c r="H420" s="45"/>
+      <c r="I420" s="45"/>
+      <c r="J420" s="45"/>
+      <c r="K420" s="45"/>
+      <c r="L420" s="45"/>
+      <c r="M420" s="45"/>
+      <c r="N420" s="45"/>
+      <c r="O420" s="45"/>
+      <c r="P420" s="45"/>
+      <c r="Q420" s="45"/>
+      <c r="R420" s="45"/>
+      <c r="S420" s="45"/>
+      <c r="T420" s="45"/>
+      <c r="U420" s="45"/>
+      <c r="V420" s="45"/>
+      <c r="W420" s="45"/>
+      <c r="X420" s="45"/>
+      <c r="Y420" s="45"/>
+      <c r="Z420" s="45"/>
+      <c r="AA420" s="45"/>
+      <c r="AB420" s="45"/>
+      <c r="AC420" s="45"/>
+      <c r="AD420" s="45"/>
+      <c r="AE420" s="46"/>
+    </row>
+    <row r="424" spans="3:31" ht="30">
+      <c r="C424" s="16"/>
+    </row>
+    <row r="428" spans="3:31" ht="18">
+      <c r="C428" s="162" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="429" spans="3:31">
+      <c r="C429" s="161"/>
+      <c r="D429" s="160" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="430" spans="3:31">
+      <c r="C430" s="161"/>
+      <c r="D430" s="160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="431" spans="3:31">
+      <c r="C431" s="161"/>
+      <c r="D431" s="160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="432" spans="3:31">
+      <c r="C432" s="161"/>
+      <c r="D432" s="160" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="433" spans="3:4">
+      <c r="C433" s="161"/>
+      <c r="D433" s="160" t="s">
+        <v>188</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="D262:K267"/>
-    <mergeCell ref="D270:K274"/>
-    <mergeCell ref="D277:K289"/>
-    <mergeCell ref="C26:M49"/>
-    <mergeCell ref="E121:J129"/>
-    <mergeCell ref="C138:M147"/>
-    <mergeCell ref="C155:M164"/>
+  <mergeCells count="30">
+    <mergeCell ref="D398:K409"/>
+    <mergeCell ref="D206:L213"/>
+    <mergeCell ref="D216:L227"/>
+    <mergeCell ref="D304:K321"/>
+    <mergeCell ref="D336:K352"/>
+    <mergeCell ref="D355:K383"/>
     <mergeCell ref="B2:AI11"/>
     <mergeCell ref="D19:K19"/>
     <mergeCell ref="D20:K20"/>
@@ -12653,6 +15356,13 @@
     <mergeCell ref="D16:K16"/>
     <mergeCell ref="D17:K17"/>
     <mergeCell ref="D18:K18"/>
+    <mergeCell ref="D262:K267"/>
+    <mergeCell ref="D270:K274"/>
+    <mergeCell ref="D277:K289"/>
+    <mergeCell ref="C26:M49"/>
+    <mergeCell ref="E121:J129"/>
+    <mergeCell ref="C138:M147"/>
+    <mergeCell ref="C155:M164"/>
     <mergeCell ref="D256:K256"/>
     <mergeCell ref="D183:L189"/>
     <mergeCell ref="C251:K251"/>
@@ -12662,8 +15372,6 @@
     <mergeCell ref="D255:K255"/>
     <mergeCell ref="D230:L236"/>
     <mergeCell ref="D192:L203"/>
-    <mergeCell ref="D206:L213"/>
-    <mergeCell ref="D216:L227"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M78" r:id="rId1" display="https://pub.dev/"/>
